--- a/43 テスト計画/結合テスト項目.xlsx
+++ b/43 テスト計画/結合テスト項目.xlsx
@@ -69,13 +69,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>共通</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IF項目[Timestamp (TOP)]の設定内容が統一されているか</t>
     <rPh sb="2" eb="4">
       <t>コウモク</t>
@@ -115,16 +108,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会場手配</t>
-    <rPh sb="0" eb="2">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>履歴の古いものが更新不可となっているか</t>
     <rPh sb="0" eb="2">
       <t>リレキ</t>
@@ -137,16 +120,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>交通手配</t>
-    <rPh sb="0" eb="2">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テハイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -168,14 +141,44 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カテゴリー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テスト結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記入日</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IF項目[Timestamp (TOP)]は[Timestamp (BY)]と同一内容を設定する</t>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2013/10/01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2013/11/22</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -248,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -421,6 +424,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -433,7 +510,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +522,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,67 +658,100 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,7 +1061,7 @@
   <dimension ref="A1:CL88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.85546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -951,362 +1070,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="4" t="s">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="4" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="4" t="s">
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="4" t="s">
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="5"/>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="4" t="s">
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="9"/>
+      <c r="CB1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="CC1" s="25"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="26"/>
+      <c r="CC1" s="28"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="29"/>
     </row>
     <row r="2" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
+      <c r="A2" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="17"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="38"/>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="39"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="38"/>
-      <c r="BV2" s="38"/>
-      <c r="BW2" s="39"/>
-      <c r="BX2" s="37"/>
-      <c r="BY2" s="38"/>
-      <c r="BZ2" s="38"/>
-      <c r="CA2" s="39"/>
-      <c r="CB2" s="36" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="41"/>
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="41"/>
+      <c r="BO2" s="41"/>
+      <c r="BP2" s="41"/>
+      <c r="BQ2" s="41"/>
+      <c r="BR2" s="41"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="41"/>
+      <c r="BV2" s="41"/>
+      <c r="BW2" s="42"/>
+      <c r="BX2" s="40"/>
+      <c r="BY2" s="41"/>
+      <c r="BZ2" s="41"/>
+      <c r="CA2" s="42"/>
+      <c r="CB2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="29"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="32"/>
     </row>
     <row r="3" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="21"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="40"/>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="41"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="32"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="44"/>
+      <c r="BV3" s="44"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="44"/>
+      <c r="BZ3" s="44"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="34"/>
+      <c r="CD3" s="34"/>
+      <c r="CE3" s="35"/>
     </row>
     <row r="4" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="44"/>
-      <c r="BK4" s="44"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="45"/>
-      <c r="BT4" s="43"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="45"/>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="44"/>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="45"/>
-      <c r="CB4" s="33"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="35"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="47"/>
+      <c r="BR4" s="47"/>
+      <c r="BS4" s="48"/>
+      <c r="BT4" s="46"/>
+      <c r="BU4" s="47"/>
+      <c r="BV4" s="47"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="46"/>
+      <c r="BY4" s="47"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="36"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="38"/>
     </row>
     <row r="5" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
@@ -1401,486 +1520,486 @@
       <c r="CL5" s="3"/>
     </row>
     <row r="6" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>16</v>
+      <c r="A6" s="4" t="s">
+        <v>13</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="58" t="s">
-        <v>17</v>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="58" t="s">
-        <v>10</v>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="58" t="s">
-        <v>18</v>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
-      <c r="BL6" s="59"/>
-      <c r="BM6" s="59"/>
-      <c r="BN6" s="59"/>
-      <c r="BO6" s="59"/>
-      <c r="BP6" s="59"/>
-      <c r="BQ6" s="59"/>
-      <c r="BR6" s="59"/>
-      <c r="BS6" s="59"/>
-      <c r="BT6" s="59"/>
-      <c r="BU6" s="59"/>
-      <c r="BV6" s="59"/>
-      <c r="BW6" s="59"/>
-      <c r="BX6" s="59"/>
-      <c r="BY6" s="59"/>
-      <c r="BZ6" s="59"/>
-      <c r="CA6" s="59"/>
-      <c r="CB6" s="59"/>
-      <c r="CC6" s="59"/>
-      <c r="CD6" s="59"/>
-      <c r="CE6" s="60"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BO6" s="5"/>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="6"/>
       <c r="CF6" s="3"/>
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
     </row>
-    <row r="7" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A7" s="54">
+    <row r="7" spans="1:90" ht="23.25" customHeight="1">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="47"/>
-      <c r="AY7" s="47"/>
-      <c r="AZ7" s="47"/>
-      <c r="BA7" s="47"/>
-      <c r="BB7" s="47"/>
-      <c r="BC7" s="47"/>
-      <c r="BD7" s="47"/>
-      <c r="BE7" s="47"/>
-      <c r="BF7" s="47"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="47"/>
-      <c r="BJ7" s="47"/>
-      <c r="BK7" s="47"/>
-      <c r="BL7" s="47"/>
-      <c r="BM7" s="47"/>
-      <c r="BN7" s="47"/>
-      <c r="BO7" s="47"/>
-      <c r="BP7" s="47"/>
-      <c r="BQ7" s="47"/>
-      <c r="BR7" s="47"/>
-      <c r="BS7" s="47"/>
-      <c r="BT7" s="47"/>
-      <c r="BU7" s="47"/>
-      <c r="BV7" s="47"/>
-      <c r="BW7" s="47"/>
-      <c r="BX7" s="47"/>
-      <c r="BY7" s="47"/>
-      <c r="BZ7" s="47"/>
-      <c r="CA7" s="47"/>
-      <c r="CB7" s="47"/>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="47"/>
-      <c r="CE7" s="52"/>
-      <c r="CF7" s="3"/>
-      <c r="CG7" s="3"/>
-      <c r="CH7" s="3"/>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="74"/>
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="74"/>
+      <c r="BK7" s="74"/>
+      <c r="BL7" s="74"/>
+      <c r="BM7" s="74"/>
+      <c r="BN7" s="74"/>
+      <c r="BO7" s="74"/>
+      <c r="BP7" s="74"/>
+      <c r="BQ7" s="74"/>
+      <c r="BR7" s="74"/>
+      <c r="BS7" s="74"/>
+      <c r="BT7" s="74"/>
+      <c r="BU7" s="74"/>
+      <c r="BV7" s="74"/>
+      <c r="BW7" s="74"/>
+      <c r="BX7" s="74"/>
+      <c r="BY7" s="74"/>
+      <c r="BZ7" s="74"/>
+      <c r="CA7" s="74"/>
+      <c r="CB7" s="74"/>
+      <c r="CC7" s="74"/>
+      <c r="CD7" s="74"/>
+      <c r="CE7" s="75"/>
+      <c r="CF7" s="54"/>
+      <c r="CG7" s="54"/>
+      <c r="CH7" s="54"/>
+      <c r="CI7" s="54"/>
+      <c r="CJ7" s="54"/>
     </row>
-    <row r="8" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A8" s="61">
+    <row r="8" spans="1:90" ht="23.25" customHeight="1">
+      <c r="A8" s="55">
         <v>2</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63" t="s">
-        <v>8</v>
+      <c r="B8" s="56"/>
+      <c r="C8" s="66" t="s">
+        <v>17</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="64" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="58"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
+      <c r="BP8" s="57"/>
+      <c r="BQ8" s="57"/>
+      <c r="BR8" s="57"/>
+      <c r="BS8" s="57"/>
+      <c r="BT8" s="57"/>
+      <c r="BU8" s="57"/>
+      <c r="BV8" s="57"/>
+      <c r="BW8" s="57"/>
+      <c r="BX8" s="57"/>
+      <c r="BY8" s="57"/>
+      <c r="BZ8" s="57"/>
+      <c r="CA8" s="57"/>
+      <c r="CB8" s="57"/>
+      <c r="CC8" s="57"/>
+      <c r="CD8" s="57"/>
+      <c r="CE8" s="58"/>
+      <c r="CF8" s="54"/>
+      <c r="CG8" s="54"/>
+      <c r="CH8" s="54"/>
+      <c r="CI8" s="54"/>
+      <c r="CJ8" s="54"/>
+    </row>
+    <row r="9" spans="1:90" ht="23.25" customHeight="1">
+      <c r="A9" s="55">
+        <v>3</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="64"/>
-      <c r="BE8" s="64"/>
-      <c r="BF8" s="64"/>
-      <c r="BG8" s="64"/>
-      <c r="BH8" s="64"/>
-      <c r="BI8" s="64"/>
-      <c r="BJ8" s="64"/>
-      <c r="BK8" s="64"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="64"/>
-      <c r="BN8" s="64"/>
-      <c r="BO8" s="64"/>
-      <c r="BP8" s="64"/>
-      <c r="BQ8" s="64"/>
-      <c r="BR8" s="64"/>
-      <c r="BS8" s="64"/>
-      <c r="BT8" s="64"/>
-      <c r="BU8" s="64"/>
-      <c r="BV8" s="64"/>
-      <c r="BW8" s="64"/>
-      <c r="BX8" s="64"/>
-      <c r="BY8" s="64"/>
-      <c r="BZ8" s="64"/>
-      <c r="CA8" s="64"/>
-      <c r="CB8" s="64"/>
-      <c r="CC8" s="64"/>
-      <c r="CD8" s="64"/>
-      <c r="CE8" s="66"/>
-      <c r="CF8" s="3"/>
-      <c r="CG8" s="3"/>
-      <c r="CH8" s="3"/>
-      <c r="CI8" s="3"/>
-      <c r="CJ8" s="3"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="58"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="57"/>
+      <c r="BA9" s="57"/>
+      <c r="BB9" s="57"/>
+      <c r="BC9" s="57"/>
+      <c r="BD9" s="57"/>
+      <c r="BE9" s="57"/>
+      <c r="BF9" s="57"/>
+      <c r="BG9" s="57"/>
+      <c r="BH9" s="57"/>
+      <c r="BI9" s="57"/>
+      <c r="BJ9" s="57"/>
+      <c r="BK9" s="57"/>
+      <c r="BL9" s="57"/>
+      <c r="BM9" s="57"/>
+      <c r="BN9" s="57"/>
+      <c r="BO9" s="57"/>
+      <c r="BP9" s="57"/>
+      <c r="BQ9" s="57"/>
+      <c r="BR9" s="57"/>
+      <c r="BS9" s="57"/>
+      <c r="BT9" s="57"/>
+      <c r="BU9" s="57"/>
+      <c r="BV9" s="57"/>
+      <c r="BW9" s="57"/>
+      <c r="BX9" s="57"/>
+      <c r="BY9" s="57"/>
+      <c r="BZ9" s="57"/>
+      <c r="CA9" s="57"/>
+      <c r="CB9" s="57"/>
+      <c r="CC9" s="57"/>
+      <c r="CD9" s="57"/>
+      <c r="CE9" s="58"/>
+      <c r="CF9" s="54"/>
+      <c r="CG9" s="54"/>
+      <c r="CH9" s="54"/>
+      <c r="CI9" s="54"/>
+      <c r="CJ9" s="54"/>
     </row>
-    <row r="9" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A9" s="61">
-        <v>3</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="64"/>
-      <c r="AY9" s="64"/>
-      <c r="AZ9" s="64"/>
-      <c r="BA9" s="64"/>
-      <c r="BB9" s="64"/>
-      <c r="BC9" s="64"/>
-      <c r="BD9" s="64"/>
-      <c r="BE9" s="64"/>
-      <c r="BF9" s="64"/>
-      <c r="BG9" s="64"/>
-      <c r="BH9" s="64"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="64"/>
-      <c r="BK9" s="64"/>
-      <c r="BL9" s="64"/>
-      <c r="BM9" s="64"/>
-      <c r="BN9" s="64"/>
-      <c r="BO9" s="64"/>
-      <c r="BP9" s="64"/>
-      <c r="BQ9" s="64"/>
-      <c r="BR9" s="64"/>
-      <c r="BS9" s="64"/>
-      <c r="BT9" s="64"/>
-      <c r="BU9" s="64"/>
-      <c r="BV9" s="64"/>
-      <c r="BW9" s="64"/>
-      <c r="BX9" s="64"/>
-      <c r="BY9" s="64"/>
-      <c r="BZ9" s="64"/>
-      <c r="CA9" s="64"/>
-      <c r="CB9" s="64"/>
-      <c r="CC9" s="64"/>
-      <c r="CD9" s="64"/>
-      <c r="CE9" s="66"/>
-      <c r="CF9" s="3"/>
-      <c r="CG9" s="3"/>
-      <c r="CH9" s="3"/>
-      <c r="CI9" s="3"/>
-      <c r="CJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A10" s="56">
+    <row r="10" spans="1:90" ht="23.25" customHeight="1">
+      <c r="A10" s="71">
         <v>4</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="49" t="s">
-        <v>14</v>
+      <c r="B10" s="72"/>
+      <c r="C10" s="79" t="s">
+        <v>18</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="50" t="s">
-        <v>13</v>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="62" t="s">
+        <v>16</v>
       </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
-      <c r="BF10" s="50"/>
-      <c r="BG10" s="50"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="50"/>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
-      <c r="BQ10" s="50"/>
-      <c r="BR10" s="50"/>
-      <c r="BS10" s="50"/>
-      <c r="BT10" s="50"/>
-      <c r="BU10" s="50"/>
-      <c r="BV10" s="50"/>
-      <c r="BW10" s="50"/>
-      <c r="BX10" s="50"/>
-      <c r="BY10" s="50"/>
-      <c r="BZ10" s="50"/>
-      <c r="CA10" s="50"/>
-      <c r="CB10" s="50"/>
-      <c r="CC10" s="50"/>
-      <c r="CD10" s="50"/>
-      <c r="CE10" s="53"/>
-      <c r="CF10" s="3"/>
-      <c r="CG10" s="3"/>
-      <c r="CH10" s="3"/>
-      <c r="CI10" s="3"/>
-      <c r="CJ10" s="3"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="77"/>
+      <c r="BK10" s="77"/>
+      <c r="BL10" s="77"/>
+      <c r="BM10" s="77"/>
+      <c r="BN10" s="77"/>
+      <c r="BO10" s="77"/>
+      <c r="BP10" s="77"/>
+      <c r="BQ10" s="77"/>
+      <c r="BR10" s="77"/>
+      <c r="BS10" s="77"/>
+      <c r="BT10" s="77"/>
+      <c r="BU10" s="77"/>
+      <c r="BV10" s="77"/>
+      <c r="BW10" s="77"/>
+      <c r="BX10" s="77"/>
+      <c r="BY10" s="77"/>
+      <c r="BZ10" s="77"/>
+      <c r="CA10" s="77"/>
+      <c r="CB10" s="77"/>
+      <c r="CC10" s="77"/>
+      <c r="CD10" s="77"/>
+      <c r="CE10" s="78"/>
+      <c r="CF10" s="54"/>
+      <c r="CG10" s="54"/>
+      <c r="CH10" s="54"/>
+      <c r="CI10" s="54"/>
+      <c r="CJ10" s="54"/>
     </row>
     <row r="11" spans="1:90" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
@@ -9059,17 +9178,18 @@
       <c r="CL88" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:AU6"/>
-    <mergeCell ref="AV6:CE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="31">
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="AT6:CE6"/>
+    <mergeCell ref="AT7:CE7"/>
+    <mergeCell ref="AT8:CE8"/>
+    <mergeCell ref="AT9:CE9"/>
+    <mergeCell ref="AT10:CE10"/>
+    <mergeCell ref="I10:AS10"/>
+    <mergeCell ref="I7:AS7"/>
+    <mergeCell ref="I8:AS8"/>
+    <mergeCell ref="I9:AS9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y4"/>
     <mergeCell ref="Z1:AI1"/>
     <mergeCell ref="Z2:AI4"/>
     <mergeCell ref="CB1:CE1"/>
@@ -9083,6 +9203,13 @@
     <mergeCell ref="BX2:CA4"/>
     <mergeCell ref="BG2:BS4"/>
     <mergeCell ref="BG1:BS1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y4"/>
+    <mergeCell ref="I6:AS6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/43 テスト計画/結合テスト項目.xlsx
+++ b/43 テスト計画/結合テスト項目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -181,6 +181,139 @@
     <t>2013/11/22</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>2013/11/25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nozomiへ送信されたのか？　【Nozomiへボタン】が押されたのか？　何時送信されたのか分からない。　直近の送信データ作成日時が必要では？　</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通宿泊手配　回答</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手配書印刷　プレビューから【前の画面に戻る】でエラーとなる</t>
+    <rPh sb="0" eb="3">
+      <t>テハイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会場手配　回答
+交通宿泊手配　回答
+請求承認依頼</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会場手配　回答</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手配書印刷でプレビューが表示されない</t>
+    <rPh sb="0" eb="3">
+      <t>テハイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -498,6 +631,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,7 +674,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,6 +687,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +735,48 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,6 +786,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -568,191 +909,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1058,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CL88"/>
+  <dimension ref="A1:CT93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="S14" sqref="S14:BC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.85546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1069,365 +1287,365 @@
     <col min="1" max="16384" width="1.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:98" ht="15.75" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="7" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="7" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="7" t="s">
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="7" t="s">
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="7" t="s">
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="9"/>
-      <c r="CB1" s="7" t="s">
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="29"/>
+      <c r="CC1" s="46"/>
+      <c r="CD1" s="46"/>
+      <c r="CE1" s="47"/>
     </row>
-    <row r="2" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:98" ht="15.75" customHeight="1">
+      <c r="A2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
-      <c r="BR2" s="41"/>
-      <c r="BS2" s="42"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="41"/>
-      <c r="BV2" s="41"/>
-      <c r="BW2" s="42"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="41"/>
-      <c r="BZ2" s="41"/>
-      <c r="CA2" s="42"/>
-      <c r="CB2" s="39" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="60"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="59"/>
+      <c r="BV2" s="59"/>
+      <c r="BW2" s="60"/>
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="59"/>
+      <c r="BZ2" s="59"/>
+      <c r="CA2" s="60"/>
+      <c r="CB2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
-      <c r="CE2" s="32"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="50"/>
     </row>
-    <row r="3" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="23"/>
-      <c r="BA3" s="23"/>
-      <c r="BB3" s="23"/>
-      <c r="BC3" s="23"/>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="44"/>
-      <c r="BV3" s="44"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="44"/>
-      <c r="BZ3" s="44"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="33"/>
-      <c r="CC3" s="34"/>
-      <c r="CD3" s="34"/>
-      <c r="CE3" s="35"/>
+    <row r="3" spans="1:98" ht="15.75" customHeight="1">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="41"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="41"/>
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
+      <c r="BS3" s="63"/>
+      <c r="BT3" s="61"/>
+      <c r="BU3" s="62"/>
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="63"/>
+      <c r="BX3" s="61"/>
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="63"/>
+      <c r="CB3" s="51"/>
+      <c r="CC3" s="52"/>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="53"/>
     </row>
-    <row r="4" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="27"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="47"/>
-      <c r="BO4" s="47"/>
-      <c r="BP4" s="47"/>
-      <c r="BQ4" s="47"/>
-      <c r="BR4" s="47"/>
-      <c r="BS4" s="48"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="47"/>
-      <c r="BV4" s="47"/>
-      <c r="BW4" s="48"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="47"/>
-      <c r="BZ4" s="47"/>
-      <c r="CA4" s="48"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="38"/>
+    <row r="4" spans="1:98" ht="15.75" customHeight="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="45"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="65"/>
+      <c r="BJ4" s="65"/>
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="65"/>
+      <c r="BM4" s="65"/>
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65"/>
+      <c r="BQ4" s="65"/>
+      <c r="BR4" s="65"/>
+      <c r="BS4" s="66"/>
+      <c r="BT4" s="64"/>
+      <c r="BU4" s="65"/>
+      <c r="BV4" s="65"/>
+      <c r="BW4" s="66"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="65"/>
+      <c r="BZ4" s="65"/>
+      <c r="CA4" s="66"/>
+      <c r="CB4" s="54"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="56"/>
     </row>
-    <row r="5" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:98" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1519,949 +1737,1065 @@
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
     </row>
-    <row r="6" spans="1:90" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:98" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="4" t="s">
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="5"/>
-      <c r="BR6" s="5"/>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="5"/>
-      <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
-      <c r="BX6" s="5"/>
-      <c r="BY6" s="5"/>
-      <c r="BZ6" s="5"/>
-      <c r="CA6" s="5"/>
-      <c r="CB6" s="5"/>
-      <c r="CC6" s="5"/>
-      <c r="CD6" s="5"/>
-      <c r="CE6" s="6"/>
-      <c r="CF6" s="3"/>
-      <c r="CG6" s="3"/>
-      <c r="CH6" s="3"/>
-      <c r="CI6" s="3"/>
-      <c r="CJ6" s="3"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="18"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="18"/>
+      <c r="BS6" s="18"/>
+      <c r="BT6" s="18"/>
+      <c r="BU6" s="18"/>
+      <c r="BV6" s="18"/>
+      <c r="BW6" s="18"/>
+      <c r="BX6" s="18"/>
+      <c r="BY6" s="18"/>
+      <c r="BZ6" s="18"/>
+      <c r="CA6" s="18"/>
+      <c r="CB6" s="18"/>
+      <c r="CC6" s="18"/>
+      <c r="CD6" s="18"/>
+      <c r="CE6" s="18"/>
+      <c r="CF6" s="18"/>
+      <c r="CG6" s="18"/>
+      <c r="CH6" s="18"/>
+      <c r="CI6" s="18"/>
+      <c r="CJ6" s="18"/>
+      <c r="CK6" s="18"/>
+      <c r="CL6" s="18"/>
+      <c r="CM6" s="18"/>
+      <c r="CN6" s="18"/>
+      <c r="CO6" s="19"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
     </row>
-    <row r="7" spans="1:90" ht="23.25" customHeight="1">
-      <c r="A7" s="49">
+    <row r="7" spans="1:98" ht="23.25" customHeight="1">
+      <c r="A7" s="78">
         <v>1</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="53" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="74"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="74"/>
-      <c r="BE7" s="74"/>
-      <c r="BF7" s="74"/>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="74"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="74"/>
-      <c r="BK7" s="74"/>
-      <c r="BL7" s="74"/>
-      <c r="BM7" s="74"/>
-      <c r="BN7" s="74"/>
-      <c r="BO7" s="74"/>
-      <c r="BP7" s="74"/>
-      <c r="BQ7" s="74"/>
-      <c r="BR7" s="74"/>
-      <c r="BS7" s="74"/>
-      <c r="BT7" s="74"/>
-      <c r="BU7" s="74"/>
-      <c r="BV7" s="74"/>
-      <c r="BW7" s="74"/>
-      <c r="BX7" s="74"/>
-      <c r="BY7" s="74"/>
-      <c r="BZ7" s="74"/>
-      <c r="CA7" s="74"/>
-      <c r="CB7" s="74"/>
-      <c r="CC7" s="74"/>
-      <c r="CD7" s="74"/>
-      <c r="CE7" s="75"/>
-      <c r="CF7" s="54"/>
-      <c r="CG7" s="54"/>
-      <c r="CH7" s="54"/>
-      <c r="CI7" s="54"/>
-      <c r="CJ7" s="54"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="31"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
+      <c r="CM7" s="21"/>
+      <c r="CN7" s="21"/>
+      <c r="CO7" s="22"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
     </row>
-    <row r="8" spans="1:90" ht="23.25" customHeight="1">
-      <c r="A8" s="55">
+    <row r="8" spans="1:98" ht="23.25" customHeight="1">
+      <c r="A8" s="67">
         <v>2</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="66" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="59" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
-      <c r="BP8" s="57"/>
-      <c r="BQ8" s="57"/>
-      <c r="BR8" s="57"/>
-      <c r="BS8" s="57"/>
-      <c r="BT8" s="57"/>
-      <c r="BU8" s="57"/>
-      <c r="BV8" s="57"/>
-      <c r="BW8" s="57"/>
-      <c r="BX8" s="57"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="57"/>
-      <c r="CA8" s="57"/>
-      <c r="CB8" s="57"/>
-      <c r="CC8" s="57"/>
-      <c r="CD8" s="57"/>
-      <c r="CE8" s="58"/>
-      <c r="CF8" s="54"/>
-      <c r="CG8" s="54"/>
-      <c r="CH8" s="54"/>
-      <c r="CI8" s="54"/>
-      <c r="CJ8" s="54"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="24"/>
+      <c r="AW8" s="24"/>
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="24"/>
+      <c r="AZ8" s="24"/>
+      <c r="BA8" s="24"/>
+      <c r="BB8" s="24"/>
+      <c r="BC8" s="25"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="24"/>
+      <c r="BF8" s="24"/>
+      <c r="BG8" s="24"/>
+      <c r="BH8" s="24"/>
+      <c r="BI8" s="24"/>
+      <c r="BJ8" s="24"/>
+      <c r="BK8" s="24"/>
+      <c r="BL8" s="24"/>
+      <c r="BM8" s="24"/>
+      <c r="BN8" s="24"/>
+      <c r="BO8" s="24"/>
+      <c r="BP8" s="24"/>
+      <c r="BQ8" s="24"/>
+      <c r="BR8" s="24"/>
+      <c r="BS8" s="24"/>
+      <c r="BT8" s="24"/>
+      <c r="BU8" s="24"/>
+      <c r="BV8" s="24"/>
+      <c r="BW8" s="24"/>
+      <c r="BX8" s="24"/>
+      <c r="BY8" s="24"/>
+      <c r="BZ8" s="24"/>
+      <c r="CA8" s="24"/>
+      <c r="CB8" s="24"/>
+      <c r="CC8" s="24"/>
+      <c r="CD8" s="24"/>
+      <c r="CE8" s="24"/>
+      <c r="CF8" s="24"/>
+      <c r="CG8" s="24"/>
+      <c r="CH8" s="24"/>
+      <c r="CI8" s="24"/>
+      <c r="CJ8" s="24"/>
+      <c r="CK8" s="24"/>
+      <c r="CL8" s="24"/>
+      <c r="CM8" s="24"/>
+      <c r="CN8" s="24"/>
+      <c r="CO8" s="25"/>
+      <c r="CP8" s="5"/>
+      <c r="CQ8" s="5"/>
+      <c r="CR8" s="5"/>
+      <c r="CS8" s="5"/>
+      <c r="CT8" s="5"/>
     </row>
-    <row r="9" spans="1:90" ht="23.25" customHeight="1">
-      <c r="A9" s="55">
+    <row r="9" spans="1:98" ht="23.25" customHeight="1">
+      <c r="A9" s="67">
         <v>3</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="66" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="59" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="57"/>
-      <c r="BA9" s="57"/>
-      <c r="BB9" s="57"/>
-      <c r="BC9" s="57"/>
-      <c r="BD9" s="57"/>
-      <c r="BE9" s="57"/>
-      <c r="BF9" s="57"/>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="57"/>
-      <c r="BI9" s="57"/>
-      <c r="BJ9" s="57"/>
-      <c r="BK9" s="57"/>
-      <c r="BL9" s="57"/>
-      <c r="BM9" s="57"/>
-      <c r="BN9" s="57"/>
-      <c r="BO9" s="57"/>
-      <c r="BP9" s="57"/>
-      <c r="BQ9" s="57"/>
-      <c r="BR9" s="57"/>
-      <c r="BS9" s="57"/>
-      <c r="BT9" s="57"/>
-      <c r="BU9" s="57"/>
-      <c r="BV9" s="57"/>
-      <c r="BW9" s="57"/>
-      <c r="BX9" s="57"/>
-      <c r="BY9" s="57"/>
-      <c r="BZ9" s="57"/>
-      <c r="CA9" s="57"/>
-      <c r="CB9" s="57"/>
-      <c r="CC9" s="57"/>
-      <c r="CD9" s="57"/>
-      <c r="CE9" s="58"/>
-      <c r="CF9" s="54"/>
-      <c r="CG9" s="54"/>
-      <c r="CH9" s="54"/>
-      <c r="CI9" s="54"/>
-      <c r="CJ9" s="54"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24"/>
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24"/>
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24"/>
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24"/>
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24"/>
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24"/>
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
+      <c r="CH9" s="24"/>
+      <c r="CI9" s="24"/>
+      <c r="CJ9" s="24"/>
+      <c r="CK9" s="24"/>
+      <c r="CL9" s="24"/>
+      <c r="CM9" s="24"/>
+      <c r="CN9" s="24"/>
+      <c r="CO9" s="25"/>
+      <c r="CP9" s="5"/>
+      <c r="CQ9" s="5"/>
+      <c r="CR9" s="5"/>
+      <c r="CS9" s="5"/>
+      <c r="CT9" s="5"/>
     </row>
-    <row r="10" spans="1:90" ht="23.25" customHeight="1">
-      <c r="A10" s="71">
+    <row r="10" spans="1:98" ht="23.25" customHeight="1">
+      <c r="A10" s="81">
         <v>4</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="79" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="62" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="77"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="77"/>
-      <c r="BH10" s="77"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="77"/>
-      <c r="BK10" s="77"/>
-      <c r="BL10" s="77"/>
-      <c r="BM10" s="77"/>
-      <c r="BN10" s="77"/>
-      <c r="BO10" s="77"/>
-      <c r="BP10" s="77"/>
-      <c r="BQ10" s="77"/>
-      <c r="BR10" s="77"/>
-      <c r="BS10" s="77"/>
-      <c r="BT10" s="77"/>
-      <c r="BU10" s="77"/>
-      <c r="BV10" s="77"/>
-      <c r="BW10" s="77"/>
-      <c r="BX10" s="77"/>
-      <c r="BY10" s="77"/>
-      <c r="BZ10" s="77"/>
-      <c r="CA10" s="77"/>
-      <c r="CB10" s="77"/>
-      <c r="CC10" s="77"/>
-      <c r="CD10" s="77"/>
-      <c r="CE10" s="78"/>
-      <c r="CF10" s="54"/>
-      <c r="CG10" s="54"/>
-      <c r="CH10" s="54"/>
-      <c r="CI10" s="54"/>
-      <c r="CJ10" s="54"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="88"/>
+      <c r="BD10" s="89"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BJ10" s="90"/>
+      <c r="BK10" s="90"/>
+      <c r="BL10" s="90"/>
+      <c r="BM10" s="90"/>
+      <c r="BN10" s="90"/>
+      <c r="BO10" s="90"/>
+      <c r="BP10" s="90"/>
+      <c r="BQ10" s="90"/>
+      <c r="BR10" s="90"/>
+      <c r="BS10" s="90"/>
+      <c r="BT10" s="90"/>
+      <c r="BU10" s="90"/>
+      <c r="BV10" s="90"/>
+      <c r="BW10" s="90"/>
+      <c r="BX10" s="90"/>
+      <c r="BY10" s="90"/>
+      <c r="BZ10" s="90"/>
+      <c r="CA10" s="90"/>
+      <c r="CB10" s="90"/>
+      <c r="CC10" s="90"/>
+      <c r="CD10" s="90"/>
+      <c r="CE10" s="90"/>
+      <c r="CF10" s="90"/>
+      <c r="CG10" s="90"/>
+      <c r="CH10" s="90"/>
+      <c r="CI10" s="90"/>
+      <c r="CJ10" s="90"/>
+      <c r="CK10" s="90"/>
+      <c r="CL10" s="90"/>
+      <c r="CM10" s="90"/>
+      <c r="CN10" s="90"/>
+      <c r="CO10" s="91"/>
+      <c r="CP10" s="5"/>
+      <c r="CQ10" s="5"/>
+      <c r="CR10" s="5"/>
+      <c r="CS10" s="5"/>
+      <c r="CT10" s="5"/>
     </row>
-    <row r="11" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
-      <c r="BO11" s="3"/>
-      <c r="BP11" s="3"/>
-      <c r="BQ11" s="3"/>
-      <c r="BR11" s="3"/>
-      <c r="BS11" s="3"/>
-      <c r="BT11" s="3"/>
-      <c r="BU11" s="3"/>
-      <c r="BV11" s="3"/>
-      <c r="BW11" s="3"/>
-      <c r="BX11" s="3"/>
-      <c r="BY11" s="3"/>
-      <c r="BZ11" s="3"/>
-      <c r="CA11" s="3"/>
-      <c r="CB11" s="3"/>
-      <c r="CC11" s="3"/>
-      <c r="CD11" s="3"/>
-      <c r="CE11" s="3"/>
-      <c r="CF11" s="3"/>
-      <c r="CG11" s="3"/>
-      <c r="CH11" s="3"/>
-      <c r="CI11" s="3"/>
-      <c r="CJ11" s="3"/>
-      <c r="CK11" s="3"/>
-      <c r="CL11" s="3"/>
+    <row r="11" spans="1:98" ht="51.75" customHeight="1">
+      <c r="A11" s="67">
+        <v>5</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="93"/>
+      <c r="AW11" s="93"/>
+      <c r="AX11" s="93"/>
+      <c r="AY11" s="93"/>
+      <c r="AZ11" s="93"/>
+      <c r="BA11" s="93"/>
+      <c r="BB11" s="93"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="23"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="24"/>
+      <c r="BJ11" s="24"/>
+      <c r="BK11" s="24"/>
+      <c r="BL11" s="24"/>
+      <c r="BM11" s="24"/>
+      <c r="BN11" s="24"/>
+      <c r="BO11" s="24"/>
+      <c r="BP11" s="24"/>
+      <c r="BQ11" s="24"/>
+      <c r="BR11" s="24"/>
+      <c r="BS11" s="24"/>
+      <c r="BT11" s="24"/>
+      <c r="BU11" s="24"/>
+      <c r="BV11" s="24"/>
+      <c r="BW11" s="24"/>
+      <c r="BX11" s="24"/>
+      <c r="BY11" s="24"/>
+      <c r="BZ11" s="24"/>
+      <c r="CA11" s="24"/>
+      <c r="CB11" s="24"/>
+      <c r="CC11" s="24"/>
+      <c r="CD11" s="24"/>
+      <c r="CE11" s="24"/>
+      <c r="CF11" s="24"/>
+      <c r="CG11" s="24"/>
+      <c r="CH11" s="24"/>
+      <c r="CI11" s="24"/>
+      <c r="CJ11" s="24"/>
+      <c r="CK11" s="24"/>
+      <c r="CL11" s="24"/>
+      <c r="CM11" s="24"/>
+      <c r="CN11" s="24"/>
+      <c r="CO11" s="25"/>
+      <c r="CP11" s="5"/>
+      <c r="CQ11" s="5"/>
+      <c r="CR11" s="5"/>
+      <c r="CS11" s="5"/>
+      <c r="CT11" s="5"/>
     </row>
-    <row r="12" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="3"/>
-      <c r="BW12" s="3"/>
-      <c r="BX12" s="3"/>
-      <c r="BY12" s="3"/>
-      <c r="BZ12" s="3"/>
-      <c r="CA12" s="3"/>
-      <c r="CB12" s="3"/>
-      <c r="CC12" s="3"/>
-      <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
-      <c r="CI12" s="3"/>
-      <c r="CJ12" s="3"/>
-      <c r="CK12" s="3"/>
-      <c r="CL12" s="3"/>
+    <row r="12" spans="1:98" ht="23.25" customHeight="1">
+      <c r="A12" s="67">
+        <v>6</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="24"/>
+      <c r="AV12" s="24"/>
+      <c r="AW12" s="24"/>
+      <c r="AX12" s="24"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="24"/>
+      <c r="BA12" s="24"/>
+      <c r="BB12" s="24"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="24"/>
+      <c r="BF12" s="24"/>
+      <c r="BG12" s="24"/>
+      <c r="BH12" s="24"/>
+      <c r="BI12" s="24"/>
+      <c r="BJ12" s="24"/>
+      <c r="BK12" s="24"/>
+      <c r="BL12" s="24"/>
+      <c r="BM12" s="24"/>
+      <c r="BN12" s="24"/>
+      <c r="BO12" s="24"/>
+      <c r="BP12" s="24"/>
+      <c r="BQ12" s="24"/>
+      <c r="BR12" s="24"/>
+      <c r="BS12" s="24"/>
+      <c r="BT12" s="24"/>
+      <c r="BU12" s="24"/>
+      <c r="BV12" s="24"/>
+      <c r="BW12" s="24"/>
+      <c r="BX12" s="24"/>
+      <c r="BY12" s="24"/>
+      <c r="BZ12" s="24"/>
+      <c r="CA12" s="24"/>
+      <c r="CB12" s="24"/>
+      <c r="CC12" s="24"/>
+      <c r="CD12" s="24"/>
+      <c r="CE12" s="24"/>
+      <c r="CF12" s="24"/>
+      <c r="CG12" s="24"/>
+      <c r="CH12" s="24"/>
+      <c r="CI12" s="24"/>
+      <c r="CJ12" s="24"/>
+      <c r="CK12" s="24"/>
+      <c r="CL12" s="24"/>
+      <c r="CM12" s="24"/>
+      <c r="CN12" s="24"/>
+      <c r="CO12" s="25"/>
+      <c r="CP12" s="5"/>
+      <c r="CQ12" s="5"/>
+      <c r="CR12" s="5"/>
+      <c r="CS12" s="5"/>
+      <c r="CT12" s="5"/>
     </row>
-    <row r="13" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="3"/>
-      <c r="BZ13" s="3"/>
-      <c r="CA13" s="3"/>
-      <c r="CB13" s="3"/>
-      <c r="CC13" s="3"/>
-      <c r="CD13" s="3"/>
-      <c r="CE13" s="3"/>
-      <c r="CF13" s="3"/>
-      <c r="CG13" s="3"/>
-      <c r="CH13" s="3"/>
-      <c r="CI13" s="3"/>
-      <c r="CJ13" s="3"/>
-      <c r="CK13" s="3"/>
-      <c r="CL13" s="3"/>
+    <row r="13" spans="1:98" ht="23.25" customHeight="1">
+      <c r="A13" s="67">
+        <v>7</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="24"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BI13" s="24"/>
+      <c r="BJ13" s="24"/>
+      <c r="BK13" s="24"/>
+      <c r="BL13" s="24"/>
+      <c r="BM13" s="24"/>
+      <c r="BN13" s="24"/>
+      <c r="BO13" s="24"/>
+      <c r="BP13" s="24"/>
+      <c r="BQ13" s="24"/>
+      <c r="BR13" s="24"/>
+      <c r="BS13" s="24"/>
+      <c r="BT13" s="24"/>
+      <c r="BU13" s="24"/>
+      <c r="BV13" s="24"/>
+      <c r="BW13" s="24"/>
+      <c r="BX13" s="24"/>
+      <c r="BY13" s="24"/>
+      <c r="BZ13" s="24"/>
+      <c r="CA13" s="24"/>
+      <c r="CB13" s="24"/>
+      <c r="CC13" s="24"/>
+      <c r="CD13" s="24"/>
+      <c r="CE13" s="24"/>
+      <c r="CF13" s="24"/>
+      <c r="CG13" s="24"/>
+      <c r="CH13" s="24"/>
+      <c r="CI13" s="24"/>
+      <c r="CJ13" s="24"/>
+      <c r="CK13" s="24"/>
+      <c r="CL13" s="24"/>
+      <c r="CM13" s="24"/>
+      <c r="CN13" s="24"/>
+      <c r="CO13" s="25"/>
+      <c r="CP13" s="5"/>
+      <c r="CQ13" s="5"/>
+      <c r="CR13" s="5"/>
+      <c r="CS13" s="5"/>
+      <c r="CT13" s="5"/>
     </row>
-    <row r="14" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="3"/>
-      <c r="BS14" s="3"/>
-      <c r="BT14" s="3"/>
-      <c r="BU14" s="3"/>
-      <c r="BV14" s="3"/>
-      <c r="BW14" s="3"/>
-      <c r="BX14" s="3"/>
-      <c r="BY14" s="3"/>
-      <c r="BZ14" s="3"/>
-      <c r="CA14" s="3"/>
-      <c r="CB14" s="3"/>
-      <c r="CC14" s="3"/>
-      <c r="CD14" s="3"/>
-      <c r="CE14" s="3"/>
-      <c r="CF14" s="3"/>
-      <c r="CG14" s="3"/>
-      <c r="CH14" s="3"/>
-      <c r="CI14" s="3"/>
-      <c r="CJ14" s="3"/>
-      <c r="CK14" s="3"/>
-      <c r="CL14" s="3"/>
+    <row r="14" spans="1:98" ht="23.25" customHeight="1">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="24"/>
+      <c r="BB14" s="24"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="24"/>
+      <c r="BJ14" s="24"/>
+      <c r="BK14" s="24"/>
+      <c r="BL14" s="24"/>
+      <c r="BM14" s="24"/>
+      <c r="BN14" s="24"/>
+      <c r="BO14" s="24"/>
+      <c r="BP14" s="24"/>
+      <c r="BQ14" s="24"/>
+      <c r="BR14" s="24"/>
+      <c r="BS14" s="24"/>
+      <c r="BT14" s="24"/>
+      <c r="BU14" s="24"/>
+      <c r="BV14" s="24"/>
+      <c r="BW14" s="24"/>
+      <c r="BX14" s="24"/>
+      <c r="BY14" s="24"/>
+      <c r="BZ14" s="24"/>
+      <c r="CA14" s="24"/>
+      <c r="CB14" s="24"/>
+      <c r="CC14" s="24"/>
+      <c r="CD14" s="24"/>
+      <c r="CE14" s="24"/>
+      <c r="CF14" s="24"/>
+      <c r="CG14" s="24"/>
+      <c r="CH14" s="24"/>
+      <c r="CI14" s="24"/>
+      <c r="CJ14" s="24"/>
+      <c r="CK14" s="24"/>
+      <c r="CL14" s="24"/>
+      <c r="CM14" s="24"/>
+      <c r="CN14" s="24"/>
+      <c r="CO14" s="25"/>
+      <c r="CP14" s="5"/>
+      <c r="CQ14" s="5"/>
+      <c r="CR14" s="5"/>
+      <c r="CS14" s="5"/>
+      <c r="CT14" s="5"/>
     </row>
-    <row r="15" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
-      <c r="BW15" s="3"/>
-      <c r="BX15" s="3"/>
-      <c r="BY15" s="3"/>
-      <c r="BZ15" s="3"/>
-      <c r="CA15" s="3"/>
-      <c r="CB15" s="3"/>
-      <c r="CC15" s="3"/>
-      <c r="CD15" s="3"/>
-      <c r="CE15" s="3"/>
-      <c r="CF15" s="3"/>
-      <c r="CG15" s="3"/>
-      <c r="CH15" s="3"/>
-      <c r="CI15" s="3"/>
-      <c r="CJ15" s="3"/>
-      <c r="CK15" s="3"/>
-      <c r="CL15" s="3"/>
+    <row r="15" spans="1:98" ht="23.25" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+      <c r="AW15" s="27"/>
+      <c r="AX15" s="27"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="27"/>
+      <c r="BF15" s="27"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="27"/>
+      <c r="BJ15" s="27"/>
+      <c r="BK15" s="27"/>
+      <c r="BL15" s="27"/>
+      <c r="BM15" s="27"/>
+      <c r="BN15" s="27"/>
+      <c r="BO15" s="27"/>
+      <c r="BP15" s="27"/>
+      <c r="BQ15" s="27"/>
+      <c r="BR15" s="27"/>
+      <c r="BS15" s="27"/>
+      <c r="BT15" s="27"/>
+      <c r="BU15" s="27"/>
+      <c r="BV15" s="27"/>
+      <c r="BW15" s="27"/>
+      <c r="BX15" s="27"/>
+      <c r="BY15" s="27"/>
+      <c r="BZ15" s="27"/>
+      <c r="CA15" s="27"/>
+      <c r="CB15" s="27"/>
+      <c r="CC15" s="27"/>
+      <c r="CD15" s="27"/>
+      <c r="CE15" s="27"/>
+      <c r="CF15" s="27"/>
+      <c r="CG15" s="27"/>
+      <c r="CH15" s="27"/>
+      <c r="CI15" s="27"/>
+      <c r="CJ15" s="27"/>
+      <c r="CK15" s="27"/>
+      <c r="CL15" s="27"/>
+      <c r="CM15" s="27"/>
+      <c r="CN15" s="27"/>
+      <c r="CO15" s="28"/>
+      <c r="CP15" s="5"/>
+      <c r="CQ15" s="5"/>
+      <c r="CR15" s="5"/>
+      <c r="CS15" s="5"/>
+      <c r="CT15" s="5"/>
     </row>
-    <row r="16" spans="1:90" ht="15.75" customHeight="1">
+    <row r="16" spans="1:98" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9177,18 +9511,490 @@
       <c r="CK88" s="3"/>
       <c r="CL88" s="3"/>
     </row>
+    <row r="89" spans="1:90" ht="15.75" customHeight="1">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+      <c r="AG89" s="3"/>
+      <c r="AH89" s="3"/>
+      <c r="AI89" s="3"/>
+      <c r="AJ89" s="3"/>
+      <c r="AK89" s="3"/>
+      <c r="AL89" s="3"/>
+      <c r="AM89" s="3"/>
+      <c r="AN89" s="3"/>
+      <c r="AO89" s="3"/>
+      <c r="AP89" s="3"/>
+      <c r="AQ89" s="3"/>
+      <c r="AR89" s="3"/>
+      <c r="AS89" s="3"/>
+      <c r="AT89" s="3"/>
+      <c r="AU89" s="3"/>
+      <c r="AV89" s="3"/>
+      <c r="AW89" s="3"/>
+      <c r="AX89" s="3"/>
+      <c r="AY89" s="3"/>
+      <c r="AZ89" s="3"/>
+      <c r="BA89" s="3"/>
+      <c r="BB89" s="3"/>
+      <c r="BC89" s="3"/>
+      <c r="BD89" s="3"/>
+      <c r="BE89" s="3"/>
+      <c r="BF89" s="3"/>
+      <c r="BG89" s="3"/>
+      <c r="BH89" s="3"/>
+      <c r="BI89" s="3"/>
+      <c r="BJ89" s="3"/>
+      <c r="BK89" s="3"/>
+      <c r="BL89" s="3"/>
+      <c r="BM89" s="3"/>
+      <c r="BN89" s="3"/>
+      <c r="BO89" s="3"/>
+      <c r="BP89" s="3"/>
+      <c r="BQ89" s="3"/>
+      <c r="BR89" s="3"/>
+      <c r="BS89" s="3"/>
+      <c r="BT89" s="3"/>
+      <c r="BU89" s="3"/>
+      <c r="BV89" s="3"/>
+      <c r="BW89" s="3"/>
+      <c r="BX89" s="3"/>
+      <c r="BY89" s="3"/>
+      <c r="BZ89" s="3"/>
+      <c r="CA89" s="3"/>
+      <c r="CB89" s="3"/>
+      <c r="CC89" s="3"/>
+      <c r="CD89" s="3"/>
+      <c r="CE89" s="3"/>
+      <c r="CF89" s="3"/>
+      <c r="CG89" s="3"/>
+      <c r="CH89" s="3"/>
+      <c r="CI89" s="3"/>
+      <c r="CJ89" s="3"/>
+      <c r="CK89" s="3"/>
+      <c r="CL89" s="3"/>
+    </row>
+    <row r="90" spans="1:90" ht="15.75" customHeight="1">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+      <c r="AH90" s="3"/>
+      <c r="AI90" s="3"/>
+      <c r="AJ90" s="3"/>
+      <c r="AK90" s="3"/>
+      <c r="AL90" s="3"/>
+      <c r="AM90" s="3"/>
+      <c r="AN90" s="3"/>
+      <c r="AO90" s="3"/>
+      <c r="AP90" s="3"/>
+      <c r="AQ90" s="3"/>
+      <c r="AR90" s="3"/>
+      <c r="AS90" s="3"/>
+      <c r="AT90" s="3"/>
+      <c r="AU90" s="3"/>
+      <c r="AV90" s="3"/>
+      <c r="AW90" s="3"/>
+      <c r="AX90" s="3"/>
+      <c r="AY90" s="3"/>
+      <c r="AZ90" s="3"/>
+      <c r="BA90" s="3"/>
+      <c r="BB90" s="3"/>
+      <c r="BC90" s="3"/>
+      <c r="BD90" s="3"/>
+      <c r="BE90" s="3"/>
+      <c r="BF90" s="3"/>
+      <c r="BG90" s="3"/>
+      <c r="BH90" s="3"/>
+      <c r="BI90" s="3"/>
+      <c r="BJ90" s="3"/>
+      <c r="BK90" s="3"/>
+      <c r="BL90" s="3"/>
+      <c r="BM90" s="3"/>
+      <c r="BN90" s="3"/>
+      <c r="BO90" s="3"/>
+      <c r="BP90" s="3"/>
+      <c r="BQ90" s="3"/>
+      <c r="BR90" s="3"/>
+      <c r="BS90" s="3"/>
+      <c r="BT90" s="3"/>
+      <c r="BU90" s="3"/>
+      <c r="BV90" s="3"/>
+      <c r="BW90" s="3"/>
+      <c r="BX90" s="3"/>
+      <c r="BY90" s="3"/>
+      <c r="BZ90" s="3"/>
+      <c r="CA90" s="3"/>
+      <c r="CB90" s="3"/>
+      <c r="CC90" s="3"/>
+      <c r="CD90" s="3"/>
+      <c r="CE90" s="3"/>
+      <c r="CF90" s="3"/>
+      <c r="CG90" s="3"/>
+      <c r="CH90" s="3"/>
+      <c r="CI90" s="3"/>
+      <c r="CJ90" s="3"/>
+      <c r="CK90" s="3"/>
+      <c r="CL90" s="3"/>
+    </row>
+    <row r="91" spans="1:90" ht="15.75" customHeight="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+      <c r="AG91" s="3"/>
+      <c r="AH91" s="3"/>
+      <c r="AI91" s="3"/>
+      <c r="AJ91" s="3"/>
+      <c r="AK91" s="3"/>
+      <c r="AL91" s="3"/>
+      <c r="AM91" s="3"/>
+      <c r="AN91" s="3"/>
+      <c r="AO91" s="3"/>
+      <c r="AP91" s="3"/>
+      <c r="AQ91" s="3"/>
+      <c r="AR91" s="3"/>
+      <c r="AS91" s="3"/>
+      <c r="AT91" s="3"/>
+      <c r="AU91" s="3"/>
+      <c r="AV91" s="3"/>
+      <c r="AW91" s="3"/>
+      <c r="AX91" s="3"/>
+      <c r="AY91" s="3"/>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3"/>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="3"/>
+      <c r="BG91" s="3"/>
+      <c r="BH91" s="3"/>
+      <c r="BI91" s="3"/>
+      <c r="BJ91" s="3"/>
+      <c r="BK91" s="3"/>
+      <c r="BL91" s="3"/>
+      <c r="BM91" s="3"/>
+      <c r="BN91" s="3"/>
+      <c r="BO91" s="3"/>
+      <c r="BP91" s="3"/>
+      <c r="BQ91" s="3"/>
+      <c r="BR91" s="3"/>
+      <c r="BS91" s="3"/>
+      <c r="BT91" s="3"/>
+      <c r="BU91" s="3"/>
+      <c r="BV91" s="3"/>
+      <c r="BW91" s="3"/>
+      <c r="BX91" s="3"/>
+      <c r="BY91" s="3"/>
+      <c r="BZ91" s="3"/>
+      <c r="CA91" s="3"/>
+      <c r="CB91" s="3"/>
+      <c r="CC91" s="3"/>
+      <c r="CD91" s="3"/>
+      <c r="CE91" s="3"/>
+      <c r="CF91" s="3"/>
+      <c r="CG91" s="3"/>
+      <c r="CH91" s="3"/>
+      <c r="CI91" s="3"/>
+      <c r="CJ91" s="3"/>
+      <c r="CK91" s="3"/>
+      <c r="CL91" s="3"/>
+    </row>
+    <row r="92" spans="1:90" ht="15.75" customHeight="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+      <c r="AH92" s="3"/>
+      <c r="AI92" s="3"/>
+      <c r="AJ92" s="3"/>
+      <c r="AK92" s="3"/>
+      <c r="AL92" s="3"/>
+      <c r="AM92" s="3"/>
+      <c r="AN92" s="3"/>
+      <c r="AO92" s="3"/>
+      <c r="AP92" s="3"/>
+      <c r="AQ92" s="3"/>
+      <c r="AR92" s="3"/>
+      <c r="AS92" s="3"/>
+      <c r="AT92" s="3"/>
+      <c r="AU92" s="3"/>
+      <c r="AV92" s="3"/>
+      <c r="AW92" s="3"/>
+      <c r="AX92" s="3"/>
+      <c r="AY92" s="3"/>
+      <c r="AZ92" s="3"/>
+      <c r="BA92" s="3"/>
+      <c r="BB92" s="3"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="3"/>
+      <c r="BE92" s="3"/>
+      <c r="BF92" s="3"/>
+      <c r="BG92" s="3"/>
+      <c r="BH92" s="3"/>
+      <c r="BI92" s="3"/>
+      <c r="BJ92" s="3"/>
+      <c r="BK92" s="3"/>
+      <c r="BL92" s="3"/>
+      <c r="BM92" s="3"/>
+      <c r="BN92" s="3"/>
+      <c r="BO92" s="3"/>
+      <c r="BP92" s="3"/>
+      <c r="BQ92" s="3"/>
+      <c r="BR92" s="3"/>
+      <c r="BS92" s="3"/>
+      <c r="BT92" s="3"/>
+      <c r="BU92" s="3"/>
+      <c r="BV92" s="3"/>
+      <c r="BW92" s="3"/>
+      <c r="BX92" s="3"/>
+      <c r="BY92" s="3"/>
+      <c r="BZ92" s="3"/>
+      <c r="CA92" s="3"/>
+      <c r="CB92" s="3"/>
+      <c r="CC92" s="3"/>
+      <c r="CD92" s="3"/>
+      <c r="CE92" s="3"/>
+      <c r="CF92" s="3"/>
+      <c r="CG92" s="3"/>
+      <c r="CH92" s="3"/>
+      <c r="CI92" s="3"/>
+      <c r="CJ92" s="3"/>
+      <c r="CK92" s="3"/>
+      <c r="CL92" s="3"/>
+    </row>
+    <row r="93" spans="1:90" ht="15.75" customHeight="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+      <c r="AG93" s="3"/>
+      <c r="AH93" s="3"/>
+      <c r="AI93" s="3"/>
+      <c r="AJ93" s="3"/>
+      <c r="AK93" s="3"/>
+      <c r="AL93" s="3"/>
+      <c r="AM93" s="3"/>
+      <c r="AN93" s="3"/>
+      <c r="AO93" s="3"/>
+      <c r="AP93" s="3"/>
+      <c r="AQ93" s="3"/>
+      <c r="AR93" s="3"/>
+      <c r="AS93" s="3"/>
+      <c r="AT93" s="3"/>
+      <c r="AU93" s="3"/>
+      <c r="AV93" s="3"/>
+      <c r="AW93" s="3"/>
+      <c r="AX93" s="3"/>
+      <c r="AY93" s="3"/>
+      <c r="AZ93" s="3"/>
+      <c r="BA93" s="3"/>
+      <c r="BB93" s="3"/>
+      <c r="BC93" s="3"/>
+      <c r="BD93" s="3"/>
+      <c r="BE93" s="3"/>
+      <c r="BF93" s="3"/>
+      <c r="BG93" s="3"/>
+      <c r="BH93" s="3"/>
+      <c r="BI93" s="3"/>
+      <c r="BJ93" s="3"/>
+      <c r="BK93" s="3"/>
+      <c r="BL93" s="3"/>
+      <c r="BM93" s="3"/>
+      <c r="BN93" s="3"/>
+      <c r="BO93" s="3"/>
+      <c r="BP93" s="3"/>
+      <c r="BQ93" s="3"/>
+      <c r="BR93" s="3"/>
+      <c r="BS93" s="3"/>
+      <c r="BT93" s="3"/>
+      <c r="BU93" s="3"/>
+      <c r="BV93" s="3"/>
+      <c r="BW93" s="3"/>
+      <c r="BX93" s="3"/>
+      <c r="BY93" s="3"/>
+      <c r="BZ93" s="3"/>
+      <c r="CA93" s="3"/>
+      <c r="CB93" s="3"/>
+      <c r="CC93" s="3"/>
+      <c r="CD93" s="3"/>
+      <c r="CE93" s="3"/>
+      <c r="CF93" s="3"/>
+      <c r="CG93" s="3"/>
+      <c r="CH93" s="3"/>
+      <c r="CI93" s="3"/>
+      <c r="CJ93" s="3"/>
+      <c r="CK93" s="3"/>
+      <c r="CL93" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="AT6:CE6"/>
-    <mergeCell ref="AT7:CE7"/>
-    <mergeCell ref="AT8:CE8"/>
-    <mergeCell ref="AT9:CE9"/>
-    <mergeCell ref="AT10:CE10"/>
-    <mergeCell ref="I10:AS10"/>
-    <mergeCell ref="I7:AS7"/>
-    <mergeCell ref="I8:AS8"/>
-    <mergeCell ref="I9:AS9"/>
+  <mergeCells count="48">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="S13:BC13"/>
+    <mergeCell ref="BD13:CO13"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="S14:BC14"/>
+    <mergeCell ref="BD14:CO14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="S15:BC15"/>
+    <mergeCell ref="BD15:CO15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="S11:BC11"/>
+    <mergeCell ref="BD11:CO11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="S12:BC12"/>
+    <mergeCell ref="BD12:CO12"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y4"/>
+    <mergeCell ref="S6:BC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="Z1:AI1"/>
     <mergeCell ref="Z2:AI4"/>
@@ -9205,11 +10011,16 @@
     <mergeCell ref="BG1:BS1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y4"/>
-    <mergeCell ref="I6:AS6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="BD10:CO10"/>
+    <mergeCell ref="S10:BC10"/>
+    <mergeCell ref="S7:BC7"/>
+    <mergeCell ref="S8:BC8"/>
+    <mergeCell ref="S9:BC9"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="BD6:CO6"/>
+    <mergeCell ref="BD7:CO7"/>
+    <mergeCell ref="BD8:CO8"/>
+    <mergeCell ref="BD9:CO9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/43 テスト計画/結合テスト項目.xlsx
+++ b/43 テスト計画/結合テスト項目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -314,6 +314,78 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト環境を最新版に入替後確認し改善</t>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイシンバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イレカエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">送受信時間の表記を下記にする
+Nozomiへのデータ送信時間／06:50、09:50、10:50、12:50、14:50、16:50、18:50  
+Nozomiからのデータ取込時間／08:10、10:10、12:10、14:10、16:10、18:10、20:10
+</t>
+    <rPh sb="0" eb="3">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +442,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +752,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,9 +768,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -726,6 +801,114 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,6 +918,135 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -744,233 +1056,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1276,10 +1393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CT93"/>
+  <dimension ref="A1:CS100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14:BC14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15:BC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.85546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1287,365 +1404,365 @@
     <col min="1" max="16384" width="1.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" ht="15.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:97" ht="15.75" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="34" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="34" t="s">
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="34" t="s">
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="34" t="s">
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="41"/>
+      <c r="BP1" s="41"/>
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="41"/>
+      <c r="BS1" s="42"/>
+      <c r="BT1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="35"/>
-      <c r="BX1" s="35"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="34" t="s">
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BW1" s="41"/>
+      <c r="BX1" s="41"/>
+      <c r="BY1" s="41"/>
+      <c r="BZ1" s="41"/>
+      <c r="CA1" s="42"/>
+      <c r="CB1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46"/>
-      <c r="CE1" s="47"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="69"/>
     </row>
-    <row r="2" spans="1:98" ht="15.75" customHeight="1">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:97" ht="15.75" customHeight="1">
+      <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="59"/>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="59"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="58"/>
-      <c r="BY2" s="59"/>
-      <c r="BZ2" s="59"/>
-      <c r="CA2" s="60"/>
-      <c r="CB2" s="57" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="61"/>
+      <c r="BG2" s="80"/>
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="81"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="80"/>
+      <c r="BU2" s="81"/>
+      <c r="BV2" s="81"/>
+      <c r="BW2" s="82"/>
+      <c r="BX2" s="80"/>
+      <c r="BY2" s="81"/>
+      <c r="BZ2" s="81"/>
+      <c r="CA2" s="82"/>
+      <c r="CB2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="49"/>
-      <c r="CE2" s="50"/>
+      <c r="CC2" s="71"/>
+      <c r="CD2" s="71"/>
+      <c r="CE2" s="72"/>
     </row>
-    <row r="3" spans="1:98" ht="15.75" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="63"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="63"/>
-      <c r="BX3" s="61"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="63"/>
-      <c r="CB3" s="51"/>
-      <c r="CC3" s="52"/>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="53"/>
+    <row r="3" spans="1:97" ht="15.75" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="84"/>
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BM3" s="84"/>
+      <c r="BN3" s="84"/>
+      <c r="BO3" s="84"/>
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="84"/>
+      <c r="BS3" s="85"/>
+      <c r="BT3" s="83"/>
+      <c r="BU3" s="84"/>
+      <c r="BV3" s="84"/>
+      <c r="BW3" s="85"/>
+      <c r="BX3" s="83"/>
+      <c r="BY3" s="84"/>
+      <c r="BZ3" s="84"/>
+      <c r="CA3" s="85"/>
+      <c r="CB3" s="73"/>
+      <c r="CC3" s="74"/>
+      <c r="CD3" s="74"/>
+      <c r="CE3" s="75"/>
     </row>
-    <row r="4" spans="1:98" ht="15.75" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="45"/>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="65"/>
-      <c r="BI4" s="65"/>
-      <c r="BJ4" s="65"/>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65"/>
-      <c r="BP4" s="65"/>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="65"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="64"/>
-      <c r="BU4" s="65"/>
-      <c r="BV4" s="65"/>
-      <c r="BW4" s="66"/>
-      <c r="BX4" s="64"/>
-      <c r="BY4" s="65"/>
-      <c r="BZ4" s="65"/>
-      <c r="CA4" s="66"/>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="55"/>
-      <c r="CD4" s="55"/>
-      <c r="CE4" s="56"/>
+    <row r="4" spans="1:97" ht="15.75" customHeight="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="67"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="87"/>
+      <c r="BM4" s="87"/>
+      <c r="BN4" s="87"/>
+      <c r="BO4" s="87"/>
+      <c r="BP4" s="87"/>
+      <c r="BQ4" s="87"/>
+      <c r="BR4" s="87"/>
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="86"/>
+      <c r="BU4" s="87"/>
+      <c r="BV4" s="87"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="86"/>
+      <c r="BY4" s="87"/>
+      <c r="BZ4" s="87"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="76"/>
+      <c r="CC4" s="77"/>
+      <c r="CD4" s="77"/>
+      <c r="CE4" s="78"/>
     </row>
-    <row r="5" spans="1:98" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:97" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1730,503 +1847,497 @@
       <c r="CD5" s="3"/>
       <c r="CE5" s="3"/>
       <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
-      <c r="CK5" s="3"/>
-      <c r="CL5" s="3"/>
     </row>
-    <row r="6" spans="1:98" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:97" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="17" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="17" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="18"/>
-      <c r="AZ6" s="18"/>
-      <c r="BA6" s="18"/>
-      <c r="BB6" s="18"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="17" t="s">
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BE6" s="18"/>
-      <c r="BF6" s="18"/>
-      <c r="BG6" s="18"/>
-      <c r="BH6" s="18"/>
-      <c r="BI6" s="18"/>
-      <c r="BJ6" s="18"/>
-      <c r="BK6" s="18"/>
-      <c r="BL6" s="18"/>
-      <c r="BM6" s="18"/>
-      <c r="BN6" s="18"/>
-      <c r="BO6" s="18"/>
-      <c r="BP6" s="18"/>
-      <c r="BQ6" s="18"/>
-      <c r="BR6" s="18"/>
-      <c r="BS6" s="18"/>
-      <c r="BT6" s="18"/>
-      <c r="BU6" s="18"/>
-      <c r="BV6" s="18"/>
-      <c r="BW6" s="18"/>
-      <c r="BX6" s="18"/>
-      <c r="BY6" s="18"/>
-      <c r="BZ6" s="18"/>
-      <c r="CA6" s="18"/>
-      <c r="CB6" s="18"/>
-      <c r="CC6" s="18"/>
-      <c r="CD6" s="18"/>
-      <c r="CE6" s="18"/>
-      <c r="CF6" s="18"/>
-      <c r="CG6" s="18"/>
-      <c r="CH6" s="18"/>
-      <c r="CI6" s="18"/>
-      <c r="CJ6" s="18"/>
-      <c r="CK6" s="18"/>
-      <c r="CL6" s="18"/>
-      <c r="CM6" s="18"/>
-      <c r="CN6" s="18"/>
-      <c r="CO6" s="19"/>
-      <c r="CP6" s="3"/>
-      <c r="CQ6" s="3"/>
-      <c r="CR6" s="3"/>
-      <c r="CS6" s="3"/>
-      <c r="CT6" s="3"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="53"/>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="53"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="53"/>
+      <c r="CB6" s="53"/>
+      <c r="CC6" s="53"/>
+      <c r="CD6" s="53"/>
+      <c r="CE6" s="53"/>
+      <c r="CF6" s="53"/>
+      <c r="CG6" s="53"/>
+      <c r="CH6" s="53"/>
+      <c r="CI6" s="54"/>
+      <c r="CJ6" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="CK6" s="53"/>
+      <c r="CL6" s="53"/>
+      <c r="CM6" s="53"/>
+      <c r="CN6" s="53"/>
+      <c r="CO6" s="54"/>
+      <c r="CP6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ6" s="53"/>
+      <c r="CR6" s="53"/>
+      <c r="CS6" s="54"/>
     </row>
-    <row r="7" spans="1:98" ht="23.25" customHeight="1">
-      <c r="A7" s="78">
+    <row r="7" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A7" s="55">
         <v>1</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="29" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="30"/>
-      <c r="AT7" s="30"/>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="30"/>
-      <c r="AW7" s="30"/>
-      <c r="AX7" s="30"/>
-      <c r="AY7" s="30"/>
-      <c r="AZ7" s="30"/>
-      <c r="BA7" s="30"/>
-      <c r="BB7" s="30"/>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
-      <c r="BO7" s="21"/>
-      <c r="BP7" s="21"/>
-      <c r="BQ7" s="21"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
-      <c r="BT7" s="21"/>
-      <c r="BU7" s="21"/>
-      <c r="BV7" s="21"/>
-      <c r="BW7" s="21"/>
-      <c r="BX7" s="21"/>
-      <c r="BY7" s="21"/>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="21"/>
-      <c r="CB7" s="21"/>
-      <c r="CC7" s="21"/>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
-      <c r="CF7" s="21"/>
-      <c r="CG7" s="21"/>
-      <c r="CH7" s="21"/>
-      <c r="CI7" s="21"/>
-      <c r="CJ7" s="21"/>
-      <c r="CK7" s="21"/>
-      <c r="CL7" s="21"/>
-      <c r="CM7" s="21"/>
-      <c r="CN7" s="21"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="5"/>
-      <c r="CQ7" s="5"/>
-      <c r="CR7" s="5"/>
-      <c r="CS7" s="5"/>
-      <c r="CT7" s="5"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="96"/>
+      <c r="AL7" s="96"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="96"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="96"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="96"/>
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="96"/>
+      <c r="AZ7" s="96"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="97"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="99"/>
+      <c r="BF7" s="99"/>
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="99"/>
+      <c r="BI7" s="99"/>
+      <c r="BJ7" s="99"/>
+      <c r="BK7" s="99"/>
+      <c r="BL7" s="99"/>
+      <c r="BM7" s="99"/>
+      <c r="BN7" s="99"/>
+      <c r="BO7" s="99"/>
+      <c r="BP7" s="99"/>
+      <c r="BQ7" s="99"/>
+      <c r="BR7" s="99"/>
+      <c r="BS7" s="99"/>
+      <c r="BT7" s="99"/>
+      <c r="BU7" s="99"/>
+      <c r="BV7" s="99"/>
+      <c r="BW7" s="99"/>
+      <c r="BX7" s="99"/>
+      <c r="BY7" s="99"/>
+      <c r="BZ7" s="99"/>
+      <c r="CA7" s="99"/>
+      <c r="CB7" s="99"/>
+      <c r="CC7" s="99"/>
+      <c r="CD7" s="99"/>
+      <c r="CE7" s="99"/>
+      <c r="CF7" s="99"/>
+      <c r="CG7" s="99"/>
+      <c r="CH7" s="99"/>
+      <c r="CI7" s="100"/>
+      <c r="CJ7" s="98"/>
+      <c r="CK7" s="99"/>
+      <c r="CL7" s="99"/>
+      <c r="CM7" s="99"/>
+      <c r="CN7" s="99"/>
+      <c r="CO7" s="100"/>
+      <c r="CP7" s="98"/>
+      <c r="CQ7" s="99"/>
+      <c r="CR7" s="99"/>
+      <c r="CS7" s="100"/>
     </row>
-    <row r="8" spans="1:98" ht="23.25" customHeight="1">
-      <c r="A8" s="67">
+    <row r="8" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="23" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="24"/>
-      <c r="AX8" s="24"/>
-      <c r="AY8" s="24"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="24"/>
-      <c r="BB8" s="24"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="23"/>
-      <c r="BE8" s="24"/>
-      <c r="BF8" s="24"/>
-      <c r="BG8" s="24"/>
-      <c r="BH8" s="24"/>
-      <c r="BI8" s="24"/>
-      <c r="BJ8" s="24"/>
-      <c r="BK8" s="24"/>
-      <c r="BL8" s="24"/>
-      <c r="BM8" s="24"/>
-      <c r="BN8" s="24"/>
-      <c r="BO8" s="24"/>
-      <c r="BP8" s="24"/>
-      <c r="BQ8" s="24"/>
-      <c r="BR8" s="24"/>
-      <c r="BS8" s="24"/>
-      <c r="BT8" s="24"/>
-      <c r="BU8" s="24"/>
-      <c r="BV8" s="24"/>
-      <c r="BW8" s="24"/>
-      <c r="BX8" s="24"/>
-      <c r="BY8" s="24"/>
-      <c r="BZ8" s="24"/>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="24"/>
-      <c r="CD8" s="24"/>
-      <c r="CE8" s="24"/>
-      <c r="CF8" s="24"/>
-      <c r="CG8" s="24"/>
-      <c r="CH8" s="24"/>
-      <c r="CI8" s="24"/>
-      <c r="CJ8" s="24"/>
-      <c r="CK8" s="24"/>
-      <c r="CL8" s="24"/>
-      <c r="CM8" s="24"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="25"/>
-      <c r="CP8" s="5"/>
-      <c r="CQ8" s="5"/>
-      <c r="CR8" s="5"/>
-      <c r="CS8" s="5"/>
-      <c r="CT8" s="5"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="27"/>
+      <c r="AY8" s="27"/>
+      <c r="AZ8" s="27"/>
+      <c r="BA8" s="27"/>
+      <c r="BB8" s="27"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="26"/>
+      <c r="BE8" s="27"/>
+      <c r="BF8" s="27"/>
+      <c r="BG8" s="27"/>
+      <c r="BH8" s="27"/>
+      <c r="BI8" s="27"/>
+      <c r="BJ8" s="27"/>
+      <c r="BK8" s="27"/>
+      <c r="BL8" s="27"/>
+      <c r="BM8" s="27"/>
+      <c r="BN8" s="27"/>
+      <c r="BO8" s="27"/>
+      <c r="BP8" s="27"/>
+      <c r="BQ8" s="27"/>
+      <c r="BR8" s="27"/>
+      <c r="BS8" s="27"/>
+      <c r="BT8" s="27"/>
+      <c r="BU8" s="27"/>
+      <c r="BV8" s="27"/>
+      <c r="BW8" s="27"/>
+      <c r="BX8" s="27"/>
+      <c r="BY8" s="27"/>
+      <c r="BZ8" s="27"/>
+      <c r="CA8" s="27"/>
+      <c r="CB8" s="27"/>
+      <c r="CC8" s="27"/>
+      <c r="CD8" s="27"/>
+      <c r="CE8" s="27"/>
+      <c r="CF8" s="27"/>
+      <c r="CG8" s="27"/>
+      <c r="CH8" s="27"/>
+      <c r="CI8" s="28"/>
+      <c r="CJ8" s="26"/>
+      <c r="CK8" s="27"/>
+      <c r="CL8" s="27"/>
+      <c r="CM8" s="27"/>
+      <c r="CN8" s="27"/>
+      <c r="CO8" s="28"/>
+      <c r="CP8" s="26"/>
+      <c r="CQ8" s="27"/>
+      <c r="CR8" s="27"/>
+      <c r="CS8" s="28"/>
     </row>
-    <row r="9" spans="1:98" ht="23.25" customHeight="1">
-      <c r="A9" s="67">
+    <row r="9" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="23" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24"/>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24"/>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24"/>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24"/>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24"/>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24"/>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
-      <c r="CH9" s="24"/>
-      <c r="CI9" s="24"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="24"/>
-      <c r="CL9" s="24"/>
-      <c r="CM9" s="24"/>
-      <c r="CN9" s="24"/>
-      <c r="CO9" s="25"/>
-      <c r="CP9" s="5"/>
-      <c r="CQ9" s="5"/>
-      <c r="CR9" s="5"/>
-      <c r="CS9" s="5"/>
-      <c r="CT9" s="5"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="27"/>
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27"/>
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27"/>
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="27"/>
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="27"/>
+      <c r="BR9" s="27"/>
+      <c r="BS9" s="27"/>
+      <c r="BT9" s="27"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
+      <c r="BZ9" s="27"/>
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="27"/>
+      <c r="CE9" s="27"/>
+      <c r="CF9" s="27"/>
+      <c r="CG9" s="27"/>
+      <c r="CH9" s="27"/>
+      <c r="CI9" s="28"/>
+      <c r="CJ9" s="26"/>
+      <c r="CK9" s="27"/>
+      <c r="CL9" s="27"/>
+      <c r="CM9" s="27"/>
+      <c r="CN9" s="27"/>
+      <c r="CO9" s="28"/>
+      <c r="CP9" s="26"/>
+      <c r="CQ9" s="27"/>
+      <c r="CR9" s="27"/>
+      <c r="CS9" s="28"/>
     </row>
-    <row r="10" spans="1:98" ht="23.25" customHeight="1">
-      <c r="A10" s="81">
+    <row r="10" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A10" s="57">
         <v>4</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="86" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="87"/>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="88"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="93"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="93"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="94"/>
       <c r="BD10" s="89"/>
       <c r="BE10" s="90"/>
       <c r="BF10" s="90"/>
@@ -2258,462 +2369,477 @@
       <c r="CF10" s="90"/>
       <c r="CG10" s="90"/>
       <c r="CH10" s="90"/>
-      <c r="CI10" s="90"/>
-      <c r="CJ10" s="90"/>
+      <c r="CI10" s="91"/>
+      <c r="CJ10" s="89"/>
       <c r="CK10" s="90"/>
       <c r="CL10" s="90"/>
       <c r="CM10" s="90"/>
       <c r="CN10" s="90"/>
       <c r="CO10" s="91"/>
-      <c r="CP10" s="5"/>
-      <c r="CQ10" s="5"/>
-      <c r="CR10" s="5"/>
-      <c r="CS10" s="5"/>
-      <c r="CT10" s="5"/>
+      <c r="CP10" s="89"/>
+      <c r="CQ10" s="90"/>
+      <c r="CR10" s="90"/>
+      <c r="CS10" s="91"/>
     </row>
-    <row r="11" spans="1:98" ht="51.75" customHeight="1">
-      <c r="A11" s="67">
+    <row r="11" spans="1:97" ht="51.75" customHeight="1">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="98" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="92" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="93"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="93"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="93"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="94"/>
-      <c r="BD11" s="23"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="24"/>
-      <c r="BN11" s="24"/>
-      <c r="BO11" s="24"/>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="24"/>
-      <c r="BR11" s="24"/>
-      <c r="BS11" s="24"/>
-      <c r="BT11" s="24"/>
-      <c r="BU11" s="24"/>
-      <c r="BV11" s="24"/>
-      <c r="BW11" s="24"/>
-      <c r="BX11" s="24"/>
-      <c r="BY11" s="24"/>
-      <c r="BZ11" s="24"/>
-      <c r="CA11" s="24"/>
-      <c r="CB11" s="24"/>
-      <c r="CC11" s="24"/>
-      <c r="CD11" s="24"/>
-      <c r="CE11" s="24"/>
-      <c r="CF11" s="24"/>
-      <c r="CG11" s="24"/>
-      <c r="CH11" s="24"/>
-      <c r="CI11" s="24"/>
-      <c r="CJ11" s="24"/>
-      <c r="CK11" s="24"/>
-      <c r="CL11" s="24"/>
-      <c r="CM11" s="24"/>
-      <c r="CN11" s="24"/>
-      <c r="CO11" s="25"/>
-      <c r="CP11" s="5"/>
-      <c r="CQ11" s="5"/>
-      <c r="CR11" s="5"/>
-      <c r="CS11" s="5"/>
-      <c r="CT11" s="5"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="26"/>
+      <c r="BE11" s="27"/>
+      <c r="BF11" s="27"/>
+      <c r="BG11" s="27"/>
+      <c r="BH11" s="27"/>
+      <c r="BI11" s="27"/>
+      <c r="BJ11" s="27"/>
+      <c r="BK11" s="27"/>
+      <c r="BL11" s="27"/>
+      <c r="BM11" s="27"/>
+      <c r="BN11" s="27"/>
+      <c r="BO11" s="27"/>
+      <c r="BP11" s="27"/>
+      <c r="BQ11" s="27"/>
+      <c r="BR11" s="27"/>
+      <c r="BS11" s="27"/>
+      <c r="BT11" s="27"/>
+      <c r="BU11" s="27"/>
+      <c r="BV11" s="27"/>
+      <c r="BW11" s="27"/>
+      <c r="BX11" s="27"/>
+      <c r="BY11" s="27"/>
+      <c r="BZ11" s="27"/>
+      <c r="CA11" s="27"/>
+      <c r="CB11" s="27"/>
+      <c r="CC11" s="27"/>
+      <c r="CD11" s="27"/>
+      <c r="CE11" s="27"/>
+      <c r="CF11" s="27"/>
+      <c r="CG11" s="27"/>
+      <c r="CH11" s="27"/>
+      <c r="CI11" s="28"/>
+      <c r="CJ11" s="26"/>
+      <c r="CK11" s="27"/>
+      <c r="CL11" s="27"/>
+      <c r="CM11" s="27"/>
+      <c r="CN11" s="27"/>
+      <c r="CO11" s="28"/>
+      <c r="CP11" s="26"/>
+      <c r="CQ11" s="27"/>
+      <c r="CR11" s="27"/>
+      <c r="CS11" s="28"/>
     </row>
-    <row r="12" spans="1:98" ht="23.25" customHeight="1">
-      <c r="A12" s="67">
+    <row r="12" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A12" s="101">
         <v>6</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="6" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="23" t="s">
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
-      <c r="AX12" s="24"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
-      <c r="BC12" s="25"/>
-      <c r="BD12" s="23"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="24"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="24"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="24"/>
-      <c r="BM12" s="24"/>
-      <c r="BN12" s="24"/>
-      <c r="BO12" s="24"/>
-      <c r="BP12" s="24"/>
-      <c r="BQ12" s="24"/>
-      <c r="BR12" s="24"/>
-      <c r="BS12" s="24"/>
-      <c r="BT12" s="24"/>
-      <c r="BU12" s="24"/>
-      <c r="BV12" s="24"/>
-      <c r="BW12" s="24"/>
-      <c r="BX12" s="24"/>
-      <c r="BY12" s="24"/>
-      <c r="BZ12" s="24"/>
-      <c r="CA12" s="24"/>
-      <c r="CB12" s="24"/>
-      <c r="CC12" s="24"/>
-      <c r="CD12" s="24"/>
-      <c r="CE12" s="24"/>
-      <c r="CF12" s="24"/>
-      <c r="CG12" s="24"/>
-      <c r="CH12" s="24"/>
-      <c r="CI12" s="24"/>
-      <c r="CJ12" s="24"/>
-      <c r="CK12" s="24"/>
-      <c r="CL12" s="24"/>
-      <c r="CM12" s="24"/>
-      <c r="CN12" s="24"/>
-      <c r="CO12" s="25"/>
-      <c r="CP12" s="5"/>
-      <c r="CQ12" s="5"/>
-      <c r="CR12" s="5"/>
-      <c r="CS12" s="5"/>
-      <c r="CT12" s="5"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="108"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="108"/>
+      <c r="AQ12" s="108"/>
+      <c r="AR12" s="108"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="108"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="108"/>
+      <c r="AW12" s="108"/>
+      <c r="AX12" s="108"/>
+      <c r="AY12" s="108"/>
+      <c r="AZ12" s="108"/>
+      <c r="BA12" s="108"/>
+      <c r="BB12" s="108"/>
+      <c r="BC12" s="109"/>
+      <c r="BD12" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE12" s="108"/>
+      <c r="BF12" s="108"/>
+      <c r="BG12" s="108"/>
+      <c r="BH12" s="108"/>
+      <c r="BI12" s="108"/>
+      <c r="BJ12" s="108"/>
+      <c r="BK12" s="108"/>
+      <c r="BL12" s="108"/>
+      <c r="BM12" s="108"/>
+      <c r="BN12" s="108"/>
+      <c r="BO12" s="108"/>
+      <c r="BP12" s="108"/>
+      <c r="BQ12" s="108"/>
+      <c r="BR12" s="108"/>
+      <c r="BS12" s="108"/>
+      <c r="BT12" s="108"/>
+      <c r="BU12" s="108"/>
+      <c r="BV12" s="108"/>
+      <c r="BW12" s="108"/>
+      <c r="BX12" s="108"/>
+      <c r="BY12" s="108"/>
+      <c r="BZ12" s="108"/>
+      <c r="CA12" s="108"/>
+      <c r="CB12" s="108"/>
+      <c r="CC12" s="108"/>
+      <c r="CD12" s="108"/>
+      <c r="CE12" s="108"/>
+      <c r="CF12" s="108"/>
+      <c r="CG12" s="108"/>
+      <c r="CH12" s="108"/>
+      <c r="CI12" s="109"/>
+      <c r="CJ12" s="111">
+        <v>41603</v>
+      </c>
+      <c r="CK12" s="102"/>
+      <c r="CL12" s="102"/>
+      <c r="CM12" s="102"/>
+      <c r="CN12" s="102"/>
+      <c r="CO12" s="110"/>
+      <c r="CP12" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ12" s="102"/>
+      <c r="CR12" s="102"/>
+      <c r="CS12" s="110"/>
     </row>
-    <row r="13" spans="1:98" ht="23.25" customHeight="1">
-      <c r="A13" s="67">
+    <row r="13" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A13" s="101">
         <v>7</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="6" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="23" t="s">
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
-      <c r="BC13" s="25"/>
-      <c r="BD13" s="23"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="24"/>
-      <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="24"/>
-      <c r="BO13" s="24"/>
-      <c r="BP13" s="24"/>
-      <c r="BQ13" s="24"/>
-      <c r="BR13" s="24"/>
-      <c r="BS13" s="24"/>
-      <c r="BT13" s="24"/>
-      <c r="BU13" s="24"/>
-      <c r="BV13" s="24"/>
-      <c r="BW13" s="24"/>
-      <c r="BX13" s="24"/>
-      <c r="BY13" s="24"/>
-      <c r="BZ13" s="24"/>
-      <c r="CA13" s="24"/>
-      <c r="CB13" s="24"/>
-      <c r="CC13" s="24"/>
-      <c r="CD13" s="24"/>
-      <c r="CE13" s="24"/>
-      <c r="CF13" s="24"/>
-      <c r="CG13" s="24"/>
-      <c r="CH13" s="24"/>
-      <c r="CI13" s="24"/>
-      <c r="CJ13" s="24"/>
-      <c r="CK13" s="24"/>
-      <c r="CL13" s="24"/>
-      <c r="CM13" s="24"/>
-      <c r="CN13" s="24"/>
-      <c r="CO13" s="25"/>
-      <c r="CP13" s="5"/>
-      <c r="CQ13" s="5"/>
-      <c r="CR13" s="5"/>
-      <c r="CS13" s="5"/>
-      <c r="CT13" s="5"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="108"/>
+      <c r="AL13" s="108"/>
+      <c r="AM13" s="108"/>
+      <c r="AN13" s="108"/>
+      <c r="AO13" s="108"/>
+      <c r="AP13" s="108"/>
+      <c r="AQ13" s="108"/>
+      <c r="AR13" s="108"/>
+      <c r="AS13" s="108"/>
+      <c r="AT13" s="108"/>
+      <c r="AU13" s="108"/>
+      <c r="AV13" s="108"/>
+      <c r="AW13" s="108"/>
+      <c r="AX13" s="108"/>
+      <c r="AY13" s="108"/>
+      <c r="AZ13" s="108"/>
+      <c r="BA13" s="108"/>
+      <c r="BB13" s="108"/>
+      <c r="BC13" s="109"/>
+      <c r="BD13" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE13" s="108"/>
+      <c r="BF13" s="108"/>
+      <c r="BG13" s="108"/>
+      <c r="BH13" s="108"/>
+      <c r="BI13" s="108"/>
+      <c r="BJ13" s="108"/>
+      <c r="BK13" s="108"/>
+      <c r="BL13" s="108"/>
+      <c r="BM13" s="108"/>
+      <c r="BN13" s="108"/>
+      <c r="BO13" s="108"/>
+      <c r="BP13" s="108"/>
+      <c r="BQ13" s="108"/>
+      <c r="BR13" s="108"/>
+      <c r="BS13" s="108"/>
+      <c r="BT13" s="108"/>
+      <c r="BU13" s="108"/>
+      <c r="BV13" s="108"/>
+      <c r="BW13" s="108"/>
+      <c r="BX13" s="108"/>
+      <c r="BY13" s="108"/>
+      <c r="BZ13" s="108"/>
+      <c r="CA13" s="108"/>
+      <c r="CB13" s="108"/>
+      <c r="CC13" s="108"/>
+      <c r="CD13" s="108"/>
+      <c r="CE13" s="108"/>
+      <c r="CF13" s="108"/>
+      <c r="CG13" s="108"/>
+      <c r="CH13" s="108"/>
+      <c r="CI13" s="109"/>
+      <c r="CJ13" s="111">
+        <v>41603</v>
+      </c>
+      <c r="CK13" s="102"/>
+      <c r="CL13" s="102"/>
+      <c r="CM13" s="102"/>
+      <c r="CN13" s="102"/>
+      <c r="CO13" s="110"/>
+      <c r="CP13" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ13" s="102"/>
+      <c r="CR13" s="102"/>
+      <c r="CS13" s="110"/>
     </row>
-    <row r="14" spans="1:98" ht="23.25" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="24"/>
-      <c r="AW14" s="24"/>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="24"/>
-      <c r="BB14" s="24"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="24"/>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="24"/>
-      <c r="BH14" s="24"/>
-      <c r="BI14" s="24"/>
-      <c r="BJ14" s="24"/>
-      <c r="BK14" s="24"/>
-      <c r="BL14" s="24"/>
-      <c r="BM14" s="24"/>
-      <c r="BN14" s="24"/>
-      <c r="BO14" s="24"/>
-      <c r="BP14" s="24"/>
-      <c r="BQ14" s="24"/>
-      <c r="BR14" s="24"/>
-      <c r="BS14" s="24"/>
-      <c r="BT14" s="24"/>
-      <c r="BU14" s="24"/>
-      <c r="BV14" s="24"/>
-      <c r="BW14" s="24"/>
-      <c r="BX14" s="24"/>
-      <c r="BY14" s="24"/>
-      <c r="BZ14" s="24"/>
-      <c r="CA14" s="24"/>
-      <c r="CB14" s="24"/>
-      <c r="CC14" s="24"/>
-      <c r="CD14" s="24"/>
-      <c r="CE14" s="24"/>
-      <c r="CF14" s="24"/>
-      <c r="CG14" s="24"/>
-      <c r="CH14" s="24"/>
-      <c r="CI14" s="24"/>
-      <c r="CJ14" s="24"/>
-      <c r="CK14" s="24"/>
-      <c r="CL14" s="24"/>
-      <c r="CM14" s="24"/>
-      <c r="CN14" s="24"/>
-      <c r="CO14" s="25"/>
-      <c r="CP14" s="5"/>
-      <c r="CQ14" s="5"/>
-      <c r="CR14" s="5"/>
-      <c r="CS14" s="5"/>
-      <c r="CT14" s="5"/>
+    <row r="14" spans="1:97" ht="62.25" customHeight="1">
+      <c r="A14" s="24">
+        <v>8</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="26"/>
+      <c r="BE14" s="27"/>
+      <c r="BF14" s="27"/>
+      <c r="BG14" s="27"/>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="27"/>
+      <c r="BJ14" s="27"/>
+      <c r="BK14" s="27"/>
+      <c r="BL14" s="27"/>
+      <c r="BM14" s="27"/>
+      <c r="BN14" s="27"/>
+      <c r="BO14" s="27"/>
+      <c r="BP14" s="27"/>
+      <c r="BQ14" s="27"/>
+      <c r="BR14" s="27"/>
+      <c r="BS14" s="27"/>
+      <c r="BT14" s="27"/>
+      <c r="BU14" s="27"/>
+      <c r="BV14" s="27"/>
+      <c r="BW14" s="27"/>
+      <c r="BX14" s="27"/>
+      <c r="BY14" s="27"/>
+      <c r="BZ14" s="27"/>
+      <c r="CA14" s="27"/>
+      <c r="CB14" s="27"/>
+      <c r="CC14" s="27"/>
+      <c r="CD14" s="27"/>
+      <c r="CE14" s="27"/>
+      <c r="CF14" s="27"/>
+      <c r="CG14" s="27"/>
+      <c r="CH14" s="27"/>
+      <c r="CI14" s="28"/>
+      <c r="CJ14" s="26"/>
+      <c r="CK14" s="27"/>
+      <c r="CL14" s="27"/>
+      <c r="CM14" s="27"/>
+      <c r="CN14" s="27"/>
+      <c r="CO14" s="28"/>
+      <c r="CP14" s="26"/>
+      <c r="CQ14" s="27"/>
+      <c r="CR14" s="27"/>
+      <c r="CS14" s="28"/>
     </row>
-    <row r="15" spans="1:98" ht="23.25" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+    <row r="15" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="26"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -2782,664 +2908,712 @@
       <c r="CF15" s="27"/>
       <c r="CG15" s="27"/>
       <c r="CH15" s="27"/>
-      <c r="CI15" s="27"/>
-      <c r="CJ15" s="27"/>
+      <c r="CI15" s="28"/>
+      <c r="CJ15" s="26"/>
       <c r="CK15" s="27"/>
       <c r="CL15" s="27"/>
       <c r="CM15" s="27"/>
       <c r="CN15" s="27"/>
       <c r="CO15" s="28"/>
-      <c r="CP15" s="5"/>
-      <c r="CQ15" s="5"/>
-      <c r="CR15" s="5"/>
-      <c r="CS15" s="5"/>
-      <c r="CT15" s="5"/>
+      <c r="CP15" s="26"/>
+      <c r="CQ15" s="27"/>
+      <c r="CR15" s="27"/>
+      <c r="CS15" s="28"/>
     </row>
-    <row r="16" spans="1:98" ht="15.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-      <c r="BV16" s="3"/>
-      <c r="BW16" s="3"/>
-      <c r="BX16" s="3"/>
-      <c r="BY16" s="3"/>
-      <c r="BZ16" s="3"/>
-      <c r="CA16" s="3"/>
-      <c r="CB16" s="3"/>
-      <c r="CC16" s="3"/>
-      <c r="CD16" s="3"/>
-      <c r="CE16" s="3"/>
-      <c r="CF16" s="3"/>
-      <c r="CG16" s="3"/>
-      <c r="CH16" s="3"/>
-      <c r="CI16" s="3"/>
-      <c r="CJ16" s="3"/>
-      <c r="CK16" s="3"/>
-      <c r="CL16" s="3"/>
+    <row r="16" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="26"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
+      <c r="BJ16" s="27"/>
+      <c r="BK16" s="27"/>
+      <c r="BL16" s="27"/>
+      <c r="BM16" s="27"/>
+      <c r="BN16" s="27"/>
+      <c r="BO16" s="27"/>
+      <c r="BP16" s="27"/>
+      <c r="BQ16" s="27"/>
+      <c r="BR16" s="27"/>
+      <c r="BS16" s="27"/>
+      <c r="BT16" s="27"/>
+      <c r="BU16" s="27"/>
+      <c r="BV16" s="27"/>
+      <c r="BW16" s="27"/>
+      <c r="BX16" s="27"/>
+      <c r="BY16" s="27"/>
+      <c r="BZ16" s="27"/>
+      <c r="CA16" s="27"/>
+      <c r="CB16" s="27"/>
+      <c r="CC16" s="27"/>
+      <c r="CD16" s="27"/>
+      <c r="CE16" s="27"/>
+      <c r="CF16" s="27"/>
+      <c r="CG16" s="27"/>
+      <c r="CH16" s="27"/>
+      <c r="CI16" s="28"/>
+      <c r="CJ16" s="26"/>
+      <c r="CK16" s="27"/>
+      <c r="CL16" s="27"/>
+      <c r="CM16" s="27"/>
+      <c r="CN16" s="27"/>
+      <c r="CO16" s="28"/>
+      <c r="CP16" s="26"/>
+      <c r="CQ16" s="27"/>
+      <c r="CR16" s="27"/>
+      <c r="CS16" s="28"/>
     </row>
-    <row r="17" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="3"/>
-      <c r="BT17" s="3"/>
-      <c r="BU17" s="3"/>
-      <c r="BV17" s="3"/>
-      <c r="BW17" s="3"/>
-      <c r="BX17" s="3"/>
-      <c r="BY17" s="3"/>
-      <c r="BZ17" s="3"/>
-      <c r="CA17" s="3"/>
-      <c r="CB17" s="3"/>
-      <c r="CC17" s="3"/>
-      <c r="CD17" s="3"/>
-      <c r="CE17" s="3"/>
-      <c r="CF17" s="3"/>
-      <c r="CG17" s="3"/>
-      <c r="CH17" s="3"/>
-      <c r="CI17" s="3"/>
-      <c r="CJ17" s="3"/>
-      <c r="CK17" s="3"/>
-      <c r="CL17" s="3"/>
+    <row r="17" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="27"/>
+      <c r="AW17" s="27"/>
+      <c r="AX17" s="27"/>
+      <c r="AY17" s="27"/>
+      <c r="AZ17" s="27"/>
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="28"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="27"/>
+      <c r="BF17" s="27"/>
+      <c r="BG17" s="27"/>
+      <c r="BH17" s="27"/>
+      <c r="BI17" s="27"/>
+      <c r="BJ17" s="27"/>
+      <c r="BK17" s="27"/>
+      <c r="BL17" s="27"/>
+      <c r="BM17" s="27"/>
+      <c r="BN17" s="27"/>
+      <c r="BO17" s="27"/>
+      <c r="BP17" s="27"/>
+      <c r="BQ17" s="27"/>
+      <c r="BR17" s="27"/>
+      <c r="BS17" s="27"/>
+      <c r="BT17" s="27"/>
+      <c r="BU17" s="27"/>
+      <c r="BV17" s="27"/>
+      <c r="BW17" s="27"/>
+      <c r="BX17" s="27"/>
+      <c r="BY17" s="27"/>
+      <c r="BZ17" s="27"/>
+      <c r="CA17" s="27"/>
+      <c r="CB17" s="27"/>
+      <c r="CC17" s="27"/>
+      <c r="CD17" s="27"/>
+      <c r="CE17" s="27"/>
+      <c r="CF17" s="27"/>
+      <c r="CG17" s="27"/>
+      <c r="CH17" s="27"/>
+      <c r="CI17" s="28"/>
+      <c r="CJ17" s="26"/>
+      <c r="CK17" s="27"/>
+      <c r="CL17" s="27"/>
+      <c r="CM17" s="27"/>
+      <c r="CN17" s="27"/>
+      <c r="CO17" s="28"/>
+      <c r="CP17" s="26"/>
+      <c r="CQ17" s="27"/>
+      <c r="CR17" s="27"/>
+      <c r="CS17" s="28"/>
     </row>
-    <row r="18" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
-      <c r="BR18" s="3"/>
-      <c r="BS18" s="3"/>
-      <c r="BT18" s="3"/>
-      <c r="BU18" s="3"/>
-      <c r="BV18" s="3"/>
-      <c r="BW18" s="3"/>
-      <c r="BX18" s="3"/>
-      <c r="BY18" s="3"/>
-      <c r="BZ18" s="3"/>
-      <c r="CA18" s="3"/>
-      <c r="CB18" s="3"/>
-      <c r="CC18" s="3"/>
-      <c r="CD18" s="3"/>
-      <c r="CE18" s="3"/>
-      <c r="CF18" s="3"/>
-      <c r="CG18" s="3"/>
-      <c r="CH18" s="3"/>
-      <c r="CI18" s="3"/>
-      <c r="CJ18" s="3"/>
-      <c r="CK18" s="3"/>
-      <c r="CL18" s="3"/>
+    <row r="18" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="27"/>
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="27"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="27"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="27"/>
+      <c r="BJ18" s="27"/>
+      <c r="BK18" s="27"/>
+      <c r="BL18" s="27"/>
+      <c r="BM18" s="27"/>
+      <c r="BN18" s="27"/>
+      <c r="BO18" s="27"/>
+      <c r="BP18" s="27"/>
+      <c r="BQ18" s="27"/>
+      <c r="BR18" s="27"/>
+      <c r="BS18" s="27"/>
+      <c r="BT18" s="27"/>
+      <c r="BU18" s="27"/>
+      <c r="BV18" s="27"/>
+      <c r="BW18" s="27"/>
+      <c r="BX18" s="27"/>
+      <c r="BY18" s="27"/>
+      <c r="BZ18" s="27"/>
+      <c r="CA18" s="27"/>
+      <c r="CB18" s="27"/>
+      <c r="CC18" s="27"/>
+      <c r="CD18" s="27"/>
+      <c r="CE18" s="27"/>
+      <c r="CF18" s="27"/>
+      <c r="CG18" s="27"/>
+      <c r="CH18" s="27"/>
+      <c r="CI18" s="28"/>
+      <c r="CJ18" s="26"/>
+      <c r="CK18" s="27"/>
+      <c r="CL18" s="27"/>
+      <c r="CM18" s="27"/>
+      <c r="CN18" s="27"/>
+      <c r="CO18" s="28"/>
+      <c r="CP18" s="26"/>
+      <c r="CQ18" s="27"/>
+      <c r="CR18" s="27"/>
+      <c r="CS18" s="28"/>
     </row>
-    <row r="19" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
-      <c r="BR19" s="3"/>
-      <c r="BS19" s="3"/>
-      <c r="BT19" s="3"/>
-      <c r="BU19" s="3"/>
-      <c r="BV19" s="3"/>
-      <c r="BW19" s="3"/>
-      <c r="BX19" s="3"/>
-      <c r="BY19" s="3"/>
-      <c r="BZ19" s="3"/>
-      <c r="CA19" s="3"/>
-      <c r="CB19" s="3"/>
-      <c r="CC19" s="3"/>
-      <c r="CD19" s="3"/>
-      <c r="CE19" s="3"/>
-      <c r="CF19" s="3"/>
-      <c r="CG19" s="3"/>
-      <c r="CH19" s="3"/>
-      <c r="CI19" s="3"/>
-      <c r="CJ19" s="3"/>
-      <c r="CK19" s="3"/>
-      <c r="CL19" s="3"/>
+    <row r="19" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="26"/>
+      <c r="BE19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="27"/>
+      <c r="BJ19" s="27"/>
+      <c r="BK19" s="27"/>
+      <c r="BL19" s="27"/>
+      <c r="BM19" s="27"/>
+      <c r="BN19" s="27"/>
+      <c r="BO19" s="27"/>
+      <c r="BP19" s="27"/>
+      <c r="BQ19" s="27"/>
+      <c r="BR19" s="27"/>
+      <c r="BS19" s="27"/>
+      <c r="BT19" s="27"/>
+      <c r="BU19" s="27"/>
+      <c r="BV19" s="27"/>
+      <c r="BW19" s="27"/>
+      <c r="BX19" s="27"/>
+      <c r="BY19" s="27"/>
+      <c r="BZ19" s="27"/>
+      <c r="CA19" s="27"/>
+      <c r="CB19" s="27"/>
+      <c r="CC19" s="27"/>
+      <c r="CD19" s="27"/>
+      <c r="CE19" s="27"/>
+      <c r="CF19" s="27"/>
+      <c r="CG19" s="27"/>
+      <c r="CH19" s="27"/>
+      <c r="CI19" s="28"/>
+      <c r="CJ19" s="26"/>
+      <c r="CK19" s="27"/>
+      <c r="CL19" s="27"/>
+      <c r="CM19" s="27"/>
+      <c r="CN19" s="27"/>
+      <c r="CO19" s="28"/>
+      <c r="CP19" s="26"/>
+      <c r="CQ19" s="27"/>
+      <c r="CR19" s="27"/>
+      <c r="CS19" s="28"/>
     </row>
-    <row r="20" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="3"/>
-      <c r="BS20" s="3"/>
-      <c r="BT20" s="3"/>
-      <c r="BU20" s="3"/>
-      <c r="BV20" s="3"/>
-      <c r="BW20" s="3"/>
-      <c r="BX20" s="3"/>
-      <c r="BY20" s="3"/>
-      <c r="BZ20" s="3"/>
-      <c r="CA20" s="3"/>
-      <c r="CB20" s="3"/>
-      <c r="CC20" s="3"/>
-      <c r="CD20" s="3"/>
-      <c r="CE20" s="3"/>
-      <c r="CF20" s="3"/>
-      <c r="CG20" s="3"/>
-      <c r="CH20" s="3"/>
-      <c r="CI20" s="3"/>
-      <c r="CJ20" s="3"/>
-      <c r="CK20" s="3"/>
-      <c r="CL20" s="3"/>
+    <row r="20" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="26"/>
+      <c r="BE20" s="27"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="27"/>
+      <c r="BJ20" s="27"/>
+      <c r="BK20" s="27"/>
+      <c r="BL20" s="27"/>
+      <c r="BM20" s="27"/>
+      <c r="BN20" s="27"/>
+      <c r="BO20" s="27"/>
+      <c r="BP20" s="27"/>
+      <c r="BQ20" s="27"/>
+      <c r="BR20" s="27"/>
+      <c r="BS20" s="27"/>
+      <c r="BT20" s="27"/>
+      <c r="BU20" s="27"/>
+      <c r="BV20" s="27"/>
+      <c r="BW20" s="27"/>
+      <c r="BX20" s="27"/>
+      <c r="BY20" s="27"/>
+      <c r="BZ20" s="27"/>
+      <c r="CA20" s="27"/>
+      <c r="CB20" s="27"/>
+      <c r="CC20" s="27"/>
+      <c r="CD20" s="27"/>
+      <c r="CE20" s="27"/>
+      <c r="CF20" s="27"/>
+      <c r="CG20" s="27"/>
+      <c r="CH20" s="27"/>
+      <c r="CI20" s="28"/>
+      <c r="CJ20" s="26"/>
+      <c r="CK20" s="27"/>
+      <c r="CL20" s="27"/>
+      <c r="CM20" s="27"/>
+      <c r="CN20" s="27"/>
+      <c r="CO20" s="28"/>
+      <c r="CP20" s="26"/>
+      <c r="CQ20" s="27"/>
+      <c r="CR20" s="27"/>
+      <c r="CS20" s="28"/>
     </row>
-    <row r="21" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
-      <c r="BP21" s="3"/>
-      <c r="BQ21" s="3"/>
-      <c r="BR21" s="3"/>
-      <c r="BS21" s="3"/>
-      <c r="BT21" s="3"/>
-      <c r="BU21" s="3"/>
-      <c r="BV21" s="3"/>
-      <c r="BW21" s="3"/>
-      <c r="BX21" s="3"/>
-      <c r="BY21" s="3"/>
-      <c r="BZ21" s="3"/>
-      <c r="CA21" s="3"/>
-      <c r="CB21" s="3"/>
-      <c r="CC21" s="3"/>
-      <c r="CD21" s="3"/>
-      <c r="CE21" s="3"/>
-      <c r="CF21" s="3"/>
-      <c r="CG21" s="3"/>
-      <c r="CH21" s="3"/>
-      <c r="CI21" s="3"/>
-      <c r="CJ21" s="3"/>
-      <c r="CK21" s="3"/>
-      <c r="CL21" s="3"/>
+    <row r="21" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="28"/>
+      <c r="BD21" s="26"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="27"/>
+      <c r="BJ21" s="27"/>
+      <c r="BK21" s="27"/>
+      <c r="BL21" s="27"/>
+      <c r="BM21" s="27"/>
+      <c r="BN21" s="27"/>
+      <c r="BO21" s="27"/>
+      <c r="BP21" s="27"/>
+      <c r="BQ21" s="27"/>
+      <c r="BR21" s="27"/>
+      <c r="BS21" s="27"/>
+      <c r="BT21" s="27"/>
+      <c r="BU21" s="27"/>
+      <c r="BV21" s="27"/>
+      <c r="BW21" s="27"/>
+      <c r="BX21" s="27"/>
+      <c r="BY21" s="27"/>
+      <c r="BZ21" s="27"/>
+      <c r="CA21" s="27"/>
+      <c r="CB21" s="27"/>
+      <c r="CC21" s="27"/>
+      <c r="CD21" s="27"/>
+      <c r="CE21" s="27"/>
+      <c r="CF21" s="27"/>
+      <c r="CG21" s="27"/>
+      <c r="CH21" s="27"/>
+      <c r="CI21" s="28"/>
+      <c r="CJ21" s="26"/>
+      <c r="CK21" s="27"/>
+      <c r="CL21" s="27"/>
+      <c r="CM21" s="27"/>
+      <c r="CN21" s="27"/>
+      <c r="CO21" s="28"/>
+      <c r="CP21" s="26"/>
+      <c r="CQ21" s="27"/>
+      <c r="CR21" s="27"/>
+      <c r="CS21" s="28"/>
     </row>
-    <row r="22" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
-      <c r="BP22" s="3"/>
-      <c r="BQ22" s="3"/>
-      <c r="BR22" s="3"/>
-      <c r="BS22" s="3"/>
-      <c r="BT22" s="3"/>
-      <c r="BU22" s="3"/>
-      <c r="BV22" s="3"/>
-      <c r="BW22" s="3"/>
-      <c r="BX22" s="3"/>
-      <c r="BY22" s="3"/>
-      <c r="BZ22" s="3"/>
-      <c r="CA22" s="3"/>
-      <c r="CB22" s="3"/>
-      <c r="CC22" s="3"/>
-      <c r="CD22" s="3"/>
-      <c r="CE22" s="3"/>
-      <c r="CF22" s="3"/>
-      <c r="CG22" s="3"/>
-      <c r="CH22" s="3"/>
-      <c r="CI22" s="3"/>
-      <c r="CJ22" s="3"/>
-      <c r="CK22" s="3"/>
-      <c r="CL22" s="3"/>
+    <row r="22" spans="1:97" ht="23.25" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="35"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="35"/>
+      <c r="BF22" s="35"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="35"/>
+      <c r="BI22" s="35"/>
+      <c r="BJ22" s="35"/>
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="35"/>
+      <c r="BM22" s="35"/>
+      <c r="BN22" s="35"/>
+      <c r="BO22" s="35"/>
+      <c r="BP22" s="35"/>
+      <c r="BQ22" s="35"/>
+      <c r="BR22" s="35"/>
+      <c r="BS22" s="35"/>
+      <c r="BT22" s="35"/>
+      <c r="BU22" s="35"/>
+      <c r="BV22" s="35"/>
+      <c r="BW22" s="35"/>
+      <c r="BX22" s="35"/>
+      <c r="BY22" s="35"/>
+      <c r="BZ22" s="35"/>
+      <c r="CA22" s="35"/>
+      <c r="CB22" s="35"/>
+      <c r="CC22" s="35"/>
+      <c r="CD22" s="35"/>
+      <c r="CE22" s="35"/>
+      <c r="CF22" s="35"/>
+      <c r="CG22" s="35"/>
+      <c r="CH22" s="35"/>
+      <c r="CI22" s="36"/>
+      <c r="CJ22" s="34"/>
+      <c r="CK22" s="35"/>
+      <c r="CL22" s="35"/>
+      <c r="CM22" s="35"/>
+      <c r="CN22" s="35"/>
+      <c r="CO22" s="36"/>
+      <c r="CP22" s="34"/>
+      <c r="CQ22" s="35"/>
+      <c r="CR22" s="35"/>
+      <c r="CS22" s="36"/>
     </row>
-    <row r="23" spans="1:90" ht="15.75" customHeight="1">
+    <row r="23" spans="1:97" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3524,14 +3698,8 @@
       <c r="CD23" s="3"/>
       <c r="CE23" s="3"/>
       <c r="CF23" s="3"/>
-      <c r="CG23" s="3"/>
-      <c r="CH23" s="3"/>
-      <c r="CI23" s="3"/>
-      <c r="CJ23" s="3"/>
-      <c r="CK23" s="3"/>
-      <c r="CL23" s="3"/>
     </row>
-    <row r="24" spans="1:90" ht="15.75" customHeight="1">
+    <row r="24" spans="1:97" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3616,14 +3784,8 @@
       <c r="CD24" s="3"/>
       <c r="CE24" s="3"/>
       <c r="CF24" s="3"/>
-      <c r="CG24" s="3"/>
-      <c r="CH24" s="3"/>
-      <c r="CI24" s="3"/>
-      <c r="CJ24" s="3"/>
-      <c r="CK24" s="3"/>
-      <c r="CL24" s="3"/>
     </row>
-    <row r="25" spans="1:90" ht="15.75" customHeight="1">
+    <row r="25" spans="1:97" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3708,14 +3870,8 @@
       <c r="CD25" s="3"/>
       <c r="CE25" s="3"/>
       <c r="CF25" s="3"/>
-      <c r="CG25" s="3"/>
-      <c r="CH25" s="3"/>
-      <c r="CI25" s="3"/>
-      <c r="CJ25" s="3"/>
-      <c r="CK25" s="3"/>
-      <c r="CL25" s="3"/>
     </row>
-    <row r="26" spans="1:90" ht="15.75" customHeight="1">
+    <row r="26" spans="1:97" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3800,14 +3956,8 @@
       <c r="CD26" s="3"/>
       <c r="CE26" s="3"/>
       <c r="CF26" s="3"/>
-      <c r="CG26" s="3"/>
-      <c r="CH26" s="3"/>
-      <c r="CI26" s="3"/>
-      <c r="CJ26" s="3"/>
-      <c r="CK26" s="3"/>
-      <c r="CL26" s="3"/>
     </row>
-    <row r="27" spans="1:90" ht="15.75" customHeight="1">
+    <row r="27" spans="1:97" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3892,14 +4042,8 @@
       <c r="CD27" s="3"/>
       <c r="CE27" s="3"/>
       <c r="CF27" s="3"/>
-      <c r="CG27" s="3"/>
-      <c r="CH27" s="3"/>
-      <c r="CI27" s="3"/>
-      <c r="CJ27" s="3"/>
-      <c r="CK27" s="3"/>
-      <c r="CL27" s="3"/>
     </row>
-    <row r="28" spans="1:90" ht="15.75" customHeight="1">
+    <row r="28" spans="1:97" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3984,14 +4128,8 @@
       <c r="CD28" s="3"/>
       <c r="CE28" s="3"/>
       <c r="CF28" s="3"/>
-      <c r="CG28" s="3"/>
-      <c r="CH28" s="3"/>
-      <c r="CI28" s="3"/>
-      <c r="CJ28" s="3"/>
-      <c r="CK28" s="3"/>
-      <c r="CL28" s="3"/>
     </row>
-    <row r="29" spans="1:90" ht="15.75" customHeight="1">
+    <row r="29" spans="1:97" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4076,14 +4214,8 @@
       <c r="CD29" s="3"/>
       <c r="CE29" s="3"/>
       <c r="CF29" s="3"/>
-      <c r="CG29" s="3"/>
-      <c r="CH29" s="3"/>
-      <c r="CI29" s="3"/>
-      <c r="CJ29" s="3"/>
-      <c r="CK29" s="3"/>
-      <c r="CL29" s="3"/>
     </row>
-    <row r="30" spans="1:90" ht="15.75" customHeight="1">
+    <row r="30" spans="1:97" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4168,14 +4300,8 @@
       <c r="CD30" s="3"/>
       <c r="CE30" s="3"/>
       <c r="CF30" s="3"/>
-      <c r="CG30" s="3"/>
-      <c r="CH30" s="3"/>
-      <c r="CI30" s="3"/>
-      <c r="CJ30" s="3"/>
-      <c r="CK30" s="3"/>
-      <c r="CL30" s="3"/>
     </row>
-    <row r="31" spans="1:90" ht="15.75" customHeight="1">
+    <row r="31" spans="1:97" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4260,14 +4386,8 @@
       <c r="CD31" s="3"/>
       <c r="CE31" s="3"/>
       <c r="CF31" s="3"/>
-      <c r="CG31" s="3"/>
-      <c r="CH31" s="3"/>
-      <c r="CI31" s="3"/>
-      <c r="CJ31" s="3"/>
-      <c r="CK31" s="3"/>
-      <c r="CL31" s="3"/>
     </row>
-    <row r="32" spans="1:90" ht="15.75" customHeight="1">
+    <row r="32" spans="1:97" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4352,14 +4472,8 @@
       <c r="CD32" s="3"/>
       <c r="CE32" s="3"/>
       <c r="CF32" s="3"/>
-      <c r="CG32" s="3"/>
-      <c r="CH32" s="3"/>
-      <c r="CI32" s="3"/>
-      <c r="CJ32" s="3"/>
-      <c r="CK32" s="3"/>
-      <c r="CL32" s="3"/>
     </row>
-    <row r="33" spans="1:90" ht="15.75" customHeight="1">
+    <row r="33" spans="1:84" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4444,14 +4558,8 @@
       <c r="CD33" s="3"/>
       <c r="CE33" s="3"/>
       <c r="CF33" s="3"/>
-      <c r="CG33" s="3"/>
-      <c r="CH33" s="3"/>
-      <c r="CI33" s="3"/>
-      <c r="CJ33" s="3"/>
-      <c r="CK33" s="3"/>
-      <c r="CL33" s="3"/>
     </row>
-    <row r="34" spans="1:90" ht="15.75" customHeight="1">
+    <row r="34" spans="1:84" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4536,14 +4644,8 @@
       <c r="CD34" s="3"/>
       <c r="CE34" s="3"/>
       <c r="CF34" s="3"/>
-      <c r="CG34" s="3"/>
-      <c r="CH34" s="3"/>
-      <c r="CI34" s="3"/>
-      <c r="CJ34" s="3"/>
-      <c r="CK34" s="3"/>
-      <c r="CL34" s="3"/>
     </row>
-    <row r="35" spans="1:90" ht="15.75" customHeight="1">
+    <row r="35" spans="1:84" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4628,14 +4730,8 @@
       <c r="CD35" s="3"/>
       <c r="CE35" s="3"/>
       <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="3"/>
-      <c r="CJ35" s="3"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="3"/>
     </row>
-    <row r="36" spans="1:90" ht="15.75" customHeight="1">
+    <row r="36" spans="1:84" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4720,14 +4816,8 @@
       <c r="CD36" s="3"/>
       <c r="CE36" s="3"/>
       <c r="CF36" s="3"/>
-      <c r="CG36" s="3"/>
-      <c r="CH36" s="3"/>
-      <c r="CI36" s="3"/>
-      <c r="CJ36" s="3"/>
-      <c r="CK36" s="3"/>
-      <c r="CL36" s="3"/>
     </row>
-    <row r="37" spans="1:90" ht="15.75" customHeight="1">
+    <row r="37" spans="1:84" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4812,14 +4902,8 @@
       <c r="CD37" s="3"/>
       <c r="CE37" s="3"/>
       <c r="CF37" s="3"/>
-      <c r="CG37" s="3"/>
-      <c r="CH37" s="3"/>
-      <c r="CI37" s="3"/>
-      <c r="CJ37" s="3"/>
-      <c r="CK37" s="3"/>
-      <c r="CL37" s="3"/>
     </row>
-    <row r="38" spans="1:90" ht="15.75" customHeight="1">
+    <row r="38" spans="1:84" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4904,14 +4988,8 @@
       <c r="CD38" s="3"/>
       <c r="CE38" s="3"/>
       <c r="CF38" s="3"/>
-      <c r="CG38" s="3"/>
-      <c r="CH38" s="3"/>
-      <c r="CI38" s="3"/>
-      <c r="CJ38" s="3"/>
-      <c r="CK38" s="3"/>
-      <c r="CL38" s="3"/>
     </row>
-    <row r="39" spans="1:90" ht="15.75" customHeight="1">
+    <row r="39" spans="1:84" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4996,14 +5074,8 @@
       <c r="CD39" s="3"/>
       <c r="CE39" s="3"/>
       <c r="CF39" s="3"/>
-      <c r="CG39" s="3"/>
-      <c r="CH39" s="3"/>
-      <c r="CI39" s="3"/>
-      <c r="CJ39" s="3"/>
-      <c r="CK39" s="3"/>
-      <c r="CL39" s="3"/>
     </row>
-    <row r="40" spans="1:90" ht="15.75" customHeight="1">
+    <row r="40" spans="1:84" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5088,14 +5160,8 @@
       <c r="CD40" s="3"/>
       <c r="CE40" s="3"/>
       <c r="CF40" s="3"/>
-      <c r="CG40" s="3"/>
-      <c r="CH40" s="3"/>
-      <c r="CI40" s="3"/>
-      <c r="CJ40" s="3"/>
-      <c r="CK40" s="3"/>
-      <c r="CL40" s="3"/>
     </row>
-    <row r="41" spans="1:90" ht="15.75" customHeight="1">
+    <row r="41" spans="1:84" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5180,14 +5246,8 @@
       <c r="CD41" s="3"/>
       <c r="CE41" s="3"/>
       <c r="CF41" s="3"/>
-      <c r="CG41" s="3"/>
-      <c r="CH41" s="3"/>
-      <c r="CI41" s="3"/>
-      <c r="CJ41" s="3"/>
-      <c r="CK41" s="3"/>
-      <c r="CL41" s="3"/>
     </row>
-    <row r="42" spans="1:90" ht="15.75" customHeight="1">
+    <row r="42" spans="1:84" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5272,14 +5332,8 @@
       <c r="CD42" s="3"/>
       <c r="CE42" s="3"/>
       <c r="CF42" s="3"/>
-      <c r="CG42" s="3"/>
-      <c r="CH42" s="3"/>
-      <c r="CI42" s="3"/>
-      <c r="CJ42" s="3"/>
-      <c r="CK42" s="3"/>
-      <c r="CL42" s="3"/>
     </row>
-    <row r="43" spans="1:90" ht="15.75" customHeight="1">
+    <row r="43" spans="1:84" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -5364,14 +5418,8 @@
       <c r="CD43" s="3"/>
       <c r="CE43" s="3"/>
       <c r="CF43" s="3"/>
-      <c r="CG43" s="3"/>
-      <c r="CH43" s="3"/>
-      <c r="CI43" s="3"/>
-      <c r="CJ43" s="3"/>
-      <c r="CK43" s="3"/>
-      <c r="CL43" s="3"/>
     </row>
-    <row r="44" spans="1:90" ht="15.75" customHeight="1">
+    <row r="44" spans="1:84" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -5456,14 +5504,8 @@
       <c r="CD44" s="3"/>
       <c r="CE44" s="3"/>
       <c r="CF44" s="3"/>
-      <c r="CG44" s="3"/>
-      <c r="CH44" s="3"/>
-      <c r="CI44" s="3"/>
-      <c r="CJ44" s="3"/>
-      <c r="CK44" s="3"/>
-      <c r="CL44" s="3"/>
     </row>
-    <row r="45" spans="1:90" ht="15.75" customHeight="1">
+    <row r="45" spans="1:84" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5548,14 +5590,8 @@
       <c r="CD45" s="3"/>
       <c r="CE45" s="3"/>
       <c r="CF45" s="3"/>
-      <c r="CG45" s="3"/>
-      <c r="CH45" s="3"/>
-      <c r="CI45" s="3"/>
-      <c r="CJ45" s="3"/>
-      <c r="CK45" s="3"/>
-      <c r="CL45" s="3"/>
     </row>
-    <row r="46" spans="1:90" ht="15.75" customHeight="1">
+    <row r="46" spans="1:84" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5640,14 +5676,8 @@
       <c r="CD46" s="3"/>
       <c r="CE46" s="3"/>
       <c r="CF46" s="3"/>
-      <c r="CG46" s="3"/>
-      <c r="CH46" s="3"/>
-      <c r="CI46" s="3"/>
-      <c r="CJ46" s="3"/>
-      <c r="CK46" s="3"/>
-      <c r="CL46" s="3"/>
     </row>
-    <row r="47" spans="1:90" ht="15.75" customHeight="1">
+    <row r="47" spans="1:84" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5732,14 +5762,8 @@
       <c r="CD47" s="3"/>
       <c r="CE47" s="3"/>
       <c r="CF47" s="3"/>
-      <c r="CG47" s="3"/>
-      <c r="CH47" s="3"/>
-      <c r="CI47" s="3"/>
-      <c r="CJ47" s="3"/>
-      <c r="CK47" s="3"/>
-      <c r="CL47" s="3"/>
     </row>
-    <row r="48" spans="1:90" ht="15.75" customHeight="1">
+    <row r="48" spans="1:84" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5824,14 +5848,8 @@
       <c r="CD48" s="3"/>
       <c r="CE48" s="3"/>
       <c r="CF48" s="3"/>
-      <c r="CG48" s="3"/>
-      <c r="CH48" s="3"/>
-      <c r="CI48" s="3"/>
-      <c r="CJ48" s="3"/>
-      <c r="CK48" s="3"/>
-      <c r="CL48" s="3"/>
     </row>
-    <row r="49" spans="1:90" ht="15.75" customHeight="1">
+    <row r="49" spans="1:84" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5916,14 +5934,8 @@
       <c r="CD49" s="3"/>
       <c r="CE49" s="3"/>
       <c r="CF49" s="3"/>
-      <c r="CG49" s="3"/>
-      <c r="CH49" s="3"/>
-      <c r="CI49" s="3"/>
-      <c r="CJ49" s="3"/>
-      <c r="CK49" s="3"/>
-      <c r="CL49" s="3"/>
     </row>
-    <row r="50" spans="1:90" ht="15.75" customHeight="1">
+    <row r="50" spans="1:84" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6008,14 +6020,8 @@
       <c r="CD50" s="3"/>
       <c r="CE50" s="3"/>
       <c r="CF50" s="3"/>
-      <c r="CG50" s="3"/>
-      <c r="CH50" s="3"/>
-      <c r="CI50" s="3"/>
-      <c r="CJ50" s="3"/>
-      <c r="CK50" s="3"/>
-      <c r="CL50" s="3"/>
     </row>
-    <row r="51" spans="1:90" ht="15.75" customHeight="1">
+    <row r="51" spans="1:84" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6100,14 +6106,8 @@
       <c r="CD51" s="3"/>
       <c r="CE51" s="3"/>
       <c r="CF51" s="3"/>
-      <c r="CG51" s="3"/>
-      <c r="CH51" s="3"/>
-      <c r="CI51" s="3"/>
-      <c r="CJ51" s="3"/>
-      <c r="CK51" s="3"/>
-      <c r="CL51" s="3"/>
     </row>
-    <row r="52" spans="1:90" ht="15.75" customHeight="1">
+    <row r="52" spans="1:84" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6192,14 +6192,8 @@
       <c r="CD52" s="3"/>
       <c r="CE52" s="3"/>
       <c r="CF52" s="3"/>
-      <c r="CG52" s="3"/>
-      <c r="CH52" s="3"/>
-      <c r="CI52" s="3"/>
-      <c r="CJ52" s="3"/>
-      <c r="CK52" s="3"/>
-      <c r="CL52" s="3"/>
     </row>
-    <row r="53" spans="1:90" ht="15.75" customHeight="1">
+    <row r="53" spans="1:84" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6284,14 +6278,8 @@
       <c r="CD53" s="3"/>
       <c r="CE53" s="3"/>
       <c r="CF53" s="3"/>
-      <c r="CG53" s="3"/>
-      <c r="CH53" s="3"/>
-      <c r="CI53" s="3"/>
-      <c r="CJ53" s="3"/>
-      <c r="CK53" s="3"/>
-      <c r="CL53" s="3"/>
     </row>
-    <row r="54" spans="1:90" ht="15.75" customHeight="1">
+    <row r="54" spans="1:84" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6376,14 +6364,8 @@
       <c r="CD54" s="3"/>
       <c r="CE54" s="3"/>
       <c r="CF54" s="3"/>
-      <c r="CG54" s="3"/>
-      <c r="CH54" s="3"/>
-      <c r="CI54" s="3"/>
-      <c r="CJ54" s="3"/>
-      <c r="CK54" s="3"/>
-      <c r="CL54" s="3"/>
     </row>
-    <row r="55" spans="1:90" ht="15.75" customHeight="1">
+    <row r="55" spans="1:84" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6468,14 +6450,8 @@
       <c r="CD55" s="3"/>
       <c r="CE55" s="3"/>
       <c r="CF55" s="3"/>
-      <c r="CG55" s="3"/>
-      <c r="CH55" s="3"/>
-      <c r="CI55" s="3"/>
-      <c r="CJ55" s="3"/>
-      <c r="CK55" s="3"/>
-      <c r="CL55" s="3"/>
     </row>
-    <row r="56" spans="1:90" ht="15.75" customHeight="1">
+    <row r="56" spans="1:84" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6560,14 +6536,8 @@
       <c r="CD56" s="3"/>
       <c r="CE56" s="3"/>
       <c r="CF56" s="3"/>
-      <c r="CG56" s="3"/>
-      <c r="CH56" s="3"/>
-      <c r="CI56" s="3"/>
-      <c r="CJ56" s="3"/>
-      <c r="CK56" s="3"/>
-      <c r="CL56" s="3"/>
     </row>
-    <row r="57" spans="1:90" ht="15.75" customHeight="1">
+    <row r="57" spans="1:84" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6652,14 +6622,8 @@
       <c r="CD57" s="3"/>
       <c r="CE57" s="3"/>
       <c r="CF57" s="3"/>
-      <c r="CG57" s="3"/>
-      <c r="CH57" s="3"/>
-      <c r="CI57" s="3"/>
-      <c r="CJ57" s="3"/>
-      <c r="CK57" s="3"/>
-      <c r="CL57" s="3"/>
     </row>
-    <row r="58" spans="1:90" ht="15.75" customHeight="1">
+    <row r="58" spans="1:84" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6744,14 +6708,8 @@
       <c r="CD58" s="3"/>
       <c r="CE58" s="3"/>
       <c r="CF58" s="3"/>
-      <c r="CG58" s="3"/>
-      <c r="CH58" s="3"/>
-      <c r="CI58" s="3"/>
-      <c r="CJ58" s="3"/>
-      <c r="CK58" s="3"/>
-      <c r="CL58" s="3"/>
     </row>
-    <row r="59" spans="1:90" ht="15.75" customHeight="1">
+    <row r="59" spans="1:84" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6836,14 +6794,8 @@
       <c r="CD59" s="3"/>
       <c r="CE59" s="3"/>
       <c r="CF59" s="3"/>
-      <c r="CG59" s="3"/>
-      <c r="CH59" s="3"/>
-      <c r="CI59" s="3"/>
-      <c r="CJ59" s="3"/>
-      <c r="CK59" s="3"/>
-      <c r="CL59" s="3"/>
     </row>
-    <row r="60" spans="1:90" ht="15.75" customHeight="1">
+    <row r="60" spans="1:84" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6928,14 +6880,8 @@
       <c r="CD60" s="3"/>
       <c r="CE60" s="3"/>
       <c r="CF60" s="3"/>
-      <c r="CG60" s="3"/>
-      <c r="CH60" s="3"/>
-      <c r="CI60" s="3"/>
-      <c r="CJ60" s="3"/>
-      <c r="CK60" s="3"/>
-      <c r="CL60" s="3"/>
     </row>
-    <row r="61" spans="1:90" ht="15.75" customHeight="1">
+    <row r="61" spans="1:84" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7020,14 +6966,8 @@
       <c r="CD61" s="3"/>
       <c r="CE61" s="3"/>
       <c r="CF61" s="3"/>
-      <c r="CG61" s="3"/>
-      <c r="CH61" s="3"/>
-      <c r="CI61" s="3"/>
-      <c r="CJ61" s="3"/>
-      <c r="CK61" s="3"/>
-      <c r="CL61" s="3"/>
     </row>
-    <row r="62" spans="1:90" ht="15.75" customHeight="1">
+    <row r="62" spans="1:84" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7112,14 +7052,8 @@
       <c r="CD62" s="3"/>
       <c r="CE62" s="3"/>
       <c r="CF62" s="3"/>
-      <c r="CG62" s="3"/>
-      <c r="CH62" s="3"/>
-      <c r="CI62" s="3"/>
-      <c r="CJ62" s="3"/>
-      <c r="CK62" s="3"/>
-      <c r="CL62" s="3"/>
     </row>
-    <row r="63" spans="1:90" ht="15.75" customHeight="1">
+    <row r="63" spans="1:84" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7204,14 +7138,8 @@
       <c r="CD63" s="3"/>
       <c r="CE63" s="3"/>
       <c r="CF63" s="3"/>
-      <c r="CG63" s="3"/>
-      <c r="CH63" s="3"/>
-      <c r="CI63" s="3"/>
-      <c r="CJ63" s="3"/>
-      <c r="CK63" s="3"/>
-      <c r="CL63" s="3"/>
     </row>
-    <row r="64" spans="1:90" ht="15.75" customHeight="1">
+    <row r="64" spans="1:84" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7296,14 +7224,8 @@
       <c r="CD64" s="3"/>
       <c r="CE64" s="3"/>
       <c r="CF64" s="3"/>
-      <c r="CG64" s="3"/>
-      <c r="CH64" s="3"/>
-      <c r="CI64" s="3"/>
-      <c r="CJ64" s="3"/>
-      <c r="CK64" s="3"/>
-      <c r="CL64" s="3"/>
     </row>
-    <row r="65" spans="1:90" ht="15.75" customHeight="1">
+    <row r="65" spans="1:84" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7388,14 +7310,8 @@
       <c r="CD65" s="3"/>
       <c r="CE65" s="3"/>
       <c r="CF65" s="3"/>
-      <c r="CG65" s="3"/>
-      <c r="CH65" s="3"/>
-      <c r="CI65" s="3"/>
-      <c r="CJ65" s="3"/>
-      <c r="CK65" s="3"/>
-      <c r="CL65" s="3"/>
     </row>
-    <row r="66" spans="1:90" ht="15.75" customHeight="1">
+    <row r="66" spans="1:84" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7480,14 +7396,8 @@
       <c r="CD66" s="3"/>
       <c r="CE66" s="3"/>
       <c r="CF66" s="3"/>
-      <c r="CG66" s="3"/>
-      <c r="CH66" s="3"/>
-      <c r="CI66" s="3"/>
-      <c r="CJ66" s="3"/>
-      <c r="CK66" s="3"/>
-      <c r="CL66" s="3"/>
     </row>
-    <row r="67" spans="1:90" ht="15.75" customHeight="1">
+    <row r="67" spans="1:84" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7572,14 +7482,8 @@
       <c r="CD67" s="3"/>
       <c r="CE67" s="3"/>
       <c r="CF67" s="3"/>
-      <c r="CG67" s="3"/>
-      <c r="CH67" s="3"/>
-      <c r="CI67" s="3"/>
-      <c r="CJ67" s="3"/>
-      <c r="CK67" s="3"/>
-      <c r="CL67" s="3"/>
     </row>
-    <row r="68" spans="1:90" ht="15.75" customHeight="1">
+    <row r="68" spans="1:84" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -7664,14 +7568,8 @@
       <c r="CD68" s="3"/>
       <c r="CE68" s="3"/>
       <c r="CF68" s="3"/>
-      <c r="CG68" s="3"/>
-      <c r="CH68" s="3"/>
-      <c r="CI68" s="3"/>
-      <c r="CJ68" s="3"/>
-      <c r="CK68" s="3"/>
-      <c r="CL68" s="3"/>
     </row>
-    <row r="69" spans="1:90" ht="15.75" customHeight="1">
+    <row r="69" spans="1:84" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -7756,14 +7654,8 @@
       <c r="CD69" s="3"/>
       <c r="CE69" s="3"/>
       <c r="CF69" s="3"/>
-      <c r="CG69" s="3"/>
-      <c r="CH69" s="3"/>
-      <c r="CI69" s="3"/>
-      <c r="CJ69" s="3"/>
-      <c r="CK69" s="3"/>
-      <c r="CL69" s="3"/>
     </row>
-    <row r="70" spans="1:90" ht="15.75" customHeight="1">
+    <row r="70" spans="1:84" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7848,14 +7740,8 @@
       <c r="CD70" s="3"/>
       <c r="CE70" s="3"/>
       <c r="CF70" s="3"/>
-      <c r="CG70" s="3"/>
-      <c r="CH70" s="3"/>
-      <c r="CI70" s="3"/>
-      <c r="CJ70" s="3"/>
-      <c r="CK70" s="3"/>
-      <c r="CL70" s="3"/>
     </row>
-    <row r="71" spans="1:90" ht="15.75" customHeight="1">
+    <row r="71" spans="1:84" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -7940,14 +7826,8 @@
       <c r="CD71" s="3"/>
       <c r="CE71" s="3"/>
       <c r="CF71" s="3"/>
-      <c r="CG71" s="3"/>
-      <c r="CH71" s="3"/>
-      <c r="CI71" s="3"/>
-      <c r="CJ71" s="3"/>
-      <c r="CK71" s="3"/>
-      <c r="CL71" s="3"/>
     </row>
-    <row r="72" spans="1:90" ht="15.75" customHeight="1">
+    <row r="72" spans="1:84" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -8032,14 +7912,8 @@
       <c r="CD72" s="3"/>
       <c r="CE72" s="3"/>
       <c r="CF72" s="3"/>
-      <c r="CG72" s="3"/>
-      <c r="CH72" s="3"/>
-      <c r="CI72" s="3"/>
-      <c r="CJ72" s="3"/>
-      <c r="CK72" s="3"/>
-      <c r="CL72" s="3"/>
     </row>
-    <row r="73" spans="1:90" ht="15.75" customHeight="1">
+    <row r="73" spans="1:84" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -8124,14 +7998,8 @@
       <c r="CD73" s="3"/>
       <c r="CE73" s="3"/>
       <c r="CF73" s="3"/>
-      <c r="CG73" s="3"/>
-      <c r="CH73" s="3"/>
-      <c r="CI73" s="3"/>
-      <c r="CJ73" s="3"/>
-      <c r="CK73" s="3"/>
-      <c r="CL73" s="3"/>
     </row>
-    <row r="74" spans="1:90" ht="15.75" customHeight="1">
+    <row r="74" spans="1:84" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8216,14 +8084,8 @@
       <c r="CD74" s="3"/>
       <c r="CE74" s="3"/>
       <c r="CF74" s="3"/>
-      <c r="CG74" s="3"/>
-      <c r="CH74" s="3"/>
-      <c r="CI74" s="3"/>
-      <c r="CJ74" s="3"/>
-      <c r="CK74" s="3"/>
-      <c r="CL74" s="3"/>
     </row>
-    <row r="75" spans="1:90" ht="15.75" customHeight="1">
+    <row r="75" spans="1:84" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8308,14 +8170,8 @@
       <c r="CD75" s="3"/>
       <c r="CE75" s="3"/>
       <c r="CF75" s="3"/>
-      <c r="CG75" s="3"/>
-      <c r="CH75" s="3"/>
-      <c r="CI75" s="3"/>
-      <c r="CJ75" s="3"/>
-      <c r="CK75" s="3"/>
-      <c r="CL75" s="3"/>
     </row>
-    <row r="76" spans="1:90" ht="15.75" customHeight="1">
+    <row r="76" spans="1:84" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8400,14 +8256,8 @@
       <c r="CD76" s="3"/>
       <c r="CE76" s="3"/>
       <c r="CF76" s="3"/>
-      <c r="CG76" s="3"/>
-      <c r="CH76" s="3"/>
-      <c r="CI76" s="3"/>
-      <c r="CJ76" s="3"/>
-      <c r="CK76" s="3"/>
-      <c r="CL76" s="3"/>
     </row>
-    <row r="77" spans="1:90" ht="15.75" customHeight="1">
+    <row r="77" spans="1:84" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -8492,14 +8342,8 @@
       <c r="CD77" s="3"/>
       <c r="CE77" s="3"/>
       <c r="CF77" s="3"/>
-      <c r="CG77" s="3"/>
-      <c r="CH77" s="3"/>
-      <c r="CI77" s="3"/>
-      <c r="CJ77" s="3"/>
-      <c r="CK77" s="3"/>
-      <c r="CL77" s="3"/>
     </row>
-    <row r="78" spans="1:90" ht="15.75" customHeight="1">
+    <row r="78" spans="1:84" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8584,14 +8428,8 @@
       <c r="CD78" s="3"/>
       <c r="CE78" s="3"/>
       <c r="CF78" s="3"/>
-      <c r="CG78" s="3"/>
-      <c r="CH78" s="3"/>
-      <c r="CI78" s="3"/>
-      <c r="CJ78" s="3"/>
-      <c r="CK78" s="3"/>
-      <c r="CL78" s="3"/>
     </row>
-    <row r="79" spans="1:90" ht="15.75" customHeight="1">
+    <row r="79" spans="1:84" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8676,14 +8514,8 @@
       <c r="CD79" s="3"/>
       <c r="CE79" s="3"/>
       <c r="CF79" s="3"/>
-      <c r="CG79" s="3"/>
-      <c r="CH79" s="3"/>
-      <c r="CI79" s="3"/>
-      <c r="CJ79" s="3"/>
-      <c r="CK79" s="3"/>
-      <c r="CL79" s="3"/>
     </row>
-    <row r="80" spans="1:90" ht="15.75" customHeight="1">
+    <row r="80" spans="1:84" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -8768,14 +8600,8 @@
       <c r="CD80" s="3"/>
       <c r="CE80" s="3"/>
       <c r="CF80" s="3"/>
-      <c r="CG80" s="3"/>
-      <c r="CH80" s="3"/>
-      <c r="CI80" s="3"/>
-      <c r="CJ80" s="3"/>
-      <c r="CK80" s="3"/>
-      <c r="CL80" s="3"/>
     </row>
-    <row r="81" spans="1:90" ht="15.75" customHeight="1">
+    <row r="81" spans="1:84" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -8860,14 +8686,8 @@
       <c r="CD81" s="3"/>
       <c r="CE81" s="3"/>
       <c r="CF81" s="3"/>
-      <c r="CG81" s="3"/>
-      <c r="CH81" s="3"/>
-      <c r="CI81" s="3"/>
-      <c r="CJ81" s="3"/>
-      <c r="CK81" s="3"/>
-      <c r="CL81" s="3"/>
     </row>
-    <row r="82" spans="1:90" ht="15.75" customHeight="1">
+    <row r="82" spans="1:84" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -8952,14 +8772,8 @@
       <c r="CD82" s="3"/>
       <c r="CE82" s="3"/>
       <c r="CF82" s="3"/>
-      <c r="CG82" s="3"/>
-      <c r="CH82" s="3"/>
-      <c r="CI82" s="3"/>
-      <c r="CJ82" s="3"/>
-      <c r="CK82" s="3"/>
-      <c r="CL82" s="3"/>
     </row>
-    <row r="83" spans="1:90" ht="15.75" customHeight="1">
+    <row r="83" spans="1:84" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9044,14 +8858,8 @@
       <c r="CD83" s="3"/>
       <c r="CE83" s="3"/>
       <c r="CF83" s="3"/>
-      <c r="CG83" s="3"/>
-      <c r="CH83" s="3"/>
-      <c r="CI83" s="3"/>
-      <c r="CJ83" s="3"/>
-      <c r="CK83" s="3"/>
-      <c r="CL83" s="3"/>
     </row>
-    <row r="84" spans="1:90" ht="15.75" customHeight="1">
+    <row r="84" spans="1:84" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9136,14 +8944,8 @@
       <c r="CD84" s="3"/>
       <c r="CE84" s="3"/>
       <c r="CF84" s="3"/>
-      <c r="CG84" s="3"/>
-      <c r="CH84" s="3"/>
-      <c r="CI84" s="3"/>
-      <c r="CJ84" s="3"/>
-      <c r="CK84" s="3"/>
-      <c r="CL84" s="3"/>
     </row>
-    <row r="85" spans="1:90" ht="15.75" customHeight="1">
+    <row r="85" spans="1:84" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9228,14 +9030,8 @@
       <c r="CD85" s="3"/>
       <c r="CE85" s="3"/>
       <c r="CF85" s="3"/>
-      <c r="CG85" s="3"/>
-      <c r="CH85" s="3"/>
-      <c r="CI85" s="3"/>
-      <c r="CJ85" s="3"/>
-      <c r="CK85" s="3"/>
-      <c r="CL85" s="3"/>
     </row>
-    <row r="86" spans="1:90" ht="15.75" customHeight="1">
+    <row r="86" spans="1:84" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9320,14 +9116,8 @@
       <c r="CD86" s="3"/>
       <c r="CE86" s="3"/>
       <c r="CF86" s="3"/>
-      <c r="CG86" s="3"/>
-      <c r="CH86" s="3"/>
-      <c r="CI86" s="3"/>
-      <c r="CJ86" s="3"/>
-      <c r="CK86" s="3"/>
-      <c r="CL86" s="3"/>
     </row>
-    <row r="87" spans="1:90" ht="15.75" customHeight="1">
+    <row r="87" spans="1:84" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9412,14 +9202,8 @@
       <c r="CD87" s="3"/>
       <c r="CE87" s="3"/>
       <c r="CF87" s="3"/>
-      <c r="CG87" s="3"/>
-      <c r="CH87" s="3"/>
-      <c r="CI87" s="3"/>
-      <c r="CJ87" s="3"/>
-      <c r="CK87" s="3"/>
-      <c r="CL87" s="3"/>
     </row>
-    <row r="88" spans="1:90" ht="15.75" customHeight="1">
+    <row r="88" spans="1:84" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9504,14 +9288,8 @@
       <c r="CD88" s="3"/>
       <c r="CE88" s="3"/>
       <c r="CF88" s="3"/>
-      <c r="CG88" s="3"/>
-      <c r="CH88" s="3"/>
-      <c r="CI88" s="3"/>
-      <c r="CJ88" s="3"/>
-      <c r="CK88" s="3"/>
-      <c r="CL88" s="3"/>
     </row>
-    <row r="89" spans="1:90" ht="15.75" customHeight="1">
+    <row r="89" spans="1:84" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9596,14 +9374,8 @@
       <c r="CD89" s="3"/>
       <c r="CE89" s="3"/>
       <c r="CF89" s="3"/>
-      <c r="CG89" s="3"/>
-      <c r="CH89" s="3"/>
-      <c r="CI89" s="3"/>
-      <c r="CJ89" s="3"/>
-      <c r="CK89" s="3"/>
-      <c r="CL89" s="3"/>
     </row>
-    <row r="90" spans="1:90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:84" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9688,14 +9460,8 @@
       <c r="CD90" s="3"/>
       <c r="CE90" s="3"/>
       <c r="CF90" s="3"/>
-      <c r="CG90" s="3"/>
-      <c r="CH90" s="3"/>
-      <c r="CI90" s="3"/>
-      <c r="CJ90" s="3"/>
-      <c r="CK90" s="3"/>
-      <c r="CL90" s="3"/>
     </row>
-    <row r="91" spans="1:90" ht="15.75" customHeight="1">
+    <row r="91" spans="1:84" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9780,14 +9546,8 @@
       <c r="CD91" s="3"/>
       <c r="CE91" s="3"/>
       <c r="CF91" s="3"/>
-      <c r="CG91" s="3"/>
-      <c r="CH91" s="3"/>
-      <c r="CI91" s="3"/>
-      <c r="CJ91" s="3"/>
-      <c r="CK91" s="3"/>
-      <c r="CL91" s="3"/>
     </row>
-    <row r="92" spans="1:90" ht="15.75" customHeight="1">
+    <row r="92" spans="1:84" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -9872,14 +9632,8 @@
       <c r="CD92" s="3"/>
       <c r="CE92" s="3"/>
       <c r="CF92" s="3"/>
-      <c r="CG92" s="3"/>
-      <c r="CH92" s="3"/>
-      <c r="CI92" s="3"/>
-      <c r="CJ92" s="3"/>
-      <c r="CK92" s="3"/>
-      <c r="CL92" s="3"/>
     </row>
-    <row r="93" spans="1:90" ht="15.75" customHeight="1">
+    <row r="93" spans="1:84" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -9964,37 +9718,666 @@
       <c r="CD93" s="3"/>
       <c r="CE93" s="3"/>
       <c r="CF93" s="3"/>
-      <c r="CG93" s="3"/>
-      <c r="CH93" s="3"/>
-      <c r="CI93" s="3"/>
-      <c r="CJ93" s="3"/>
-      <c r="CK93" s="3"/>
-      <c r="CL93" s="3"/>
+    </row>
+    <row r="94" spans="1:84" ht="15.75" customHeight="1">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="3"/>
+      <c r="AG94" s="3"/>
+      <c r="AH94" s="3"/>
+      <c r="AI94" s="3"/>
+      <c r="AJ94" s="3"/>
+      <c r="AK94" s="3"/>
+      <c r="AL94" s="3"/>
+      <c r="AM94" s="3"/>
+      <c r="AN94" s="3"/>
+      <c r="AO94" s="3"/>
+      <c r="AP94" s="3"/>
+      <c r="AQ94" s="3"/>
+      <c r="AR94" s="3"/>
+      <c r="AS94" s="3"/>
+      <c r="AT94" s="3"/>
+      <c r="AU94" s="3"/>
+      <c r="AV94" s="3"/>
+      <c r="AW94" s="3"/>
+      <c r="AX94" s="3"/>
+      <c r="AY94" s="3"/>
+      <c r="AZ94" s="3"/>
+      <c r="BA94" s="3"/>
+      <c r="BB94" s="3"/>
+      <c r="BC94" s="3"/>
+      <c r="BD94" s="3"/>
+      <c r="BE94" s="3"/>
+      <c r="BF94" s="3"/>
+      <c r="BG94" s="3"/>
+      <c r="BH94" s="3"/>
+      <c r="BI94" s="3"/>
+      <c r="BJ94" s="3"/>
+      <c r="BK94" s="3"/>
+      <c r="BL94" s="3"/>
+      <c r="BM94" s="3"/>
+      <c r="BN94" s="3"/>
+      <c r="BO94" s="3"/>
+      <c r="BP94" s="3"/>
+      <c r="BQ94" s="3"/>
+      <c r="BR94" s="3"/>
+      <c r="BS94" s="3"/>
+      <c r="BT94" s="3"/>
+      <c r="BU94" s="3"/>
+      <c r="BV94" s="3"/>
+      <c r="BW94" s="3"/>
+      <c r="BX94" s="3"/>
+      <c r="BY94" s="3"/>
+      <c r="BZ94" s="3"/>
+      <c r="CA94" s="3"/>
+      <c r="CB94" s="3"/>
+      <c r="CC94" s="3"/>
+      <c r="CD94" s="3"/>
+      <c r="CE94" s="3"/>
+      <c r="CF94" s="3"/>
+    </row>
+    <row r="95" spans="1:84" ht="15.75" customHeight="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+      <c r="AH95" s="3"/>
+      <c r="AI95" s="3"/>
+      <c r="AJ95" s="3"/>
+      <c r="AK95" s="3"/>
+      <c r="AL95" s="3"/>
+      <c r="AM95" s="3"/>
+      <c r="AN95" s="3"/>
+      <c r="AO95" s="3"/>
+      <c r="AP95" s="3"/>
+      <c r="AQ95" s="3"/>
+      <c r="AR95" s="3"/>
+      <c r="AS95" s="3"/>
+      <c r="AT95" s="3"/>
+      <c r="AU95" s="3"/>
+      <c r="AV95" s="3"/>
+      <c r="AW95" s="3"/>
+      <c r="AX95" s="3"/>
+      <c r="AY95" s="3"/>
+      <c r="AZ95" s="3"/>
+      <c r="BA95" s="3"/>
+      <c r="BB95" s="3"/>
+      <c r="BC95" s="3"/>
+      <c r="BD95" s="3"/>
+      <c r="BE95" s="3"/>
+      <c r="BF95" s="3"/>
+      <c r="BG95" s="3"/>
+      <c r="BH95" s="3"/>
+      <c r="BI95" s="3"/>
+      <c r="BJ95" s="3"/>
+      <c r="BK95" s="3"/>
+      <c r="BL95" s="3"/>
+      <c r="BM95" s="3"/>
+      <c r="BN95" s="3"/>
+      <c r="BO95" s="3"/>
+      <c r="BP95" s="3"/>
+      <c r="BQ95" s="3"/>
+      <c r="BR95" s="3"/>
+      <c r="BS95" s="3"/>
+      <c r="BT95" s="3"/>
+      <c r="BU95" s="3"/>
+      <c r="BV95" s="3"/>
+      <c r="BW95" s="3"/>
+      <c r="BX95" s="3"/>
+      <c r="BY95" s="3"/>
+      <c r="BZ95" s="3"/>
+      <c r="CA95" s="3"/>
+      <c r="CB95" s="3"/>
+      <c r="CC95" s="3"/>
+      <c r="CD95" s="3"/>
+      <c r="CE95" s="3"/>
+      <c r="CF95" s="3"/>
+    </row>
+    <row r="96" spans="1:84" ht="15.75" customHeight="1">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+      <c r="AG96" s="3"/>
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+      <c r="AJ96" s="3"/>
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+      <c r="AQ96" s="3"/>
+      <c r="AR96" s="3"/>
+      <c r="AS96" s="3"/>
+      <c r="AT96" s="3"/>
+      <c r="AU96" s="3"/>
+      <c r="AV96" s="3"/>
+      <c r="AW96" s="3"/>
+      <c r="AX96" s="3"/>
+      <c r="AY96" s="3"/>
+      <c r="AZ96" s="3"/>
+      <c r="BA96" s="3"/>
+      <c r="BB96" s="3"/>
+      <c r="BC96" s="3"/>
+      <c r="BD96" s="3"/>
+      <c r="BE96" s="3"/>
+      <c r="BF96" s="3"/>
+      <c r="BG96" s="3"/>
+      <c r="BH96" s="3"/>
+      <c r="BI96" s="3"/>
+      <c r="BJ96" s="3"/>
+      <c r="BK96" s="3"/>
+      <c r="BL96" s="3"/>
+      <c r="BM96" s="3"/>
+      <c r="BN96" s="3"/>
+      <c r="BO96" s="3"/>
+      <c r="BP96" s="3"/>
+      <c r="BQ96" s="3"/>
+      <c r="BR96" s="3"/>
+      <c r="BS96" s="3"/>
+      <c r="BT96" s="3"/>
+      <c r="BU96" s="3"/>
+      <c r="BV96" s="3"/>
+      <c r="BW96" s="3"/>
+      <c r="BX96" s="3"/>
+      <c r="BY96" s="3"/>
+      <c r="BZ96" s="3"/>
+      <c r="CA96" s="3"/>
+      <c r="CB96" s="3"/>
+      <c r="CC96" s="3"/>
+      <c r="CD96" s="3"/>
+      <c r="CE96" s="3"/>
+      <c r="CF96" s="3"/>
+    </row>
+    <row r="97" spans="1:84" ht="15.75" customHeight="1">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+      <c r="AG97" s="3"/>
+      <c r="AH97" s="3"/>
+      <c r="AI97" s="3"/>
+      <c r="AJ97" s="3"/>
+      <c r="AK97" s="3"/>
+      <c r="AL97" s="3"/>
+      <c r="AM97" s="3"/>
+      <c r="AN97" s="3"/>
+      <c r="AO97" s="3"/>
+      <c r="AP97" s="3"/>
+      <c r="AQ97" s="3"/>
+      <c r="AR97" s="3"/>
+      <c r="AS97" s="3"/>
+      <c r="AT97" s="3"/>
+      <c r="AU97" s="3"/>
+      <c r="AV97" s="3"/>
+      <c r="AW97" s="3"/>
+      <c r="AX97" s="3"/>
+      <c r="AY97" s="3"/>
+      <c r="AZ97" s="3"/>
+      <c r="BA97" s="3"/>
+      <c r="BB97" s="3"/>
+      <c r="BC97" s="3"/>
+      <c r="BD97" s="3"/>
+      <c r="BE97" s="3"/>
+      <c r="BF97" s="3"/>
+      <c r="BG97" s="3"/>
+      <c r="BH97" s="3"/>
+      <c r="BI97" s="3"/>
+      <c r="BJ97" s="3"/>
+      <c r="BK97" s="3"/>
+      <c r="BL97" s="3"/>
+      <c r="BM97" s="3"/>
+      <c r="BN97" s="3"/>
+      <c r="BO97" s="3"/>
+      <c r="BP97" s="3"/>
+      <c r="BQ97" s="3"/>
+      <c r="BR97" s="3"/>
+      <c r="BS97" s="3"/>
+      <c r="BT97" s="3"/>
+      <c r="BU97" s="3"/>
+      <c r="BV97" s="3"/>
+      <c r="BW97" s="3"/>
+      <c r="BX97" s="3"/>
+      <c r="BY97" s="3"/>
+      <c r="BZ97" s="3"/>
+      <c r="CA97" s="3"/>
+      <c r="CB97" s="3"/>
+      <c r="CC97" s="3"/>
+      <c r="CD97" s="3"/>
+      <c r="CE97" s="3"/>
+      <c r="CF97" s="3"/>
+    </row>
+    <row r="98" spans="1:84" ht="15.75" customHeight="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
+      <c r="AD98" s="3"/>
+      <c r="AE98" s="3"/>
+      <c r="AF98" s="3"/>
+      <c r="AG98" s="3"/>
+      <c r="AH98" s="3"/>
+      <c r="AI98" s="3"/>
+      <c r="AJ98" s="3"/>
+      <c r="AK98" s="3"/>
+      <c r="AL98" s="3"/>
+      <c r="AM98" s="3"/>
+      <c r="AN98" s="3"/>
+      <c r="AO98" s="3"/>
+      <c r="AP98" s="3"/>
+      <c r="AQ98" s="3"/>
+      <c r="AR98" s="3"/>
+      <c r="AS98" s="3"/>
+      <c r="AT98" s="3"/>
+      <c r="AU98" s="3"/>
+      <c r="AV98" s="3"/>
+      <c r="AW98" s="3"/>
+      <c r="AX98" s="3"/>
+      <c r="AY98" s="3"/>
+      <c r="AZ98" s="3"/>
+      <c r="BA98" s="3"/>
+      <c r="BB98" s="3"/>
+      <c r="BC98" s="3"/>
+      <c r="BD98" s="3"/>
+      <c r="BE98" s="3"/>
+      <c r="BF98" s="3"/>
+      <c r="BG98" s="3"/>
+      <c r="BH98" s="3"/>
+      <c r="BI98" s="3"/>
+      <c r="BJ98" s="3"/>
+      <c r="BK98" s="3"/>
+      <c r="BL98" s="3"/>
+      <c r="BM98" s="3"/>
+      <c r="BN98" s="3"/>
+      <c r="BO98" s="3"/>
+      <c r="BP98" s="3"/>
+      <c r="BQ98" s="3"/>
+      <c r="BR98" s="3"/>
+      <c r="BS98" s="3"/>
+      <c r="BT98" s="3"/>
+      <c r="BU98" s="3"/>
+      <c r="BV98" s="3"/>
+      <c r="BW98" s="3"/>
+      <c r="BX98" s="3"/>
+      <c r="BY98" s="3"/>
+      <c r="BZ98" s="3"/>
+      <c r="CA98" s="3"/>
+      <c r="CB98" s="3"/>
+      <c r="CC98" s="3"/>
+      <c r="CD98" s="3"/>
+      <c r="CE98" s="3"/>
+      <c r="CF98" s="3"/>
+    </row>
+    <row r="99" spans="1:84" ht="15.75" customHeight="1">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3"/>
+      <c r="AF99" s="3"/>
+      <c r="AG99" s="3"/>
+      <c r="AH99" s="3"/>
+      <c r="AI99" s="3"/>
+      <c r="AJ99" s="3"/>
+      <c r="AK99" s="3"/>
+      <c r="AL99" s="3"/>
+      <c r="AM99" s="3"/>
+      <c r="AN99" s="3"/>
+      <c r="AO99" s="3"/>
+      <c r="AP99" s="3"/>
+      <c r="AQ99" s="3"/>
+      <c r="AR99" s="3"/>
+      <c r="AS99" s="3"/>
+      <c r="AT99" s="3"/>
+      <c r="AU99" s="3"/>
+      <c r="AV99" s="3"/>
+      <c r="AW99" s="3"/>
+      <c r="AX99" s="3"/>
+      <c r="AY99" s="3"/>
+      <c r="AZ99" s="3"/>
+      <c r="BA99" s="3"/>
+      <c r="BB99" s="3"/>
+      <c r="BC99" s="3"/>
+      <c r="BD99" s="3"/>
+      <c r="BE99" s="3"/>
+      <c r="BF99" s="3"/>
+      <c r="BG99" s="3"/>
+      <c r="BH99" s="3"/>
+      <c r="BI99" s="3"/>
+      <c r="BJ99" s="3"/>
+      <c r="BK99" s="3"/>
+      <c r="BL99" s="3"/>
+      <c r="BM99" s="3"/>
+      <c r="BN99" s="3"/>
+      <c r="BO99" s="3"/>
+      <c r="BP99" s="3"/>
+      <c r="BQ99" s="3"/>
+      <c r="BR99" s="3"/>
+      <c r="BS99" s="3"/>
+      <c r="BT99" s="3"/>
+      <c r="BU99" s="3"/>
+      <c r="BV99" s="3"/>
+      <c r="BW99" s="3"/>
+      <c r="BX99" s="3"/>
+      <c r="BY99" s="3"/>
+      <c r="BZ99" s="3"/>
+      <c r="CA99" s="3"/>
+      <c r="CB99" s="3"/>
+      <c r="CC99" s="3"/>
+      <c r="CD99" s="3"/>
+      <c r="CE99" s="3"/>
+      <c r="CF99" s="3"/>
+    </row>
+    <row r="100" spans="1:84" ht="15.75" customHeight="1">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="3"/>
+      <c r="AG100" s="3"/>
+      <c r="AH100" s="3"/>
+      <c r="AI100" s="3"/>
+      <c r="AJ100" s="3"/>
+      <c r="AK100" s="3"/>
+      <c r="AL100" s="3"/>
+      <c r="AM100" s="3"/>
+      <c r="AN100" s="3"/>
+      <c r="AO100" s="3"/>
+      <c r="AP100" s="3"/>
+      <c r="AQ100" s="3"/>
+      <c r="AR100" s="3"/>
+      <c r="AS100" s="3"/>
+      <c r="AT100" s="3"/>
+      <c r="AU100" s="3"/>
+      <c r="AV100" s="3"/>
+      <c r="AW100" s="3"/>
+      <c r="AX100" s="3"/>
+      <c r="AY100" s="3"/>
+      <c r="AZ100" s="3"/>
+      <c r="BA100" s="3"/>
+      <c r="BB100" s="3"/>
+      <c r="BC100" s="3"/>
+      <c r="BD100" s="3"/>
+      <c r="BE100" s="3"/>
+      <c r="BF100" s="3"/>
+      <c r="BG100" s="3"/>
+      <c r="BH100" s="3"/>
+      <c r="BI100" s="3"/>
+      <c r="BJ100" s="3"/>
+      <c r="BK100" s="3"/>
+      <c r="BL100" s="3"/>
+      <c r="BM100" s="3"/>
+      <c r="BN100" s="3"/>
+      <c r="BO100" s="3"/>
+      <c r="BP100" s="3"/>
+      <c r="BQ100" s="3"/>
+      <c r="BR100" s="3"/>
+      <c r="BS100" s="3"/>
+      <c r="BT100" s="3"/>
+      <c r="BU100" s="3"/>
+      <c r="BV100" s="3"/>
+      <c r="BW100" s="3"/>
+      <c r="BX100" s="3"/>
+      <c r="BY100" s="3"/>
+      <c r="BZ100" s="3"/>
+      <c r="CA100" s="3"/>
+      <c r="CB100" s="3"/>
+      <c r="CC100" s="3"/>
+      <c r="CD100" s="3"/>
+      <c r="CE100" s="3"/>
+      <c r="CF100" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="S13:BC13"/>
-    <mergeCell ref="BD13:CO13"/>
-    <mergeCell ref="I11:R11"/>
+  <mergeCells count="103">
+    <mergeCell ref="CJ20:CO20"/>
+    <mergeCell ref="CJ21:CO21"/>
+    <mergeCell ref="CJ22:CO22"/>
+    <mergeCell ref="CP21:CS21"/>
+    <mergeCell ref="CP22:CS22"/>
+    <mergeCell ref="CJ6:CO6"/>
+    <mergeCell ref="CJ7:CO7"/>
+    <mergeCell ref="CJ8:CO8"/>
+    <mergeCell ref="CJ9:CO9"/>
+    <mergeCell ref="CJ10:CO10"/>
+    <mergeCell ref="CJ11:CO11"/>
+    <mergeCell ref="CJ12:CO12"/>
+    <mergeCell ref="CJ13:CO13"/>
+    <mergeCell ref="CJ14:CO14"/>
+    <mergeCell ref="CJ15:CO15"/>
+    <mergeCell ref="CJ16:CO16"/>
+    <mergeCell ref="CJ17:CO17"/>
+    <mergeCell ref="CJ18:CO18"/>
+    <mergeCell ref="CJ19:CO19"/>
+    <mergeCell ref="CP16:CS16"/>
+    <mergeCell ref="CP17:CS17"/>
+    <mergeCell ref="CP18:CS18"/>
+    <mergeCell ref="CP19:CS19"/>
+    <mergeCell ref="CP20:CS20"/>
+    <mergeCell ref="CP11:CS11"/>
+    <mergeCell ref="CP12:CS12"/>
+    <mergeCell ref="CP13:CS13"/>
+    <mergeCell ref="CP14:CS14"/>
+    <mergeCell ref="CP15:CS15"/>
+    <mergeCell ref="CP6:CS6"/>
+    <mergeCell ref="CP7:CS7"/>
+    <mergeCell ref="CP8:CS8"/>
+    <mergeCell ref="CP9:CS9"/>
+    <mergeCell ref="CP10:CS10"/>
+    <mergeCell ref="BD6:CI6"/>
+    <mergeCell ref="BD7:CI7"/>
+    <mergeCell ref="BD8:CI8"/>
+    <mergeCell ref="BD9:CI9"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="S20:BC20"/>
+    <mergeCell ref="BD20:CI20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="S18:BC18"/>
+    <mergeCell ref="BD18:CI18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="S19:BC19"/>
+    <mergeCell ref="BD19:CI19"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="S14:BC14"/>
-    <mergeCell ref="BD14:CO14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="S15:BC15"/>
-    <mergeCell ref="BD15:CO15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="S11:BC11"/>
-    <mergeCell ref="BD11:CO11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="S12:BC12"/>
-    <mergeCell ref="BD12:CO12"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y4"/>
-    <mergeCell ref="S6:BC6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="BD14:CI14"/>
+    <mergeCell ref="BD10:CI10"/>
+    <mergeCell ref="S10:BC10"/>
+    <mergeCell ref="S7:BC7"/>
+    <mergeCell ref="S8:BC8"/>
+    <mergeCell ref="S9:BC9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="Z1:AI1"/>
     <mergeCell ref="Z2:AI4"/>
@@ -10011,16 +10394,38 @@
     <mergeCell ref="BG1:BS1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="BD10:CO10"/>
-    <mergeCell ref="S10:BC10"/>
-    <mergeCell ref="S7:BC7"/>
-    <mergeCell ref="S8:BC8"/>
-    <mergeCell ref="S9:BC9"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y4"/>
+    <mergeCell ref="S6:BC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="BD6:CO6"/>
-    <mergeCell ref="BD7:CO7"/>
-    <mergeCell ref="BD8:CO8"/>
-    <mergeCell ref="BD9:CO9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="S22:BC22"/>
+    <mergeCell ref="BD22:CI22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="S11:BC11"/>
+    <mergeCell ref="BD11:CI11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="S12:BC12"/>
+    <mergeCell ref="BD12:CI12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="S15:BC15"/>
+    <mergeCell ref="BD15:CI15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="S16:BC16"/>
+    <mergeCell ref="BD16:CI16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="S13:BC13"/>
+    <mergeCell ref="BD13:CI13"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="S21:BC21"/>
+    <mergeCell ref="BD21:CI21"/>
+    <mergeCell ref="S17:BC17"/>
+    <mergeCell ref="BD17:CI17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/43 テスト計画/結合テスト項目.xlsx
+++ b/43 テスト計画/結合テスト項目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -386,6 +386,51 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>2013/11/28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N2T 項目内にCR/LF、TABがある場合の取込。　依頼内容を回答のIF項目に設定する場合があるのか</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -825,6 +870,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,12 +946,183 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -848,246 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1396,7 +1441,7 @@
   <dimension ref="A1:CS100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15:BC15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.85546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1405,362 +1450,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="40" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="40" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="40" t="s">
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="41"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="40" t="s">
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="41"/>
-      <c r="BO1" s="41"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="42"/>
-      <c r="BT1" s="40" t="s">
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="41"/>
-      <c r="BY1" s="41"/>
-      <c r="BZ1" s="41"/>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="40" t="s">
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
+      <c r="BX1" s="59"/>
+      <c r="BY1" s="59"/>
+      <c r="BZ1" s="59"/>
+      <c r="CA1" s="60"/>
+      <c r="CB1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="68"/>
-      <c r="CE1" s="69"/>
+      <c r="CC1" s="70"/>
+      <c r="CD1" s="70"/>
+      <c r="CE1" s="71"/>
     </row>
     <row r="2" spans="1:97" ht="15.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="81"/>
-      <c r="BI2" s="81"/>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="81"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="81"/>
-      <c r="BS2" s="82"/>
-      <c r="BT2" s="80"/>
-      <c r="BU2" s="81"/>
-      <c r="BV2" s="81"/>
-      <c r="BW2" s="82"/>
-      <c r="BX2" s="80"/>
-      <c r="BY2" s="81"/>
-      <c r="BZ2" s="81"/>
-      <c r="CA2" s="82"/>
-      <c r="CB2" s="79" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="62"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="63"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="83"/>
+      <c r="BR2" s="83"/>
+      <c r="BS2" s="84"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="83"/>
+      <c r="BV2" s="83"/>
+      <c r="BW2" s="84"/>
+      <c r="BX2" s="82"/>
+      <c r="BY2" s="83"/>
+      <c r="BZ2" s="83"/>
+      <c r="CA2" s="84"/>
+      <c r="CB2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="72"/>
+      <c r="CC2" s="73"/>
+      <c r="CD2" s="73"/>
+      <c r="CE2" s="74"/>
     </row>
     <row r="3" spans="1:97" ht="15.75" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="64"/>
-      <c r="BG3" s="83"/>
-      <c r="BH3" s="84"/>
-      <c r="BI3" s="84"/>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="84"/>
-      <c r="BN3" s="84"/>
-      <c r="BO3" s="84"/>
-      <c r="BP3" s="84"/>
-      <c r="BQ3" s="84"/>
-      <c r="BR3" s="84"/>
-      <c r="BS3" s="85"/>
-      <c r="BT3" s="83"/>
-      <c r="BU3" s="84"/>
-      <c r="BV3" s="84"/>
-      <c r="BW3" s="85"/>
-      <c r="BX3" s="83"/>
-      <c r="BY3" s="84"/>
-      <c r="BZ3" s="84"/>
-      <c r="CA3" s="85"/>
-      <c r="CB3" s="73"/>
-      <c r="CC3" s="74"/>
-      <c r="CD3" s="74"/>
-      <c r="CE3" s="75"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="85"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="86"/>
+      <c r="BN3" s="86"/>
+      <c r="BO3" s="86"/>
+      <c r="BP3" s="86"/>
+      <c r="BQ3" s="86"/>
+      <c r="BR3" s="86"/>
+      <c r="BS3" s="87"/>
+      <c r="BT3" s="85"/>
+      <c r="BU3" s="86"/>
+      <c r="BV3" s="86"/>
+      <c r="BW3" s="87"/>
+      <c r="BX3" s="85"/>
+      <c r="BY3" s="86"/>
+      <c r="BZ3" s="86"/>
+      <c r="CA3" s="87"/>
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="76"/>
+      <c r="CD3" s="76"/>
+      <c r="CE3" s="77"/>
     </row>
     <row r="4" spans="1:97" ht="15.75" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="87"/>
-      <c r="BM4" s="87"/>
-      <c r="BN4" s="87"/>
-      <c r="BO4" s="87"/>
-      <c r="BP4" s="87"/>
-      <c r="BQ4" s="87"/>
-      <c r="BR4" s="87"/>
-      <c r="BS4" s="88"/>
-      <c r="BT4" s="86"/>
-      <c r="BU4" s="87"/>
-      <c r="BV4" s="87"/>
-      <c r="BW4" s="88"/>
-      <c r="BX4" s="86"/>
-      <c r="BY4" s="87"/>
-      <c r="BZ4" s="87"/>
-      <c r="CA4" s="88"/>
-      <c r="CB4" s="76"/>
-      <c r="CC4" s="77"/>
-      <c r="CD4" s="77"/>
-      <c r="CE4" s="78"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="67"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="89"/>
+      <c r="BN4" s="89"/>
+      <c r="BO4" s="89"/>
+      <c r="BP4" s="89"/>
+      <c r="BQ4" s="89"/>
+      <c r="BR4" s="89"/>
+      <c r="BS4" s="90"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="89"/>
+      <c r="BV4" s="89"/>
+      <c r="BW4" s="90"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="89"/>
+      <c r="BZ4" s="89"/>
+      <c r="CA4" s="90"/>
+      <c r="CB4" s="78"/>
+      <c r="CC4" s="79"/>
+      <c r="CD4" s="79"/>
+      <c r="CE4" s="80"/>
     </row>
     <row r="5" spans="1:97" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
@@ -1849,123 +1894,123 @@
       <c r="CF5" s="3"/>
     </row>
     <row r="6" spans="1:97" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="52" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="52" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="54"/>
-      <c r="BD6" s="52" t="s">
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="53"/>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="53"/>
-      <c r="CB6" s="53"/>
-      <c r="CC6" s="53"/>
-      <c r="CD6" s="53"/>
-      <c r="CE6" s="53"/>
-      <c r="CF6" s="53"/>
-      <c r="CG6" s="53"/>
-      <c r="CH6" s="53"/>
-      <c r="CI6" s="54"/>
-      <c r="CJ6" s="52" t="s">
+      <c r="BE6" s="35"/>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="35"/>
+      <c r="BH6" s="35"/>
+      <c r="BI6" s="35"/>
+      <c r="BJ6" s="35"/>
+      <c r="BK6" s="35"/>
+      <c r="BL6" s="35"/>
+      <c r="BM6" s="35"/>
+      <c r="BN6" s="35"/>
+      <c r="BO6" s="35"/>
+      <c r="BP6" s="35"/>
+      <c r="BQ6" s="35"/>
+      <c r="BR6" s="35"/>
+      <c r="BS6" s="35"/>
+      <c r="BT6" s="35"/>
+      <c r="BU6" s="35"/>
+      <c r="BV6" s="35"/>
+      <c r="BW6" s="35"/>
+      <c r="BX6" s="35"/>
+      <c r="BY6" s="35"/>
+      <c r="BZ6" s="35"/>
+      <c r="CA6" s="35"/>
+      <c r="CB6" s="35"/>
+      <c r="CC6" s="35"/>
+      <c r="CD6" s="35"/>
+      <c r="CE6" s="35"/>
+      <c r="CF6" s="35"/>
+      <c r="CG6" s="35"/>
+      <c r="CH6" s="35"/>
+      <c r="CI6" s="36"/>
+      <c r="CJ6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="CK6" s="53"/>
-      <c r="CL6" s="53"/>
-      <c r="CM6" s="53"/>
-      <c r="CN6" s="53"/>
-      <c r="CO6" s="54"/>
-      <c r="CP6" s="52" t="s">
+      <c r="CK6" s="35"/>
+      <c r="CL6" s="35"/>
+      <c r="CM6" s="35"/>
+      <c r="CN6" s="35"/>
+      <c r="CO6" s="36"/>
+      <c r="CP6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="CQ6" s="53"/>
-      <c r="CR6" s="53"/>
-      <c r="CS6" s="54"/>
+      <c r="CQ6" s="35"/>
+      <c r="CR6" s="35"/>
+      <c r="CS6" s="36"/>
     </row>
     <row r="7" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A7" s="55">
+      <c r="A7" s="100">
         <v>1</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1984,93 +2029,93 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="95" t="s">
+      <c r="S7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="96"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="96"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="96"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="96"/>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96"/>
-      <c r="AZ7" s="96"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="97"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="99"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="99"/>
-      <c r="BI7" s="99"/>
-      <c r="BJ7" s="99"/>
-      <c r="BK7" s="99"/>
-      <c r="BL7" s="99"/>
-      <c r="BM7" s="99"/>
-      <c r="BN7" s="99"/>
-      <c r="BO7" s="99"/>
-      <c r="BP7" s="99"/>
-      <c r="BQ7" s="99"/>
-      <c r="BR7" s="99"/>
-      <c r="BS7" s="99"/>
-      <c r="BT7" s="99"/>
-      <c r="BU7" s="99"/>
-      <c r="BV7" s="99"/>
-      <c r="BW7" s="99"/>
-      <c r="BX7" s="99"/>
-      <c r="BY7" s="99"/>
-      <c r="BZ7" s="99"/>
-      <c r="CA7" s="99"/>
-      <c r="CB7" s="99"/>
-      <c r="CC7" s="99"/>
-      <c r="CD7" s="99"/>
-      <c r="CE7" s="99"/>
-      <c r="CF7" s="99"/>
-      <c r="CG7" s="99"/>
-      <c r="CH7" s="99"/>
-      <c r="CI7" s="100"/>
-      <c r="CJ7" s="98"/>
-      <c r="CK7" s="99"/>
-      <c r="CL7" s="99"/>
-      <c r="CM7" s="99"/>
-      <c r="CN7" s="99"/>
-      <c r="CO7" s="100"/>
-      <c r="CP7" s="98"/>
-      <c r="CQ7" s="99"/>
-      <c r="CR7" s="99"/>
-      <c r="CS7" s="100"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="54"/>
+      <c r="AX7" s="54"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="54"/>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="55"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="38"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="38"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="38"/>
+      <c r="BO7" s="38"/>
+      <c r="BP7" s="38"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="38"/>
+      <c r="BS7" s="38"/>
+      <c r="BT7" s="38"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="38"/>
+      <c r="BW7" s="38"/>
+      <c r="BX7" s="38"/>
+      <c r="BY7" s="38"/>
+      <c r="BZ7" s="38"/>
+      <c r="CA7" s="38"/>
+      <c r="CB7" s="38"/>
+      <c r="CC7" s="38"/>
+      <c r="CD7" s="38"/>
+      <c r="CE7" s="38"/>
+      <c r="CF7" s="38"/>
+      <c r="CG7" s="38"/>
+      <c r="CH7" s="38"/>
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="37"/>
+      <c r="CK7" s="38"/>
+      <c r="CL7" s="38"/>
+      <c r="CM7" s="38"/>
+      <c r="CN7" s="38"/>
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="37"/>
+      <c r="CQ7" s="38"/>
+      <c r="CR7" s="38"/>
+      <c r="CS7" s="39"/>
     </row>
     <row r="8" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A8" s="24">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2089,93 +2134,93 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="28"/>
-      <c r="BD8" s="26"/>
-      <c r="BE8" s="27"/>
-      <c r="BF8" s="27"/>
-      <c r="BG8" s="27"/>
-      <c r="BH8" s="27"/>
-      <c r="BI8" s="27"/>
-      <c r="BJ8" s="27"/>
-      <c r="BK8" s="27"/>
-      <c r="BL8" s="27"/>
-      <c r="BM8" s="27"/>
-      <c r="BN8" s="27"/>
-      <c r="BO8" s="27"/>
-      <c r="BP8" s="27"/>
-      <c r="BQ8" s="27"/>
-      <c r="BR8" s="27"/>
-      <c r="BS8" s="27"/>
-      <c r="BT8" s="27"/>
-      <c r="BU8" s="27"/>
-      <c r="BV8" s="27"/>
-      <c r="BW8" s="27"/>
-      <c r="BX8" s="27"/>
-      <c r="BY8" s="27"/>
-      <c r="BZ8" s="27"/>
-      <c r="CA8" s="27"/>
-      <c r="CB8" s="27"/>
-      <c r="CC8" s="27"/>
-      <c r="CD8" s="27"/>
-      <c r="CE8" s="27"/>
-      <c r="CF8" s="27"/>
-      <c r="CG8" s="27"/>
-      <c r="CH8" s="27"/>
-      <c r="CI8" s="28"/>
-      <c r="CJ8" s="26"/>
-      <c r="CK8" s="27"/>
-      <c r="CL8" s="27"/>
-      <c r="CM8" s="27"/>
-      <c r="CN8" s="27"/>
-      <c r="CO8" s="28"/>
-      <c r="CP8" s="26"/>
-      <c r="CQ8" s="27"/>
-      <c r="CR8" s="27"/>
-      <c r="CS8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="29"/>
+      <c r="BF8" s="29"/>
+      <c r="BG8" s="29"/>
+      <c r="BH8" s="29"/>
+      <c r="BI8" s="29"/>
+      <c r="BJ8" s="29"/>
+      <c r="BK8" s="29"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="29"/>
+      <c r="BN8" s="29"/>
+      <c r="BO8" s="29"/>
+      <c r="BP8" s="29"/>
+      <c r="BQ8" s="29"/>
+      <c r="BR8" s="29"/>
+      <c r="BS8" s="29"/>
+      <c r="BT8" s="29"/>
+      <c r="BU8" s="29"/>
+      <c r="BV8" s="29"/>
+      <c r="BW8" s="29"/>
+      <c r="BX8" s="29"/>
+      <c r="BY8" s="29"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="29"/>
+      <c r="CB8" s="29"/>
+      <c r="CC8" s="29"/>
+      <c r="CD8" s="29"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="29"/>
+      <c r="CG8" s="29"/>
+      <c r="CH8" s="29"/>
+      <c r="CI8" s="30"/>
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="29"/>
+      <c r="CL8" s="29"/>
+      <c r="CM8" s="29"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="30"/>
+      <c r="CP8" s="28"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="30"/>
     </row>
     <row r="9" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A9" s="24">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2194,93 +2239,93 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27"/>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27"/>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="27"/>
-      <c r="BM9" s="27"/>
-      <c r="BN9" s="27"/>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27"/>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="27"/>
-      <c r="BW9" s="27"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="27"/>
-      <c r="BZ9" s="27"/>
-      <c r="CA9" s="27"/>
-      <c r="CB9" s="27"/>
-      <c r="CC9" s="27"/>
-      <c r="CD9" s="27"/>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27"/>
-      <c r="CI9" s="28"/>
-      <c r="CJ9" s="26"/>
-      <c r="CK9" s="27"/>
-      <c r="CL9" s="27"/>
-      <c r="CM9" s="27"/>
-      <c r="CN9" s="27"/>
-      <c r="CO9" s="28"/>
-      <c r="CP9" s="26"/>
-      <c r="CQ9" s="27"/>
-      <c r="CR9" s="27"/>
-      <c r="CS9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29"/>
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29"/>
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29"/>
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29"/>
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29"/>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29"/>
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29"/>
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="28"/>
+      <c r="CQ9" s="29"/>
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="30"/>
     </row>
     <row r="10" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A10" s="57">
+      <c r="A10" s="56">
         <v>4</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
@@ -2299,93 +2344,93 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="92" t="s">
+      <c r="S10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="93"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="93"/>
-      <c r="BB10" s="93"/>
-      <c r="BC10" s="94"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="90"/>
-      <c r="BF10" s="90"/>
-      <c r="BG10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BI10" s="90"/>
-      <c r="BJ10" s="90"/>
-      <c r="BK10" s="90"/>
-      <c r="BL10" s="90"/>
-      <c r="BM10" s="90"/>
-      <c r="BN10" s="90"/>
-      <c r="BO10" s="90"/>
-      <c r="BP10" s="90"/>
-      <c r="BQ10" s="90"/>
-      <c r="BR10" s="90"/>
-      <c r="BS10" s="90"/>
-      <c r="BT10" s="90"/>
-      <c r="BU10" s="90"/>
-      <c r="BV10" s="90"/>
-      <c r="BW10" s="90"/>
-      <c r="BX10" s="90"/>
-      <c r="BY10" s="90"/>
-      <c r="BZ10" s="90"/>
-      <c r="CA10" s="90"/>
-      <c r="CB10" s="90"/>
-      <c r="CC10" s="90"/>
-      <c r="CD10" s="90"/>
-      <c r="CE10" s="90"/>
-      <c r="CF10" s="90"/>
-      <c r="CG10" s="90"/>
-      <c r="CH10" s="90"/>
-      <c r="CI10" s="91"/>
-      <c r="CJ10" s="89"/>
-      <c r="CK10" s="90"/>
-      <c r="CL10" s="90"/>
-      <c r="CM10" s="90"/>
-      <c r="CN10" s="90"/>
-      <c r="CO10" s="91"/>
-      <c r="CP10" s="89"/>
-      <c r="CQ10" s="90"/>
-      <c r="CR10" s="90"/>
-      <c r="CS10" s="91"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="51"/>
+      <c r="BA10" s="51"/>
+      <c r="BB10" s="51"/>
+      <c r="BC10" s="52"/>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="41"/>
+      <c r="BF10" s="41"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="41"/>
+      <c r="BI10" s="41"/>
+      <c r="BJ10" s="41"/>
+      <c r="BK10" s="41"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="41"/>
+      <c r="BN10" s="41"/>
+      <c r="BO10" s="41"/>
+      <c r="BP10" s="41"/>
+      <c r="BQ10" s="41"/>
+      <c r="BR10" s="41"/>
+      <c r="BS10" s="41"/>
+      <c r="BT10" s="41"/>
+      <c r="BU10" s="41"/>
+      <c r="BV10" s="41"/>
+      <c r="BW10" s="41"/>
+      <c r="BX10" s="41"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="41"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="41"/>
+      <c r="CD10" s="41"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="42"/>
+      <c r="CJ10" s="40"/>
+      <c r="CK10" s="41"/>
+      <c r="CL10" s="41"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="40"/>
+      <c r="CQ10" s="41"/>
+      <c r="CR10" s="41"/>
+      <c r="CS10" s="42"/>
     </row>
     <row r="11" spans="1:97" ht="51.75" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="47">
         <v>5</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
@@ -2394,331 +2439,331 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="37" t="s">
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
-      <c r="AT11" s="38"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="38"/>
-      <c r="AY11" s="38"/>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="38"/>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="39"/>
-      <c r="BD11" s="26"/>
-      <c r="BE11" s="27"/>
-      <c r="BF11" s="27"/>
-      <c r="BG11" s="27"/>
-      <c r="BH11" s="27"/>
-      <c r="BI11" s="27"/>
-      <c r="BJ11" s="27"/>
-      <c r="BK11" s="27"/>
-      <c r="BL11" s="27"/>
-      <c r="BM11" s="27"/>
-      <c r="BN11" s="27"/>
-      <c r="BO11" s="27"/>
-      <c r="BP11" s="27"/>
-      <c r="BQ11" s="27"/>
-      <c r="BR11" s="27"/>
-      <c r="BS11" s="27"/>
-      <c r="BT11" s="27"/>
-      <c r="BU11" s="27"/>
-      <c r="BV11" s="27"/>
-      <c r="BW11" s="27"/>
-      <c r="BX11" s="27"/>
-      <c r="BY11" s="27"/>
-      <c r="BZ11" s="27"/>
-      <c r="CA11" s="27"/>
-      <c r="CB11" s="27"/>
-      <c r="CC11" s="27"/>
-      <c r="CD11" s="27"/>
-      <c r="CE11" s="27"/>
-      <c r="CF11" s="27"/>
-      <c r="CG11" s="27"/>
-      <c r="CH11" s="27"/>
-      <c r="CI11" s="28"/>
-      <c r="CJ11" s="26"/>
-      <c r="CK11" s="27"/>
-      <c r="CL11" s="27"/>
-      <c r="CM11" s="27"/>
-      <c r="CN11" s="27"/>
-      <c r="CO11" s="28"/>
-      <c r="CP11" s="26"/>
-      <c r="CQ11" s="27"/>
-      <c r="CR11" s="27"/>
-      <c r="CS11" s="28"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="104"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="104"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="104"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="104"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="104"/>
+      <c r="AR11" s="104"/>
+      <c r="AS11" s="104"/>
+      <c r="AT11" s="104"/>
+      <c r="AU11" s="104"/>
+      <c r="AV11" s="104"/>
+      <c r="AW11" s="104"/>
+      <c r="AX11" s="104"/>
+      <c r="AY11" s="104"/>
+      <c r="AZ11" s="104"/>
+      <c r="BA11" s="104"/>
+      <c r="BB11" s="104"/>
+      <c r="BC11" s="105"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="29"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="29"/>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="29"/>
+      <c r="BK11" s="29"/>
+      <c r="BL11" s="29"/>
+      <c r="BM11" s="29"/>
+      <c r="BN11" s="29"/>
+      <c r="BO11" s="29"/>
+      <c r="BP11" s="29"/>
+      <c r="BQ11" s="29"/>
+      <c r="BR11" s="29"/>
+      <c r="BS11" s="29"/>
+      <c r="BT11" s="29"/>
+      <c r="BU11" s="29"/>
+      <c r="BV11" s="29"/>
+      <c r="BW11" s="29"/>
+      <c r="BX11" s="29"/>
+      <c r="BY11" s="29"/>
+      <c r="BZ11" s="29"/>
+      <c r="CA11" s="29"/>
+      <c r="CB11" s="29"/>
+      <c r="CC11" s="29"/>
+      <c r="CD11" s="29"/>
+      <c r="CE11" s="29"/>
+      <c r="CF11" s="29"/>
+      <c r="CG11" s="29"/>
+      <c r="CH11" s="29"/>
+      <c r="CI11" s="30"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="29"/>
+      <c r="CL11" s="29"/>
+      <c r="CM11" s="29"/>
+      <c r="CN11" s="29"/>
+      <c r="CO11" s="30"/>
+      <c r="CP11" s="28"/>
+      <c r="CQ11" s="29"/>
+      <c r="CR11" s="29"/>
+      <c r="CS11" s="30"/>
     </row>
     <row r="12" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A12" s="101">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="106" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="107" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="108"/>
-      <c r="AJ12" s="108"/>
-      <c r="AK12" s="108"/>
-      <c r="AL12" s="108"/>
-      <c r="AM12" s="108"/>
-      <c r="AN12" s="108"/>
-      <c r="AO12" s="108"/>
-      <c r="AP12" s="108"/>
-      <c r="AQ12" s="108"/>
-      <c r="AR12" s="108"/>
-      <c r="AS12" s="108"/>
-      <c r="AT12" s="108"/>
-      <c r="AU12" s="108"/>
-      <c r="AV12" s="108"/>
-      <c r="AW12" s="108"/>
-      <c r="AX12" s="108"/>
-      <c r="AY12" s="108"/>
-      <c r="AZ12" s="108"/>
-      <c r="BA12" s="108"/>
-      <c r="BB12" s="108"/>
-      <c r="BC12" s="109"/>
-      <c r="BD12" s="107" t="s">
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="107"/>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="107"/>
+      <c r="AX12" s="107"/>
+      <c r="AY12" s="107"/>
+      <c r="AZ12" s="107"/>
+      <c r="BA12" s="107"/>
+      <c r="BB12" s="107"/>
+      <c r="BC12" s="108"/>
+      <c r="BD12" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="BE12" s="108"/>
-      <c r="BF12" s="108"/>
-      <c r="BG12" s="108"/>
-      <c r="BH12" s="108"/>
-      <c r="BI12" s="108"/>
-      <c r="BJ12" s="108"/>
-      <c r="BK12" s="108"/>
-      <c r="BL12" s="108"/>
-      <c r="BM12" s="108"/>
-      <c r="BN12" s="108"/>
-      <c r="BO12" s="108"/>
-      <c r="BP12" s="108"/>
-      <c r="BQ12" s="108"/>
-      <c r="BR12" s="108"/>
-      <c r="BS12" s="108"/>
-      <c r="BT12" s="108"/>
-      <c r="BU12" s="108"/>
-      <c r="BV12" s="108"/>
-      <c r="BW12" s="108"/>
-      <c r="BX12" s="108"/>
-      <c r="BY12" s="108"/>
-      <c r="BZ12" s="108"/>
-      <c r="CA12" s="108"/>
-      <c r="CB12" s="108"/>
-      <c r="CC12" s="108"/>
-      <c r="CD12" s="108"/>
-      <c r="CE12" s="108"/>
-      <c r="CF12" s="108"/>
-      <c r="CG12" s="108"/>
-      <c r="CH12" s="108"/>
-      <c r="CI12" s="109"/>
-      <c r="CJ12" s="111">
+      <c r="BE12" s="107"/>
+      <c r="BF12" s="107"/>
+      <c r="BG12" s="107"/>
+      <c r="BH12" s="107"/>
+      <c r="BI12" s="107"/>
+      <c r="BJ12" s="107"/>
+      <c r="BK12" s="107"/>
+      <c r="BL12" s="107"/>
+      <c r="BM12" s="107"/>
+      <c r="BN12" s="107"/>
+      <c r="BO12" s="107"/>
+      <c r="BP12" s="107"/>
+      <c r="BQ12" s="107"/>
+      <c r="BR12" s="107"/>
+      <c r="BS12" s="107"/>
+      <c r="BT12" s="107"/>
+      <c r="BU12" s="107"/>
+      <c r="BV12" s="107"/>
+      <c r="BW12" s="107"/>
+      <c r="BX12" s="107"/>
+      <c r="BY12" s="107"/>
+      <c r="BZ12" s="107"/>
+      <c r="CA12" s="107"/>
+      <c r="CB12" s="107"/>
+      <c r="CC12" s="107"/>
+      <c r="CD12" s="107"/>
+      <c r="CE12" s="107"/>
+      <c r="CF12" s="107"/>
+      <c r="CG12" s="107"/>
+      <c r="CH12" s="107"/>
+      <c r="CI12" s="108"/>
+      <c r="CJ12" s="43">
         <v>41603</v>
       </c>
-      <c r="CK12" s="102"/>
-      <c r="CL12" s="102"/>
-      <c r="CM12" s="102"/>
-      <c r="CN12" s="102"/>
-      <c r="CO12" s="110"/>
-      <c r="CP12" s="101" t="s">
+      <c r="CK12" s="44"/>
+      <c r="CL12" s="44"/>
+      <c r="CM12" s="44"/>
+      <c r="CN12" s="44"/>
+      <c r="CO12" s="45"/>
+      <c r="CP12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="CQ12" s="102"/>
-      <c r="CR12" s="102"/>
-      <c r="CS12" s="110"/>
+      <c r="CQ12" s="44"/>
+      <c r="CR12" s="44"/>
+      <c r="CS12" s="45"/>
     </row>
     <row r="13" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A13" s="101">
+      <c r="A13" s="46">
         <v>7</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="107" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="108"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="108"/>
-      <c r="AL13" s="108"/>
-      <c r="AM13" s="108"/>
-      <c r="AN13" s="108"/>
-      <c r="AO13" s="108"/>
-      <c r="AP13" s="108"/>
-      <c r="AQ13" s="108"/>
-      <c r="AR13" s="108"/>
-      <c r="AS13" s="108"/>
-      <c r="AT13" s="108"/>
-      <c r="AU13" s="108"/>
-      <c r="AV13" s="108"/>
-      <c r="AW13" s="108"/>
-      <c r="AX13" s="108"/>
-      <c r="AY13" s="108"/>
-      <c r="AZ13" s="108"/>
-      <c r="BA13" s="108"/>
-      <c r="BB13" s="108"/>
-      <c r="BC13" s="109"/>
-      <c r="BD13" s="107" t="s">
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="107"/>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="107"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="107"/>
+      <c r="AX13" s="107"/>
+      <c r="AY13" s="107"/>
+      <c r="AZ13" s="107"/>
+      <c r="BA13" s="107"/>
+      <c r="BB13" s="107"/>
+      <c r="BC13" s="108"/>
+      <c r="BD13" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="BE13" s="108"/>
-      <c r="BF13" s="108"/>
-      <c r="BG13" s="108"/>
-      <c r="BH13" s="108"/>
-      <c r="BI13" s="108"/>
-      <c r="BJ13" s="108"/>
-      <c r="BK13" s="108"/>
-      <c r="BL13" s="108"/>
-      <c r="BM13" s="108"/>
-      <c r="BN13" s="108"/>
-      <c r="BO13" s="108"/>
-      <c r="BP13" s="108"/>
-      <c r="BQ13" s="108"/>
-      <c r="BR13" s="108"/>
-      <c r="BS13" s="108"/>
-      <c r="BT13" s="108"/>
-      <c r="BU13" s="108"/>
-      <c r="BV13" s="108"/>
-      <c r="BW13" s="108"/>
-      <c r="BX13" s="108"/>
-      <c r="BY13" s="108"/>
-      <c r="BZ13" s="108"/>
-      <c r="CA13" s="108"/>
-      <c r="CB13" s="108"/>
-      <c r="CC13" s="108"/>
-      <c r="CD13" s="108"/>
-      <c r="CE13" s="108"/>
-      <c r="CF13" s="108"/>
-      <c r="CG13" s="108"/>
-      <c r="CH13" s="108"/>
-      <c r="CI13" s="109"/>
-      <c r="CJ13" s="111">
+      <c r="BE13" s="107"/>
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="107"/>
+      <c r="BH13" s="107"/>
+      <c r="BI13" s="107"/>
+      <c r="BJ13" s="107"/>
+      <c r="BK13" s="107"/>
+      <c r="BL13" s="107"/>
+      <c r="BM13" s="107"/>
+      <c r="BN13" s="107"/>
+      <c r="BO13" s="107"/>
+      <c r="BP13" s="107"/>
+      <c r="BQ13" s="107"/>
+      <c r="BR13" s="107"/>
+      <c r="BS13" s="107"/>
+      <c r="BT13" s="107"/>
+      <c r="BU13" s="107"/>
+      <c r="BV13" s="107"/>
+      <c r="BW13" s="107"/>
+      <c r="BX13" s="107"/>
+      <c r="BY13" s="107"/>
+      <c r="BZ13" s="107"/>
+      <c r="CA13" s="107"/>
+      <c r="CB13" s="107"/>
+      <c r="CC13" s="107"/>
+      <c r="CD13" s="107"/>
+      <c r="CE13" s="107"/>
+      <c r="CF13" s="107"/>
+      <c r="CG13" s="107"/>
+      <c r="CH13" s="107"/>
+      <c r="CI13" s="108"/>
+      <c r="CJ13" s="43">
         <v>41603</v>
       </c>
-      <c r="CK13" s="102"/>
-      <c r="CL13" s="102"/>
-      <c r="CM13" s="102"/>
-      <c r="CN13" s="102"/>
-      <c r="CO13" s="110"/>
-      <c r="CP13" s="101" t="s">
+      <c r="CK13" s="44"/>
+      <c r="CL13" s="44"/>
+      <c r="CM13" s="44"/>
+      <c r="CN13" s="44"/>
+      <c r="CO13" s="45"/>
+      <c r="CP13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="CQ13" s="102"/>
-      <c r="CR13" s="102"/>
-      <c r="CS13" s="110"/>
+      <c r="CQ13" s="44"/>
+      <c r="CR13" s="44"/>
+      <c r="CS13" s="45"/>
     </row>
     <row r="14" spans="1:97" ht="62.25" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="47">
         <v>8</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
@@ -2739,98 +2784,104 @@
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="27"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="27"/>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="27"/>
-      <c r="AY14" s="27"/>
-      <c r="AZ14" s="27"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="27"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="26"/>
-      <c r="BE14" s="27"/>
-      <c r="BF14" s="27"/>
-      <c r="BG14" s="27"/>
-      <c r="BH14" s="27"/>
-      <c r="BI14" s="27"/>
-      <c r="BJ14" s="27"/>
-      <c r="BK14" s="27"/>
-      <c r="BL14" s="27"/>
-      <c r="BM14" s="27"/>
-      <c r="BN14" s="27"/>
-      <c r="BO14" s="27"/>
-      <c r="BP14" s="27"/>
-      <c r="BQ14" s="27"/>
-      <c r="BR14" s="27"/>
-      <c r="BS14" s="27"/>
-      <c r="BT14" s="27"/>
-      <c r="BU14" s="27"/>
-      <c r="BV14" s="27"/>
-      <c r="BW14" s="27"/>
-      <c r="BX14" s="27"/>
-      <c r="BY14" s="27"/>
-      <c r="BZ14" s="27"/>
-      <c r="CA14" s="27"/>
-      <c r="CB14" s="27"/>
-      <c r="CC14" s="27"/>
-      <c r="CD14" s="27"/>
-      <c r="CE14" s="27"/>
-      <c r="CF14" s="27"/>
-      <c r="CG14" s="27"/>
-      <c r="CH14" s="27"/>
-      <c r="CI14" s="28"/>
-      <c r="CJ14" s="26"/>
-      <c r="CK14" s="27"/>
-      <c r="CL14" s="27"/>
-      <c r="CM14" s="27"/>
-      <c r="CN14" s="27"/>
-      <c r="CO14" s="28"/>
-      <c r="CP14" s="26"/>
-      <c r="CQ14" s="27"/>
-      <c r="CR14" s="27"/>
-      <c r="CS14" s="28"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29"/>
+      <c r="BC14" s="30"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="29"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="29"/>
+      <c r="BK14" s="29"/>
+      <c r="BL14" s="29"/>
+      <c r="BM14" s="29"/>
+      <c r="BN14" s="29"/>
+      <c r="BO14" s="29"/>
+      <c r="BP14" s="29"/>
+      <c r="BQ14" s="29"/>
+      <c r="BR14" s="29"/>
+      <c r="BS14" s="29"/>
+      <c r="BT14" s="29"/>
+      <c r="BU14" s="29"/>
+      <c r="BV14" s="29"/>
+      <c r="BW14" s="29"/>
+      <c r="BX14" s="29"/>
+      <c r="BY14" s="29"/>
+      <c r="BZ14" s="29"/>
+      <c r="CA14" s="29"/>
+      <c r="CB14" s="29"/>
+      <c r="CC14" s="29"/>
+      <c r="CD14" s="29"/>
+      <c r="CE14" s="29"/>
+      <c r="CF14" s="29"/>
+      <c r="CG14" s="29"/>
+      <c r="CH14" s="29"/>
+      <c r="CI14" s="30"/>
+      <c r="CJ14" s="28"/>
+      <c r="CK14" s="29"/>
+      <c r="CL14" s="29"/>
+      <c r="CM14" s="29"/>
+      <c r="CN14" s="29"/>
+      <c r="CO14" s="30"/>
+      <c r="CP14" s="28"/>
+      <c r="CQ14" s="29"/>
+      <c r="CR14" s="29"/>
+      <c r="CS14" s="30"/>
     </row>
-    <row r="15" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="9"/>
+    <row r="15" spans="1:97" ht="34.5" customHeight="1">
+      <c r="A15" s="47">
+        <v>9</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -2840,89 +2891,91 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="26"/>
-      <c r="BE15" s="27"/>
-      <c r="BF15" s="27"/>
-      <c r="BG15" s="27"/>
-      <c r="BH15" s="27"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="27"/>
-      <c r="BL15" s="27"/>
-      <c r="BM15" s="27"/>
-      <c r="BN15" s="27"/>
-      <c r="BO15" s="27"/>
-      <c r="BP15" s="27"/>
-      <c r="BQ15" s="27"/>
-      <c r="BR15" s="27"/>
-      <c r="BS15" s="27"/>
-      <c r="BT15" s="27"/>
-      <c r="BU15" s="27"/>
-      <c r="BV15" s="27"/>
-      <c r="BW15" s="27"/>
-      <c r="BX15" s="27"/>
-      <c r="BY15" s="27"/>
-      <c r="BZ15" s="27"/>
-      <c r="CA15" s="27"/>
-      <c r="CB15" s="27"/>
-      <c r="CC15" s="27"/>
-      <c r="CD15" s="27"/>
-      <c r="CE15" s="27"/>
-      <c r="CF15" s="27"/>
-      <c r="CG15" s="27"/>
-      <c r="CH15" s="27"/>
-      <c r="CI15" s="28"/>
-      <c r="CJ15" s="26"/>
-      <c r="CK15" s="27"/>
-      <c r="CL15" s="27"/>
-      <c r="CM15" s="27"/>
-      <c r="CN15" s="27"/>
-      <c r="CO15" s="28"/>
-      <c r="CP15" s="26"/>
-      <c r="CQ15" s="27"/>
-      <c r="CR15" s="27"/>
-      <c r="CS15" s="28"/>
+      <c r="S15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="104"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="104"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="104"/>
+      <c r="AT15" s="104"/>
+      <c r="AU15" s="104"/>
+      <c r="AV15" s="104"/>
+      <c r="AW15" s="104"/>
+      <c r="AX15" s="104"/>
+      <c r="AY15" s="104"/>
+      <c r="AZ15" s="104"/>
+      <c r="BA15" s="104"/>
+      <c r="BB15" s="104"/>
+      <c r="BC15" s="105"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="29"/>
+      <c r="BF15" s="29"/>
+      <c r="BG15" s="29"/>
+      <c r="BH15" s="29"/>
+      <c r="BI15" s="29"/>
+      <c r="BJ15" s="29"/>
+      <c r="BK15" s="29"/>
+      <c r="BL15" s="29"/>
+      <c r="BM15" s="29"/>
+      <c r="BN15" s="29"/>
+      <c r="BO15" s="29"/>
+      <c r="BP15" s="29"/>
+      <c r="BQ15" s="29"/>
+      <c r="BR15" s="29"/>
+      <c r="BS15" s="29"/>
+      <c r="BT15" s="29"/>
+      <c r="BU15" s="29"/>
+      <c r="BV15" s="29"/>
+      <c r="BW15" s="29"/>
+      <c r="BX15" s="29"/>
+      <c r="BY15" s="29"/>
+      <c r="BZ15" s="29"/>
+      <c r="CA15" s="29"/>
+      <c r="CB15" s="29"/>
+      <c r="CC15" s="29"/>
+      <c r="CD15" s="29"/>
+      <c r="CE15" s="29"/>
+      <c r="CF15" s="29"/>
+      <c r="CG15" s="29"/>
+      <c r="CH15" s="29"/>
+      <c r="CI15" s="30"/>
+      <c r="CJ15" s="28"/>
+      <c r="CK15" s="29"/>
+      <c r="CL15" s="29"/>
+      <c r="CM15" s="29"/>
+      <c r="CN15" s="29"/>
+      <c r="CO15" s="30"/>
+      <c r="CP15" s="28"/>
+      <c r="CQ15" s="29"/>
+      <c r="CR15" s="29"/>
+      <c r="CS15" s="30"/>
     </row>
     <row r="16" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="9"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -2939,89 +2992,89 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="27"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="27"/>
-      <c r="BH16" s="27"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
-      <c r="BK16" s="27"/>
-      <c r="BL16" s="27"/>
-      <c r="BM16" s="27"/>
-      <c r="BN16" s="27"/>
-      <c r="BO16" s="27"/>
-      <c r="BP16" s="27"/>
-      <c r="BQ16" s="27"/>
-      <c r="BR16" s="27"/>
-      <c r="BS16" s="27"/>
-      <c r="BT16" s="27"/>
-      <c r="BU16" s="27"/>
-      <c r="BV16" s="27"/>
-      <c r="BW16" s="27"/>
-      <c r="BX16" s="27"/>
-      <c r="BY16" s="27"/>
-      <c r="BZ16" s="27"/>
-      <c r="CA16" s="27"/>
-      <c r="CB16" s="27"/>
-      <c r="CC16" s="27"/>
-      <c r="CD16" s="27"/>
-      <c r="CE16" s="27"/>
-      <c r="CF16" s="27"/>
-      <c r="CG16" s="27"/>
-      <c r="CH16" s="27"/>
-      <c r="CI16" s="28"/>
-      <c r="CJ16" s="26"/>
-      <c r="CK16" s="27"/>
-      <c r="CL16" s="27"/>
-      <c r="CM16" s="27"/>
-      <c r="CN16" s="27"/>
-      <c r="CO16" s="28"/>
-      <c r="CP16" s="26"/>
-      <c r="CQ16" s="27"/>
-      <c r="CR16" s="27"/>
-      <c r="CS16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+      <c r="BB16" s="29"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="29"/>
+      <c r="BF16" s="29"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="29"/>
+      <c r="BI16" s="29"/>
+      <c r="BJ16" s="29"/>
+      <c r="BK16" s="29"/>
+      <c r="BL16" s="29"/>
+      <c r="BM16" s="29"/>
+      <c r="BN16" s="29"/>
+      <c r="BO16" s="29"/>
+      <c r="BP16" s="29"/>
+      <c r="BQ16" s="29"/>
+      <c r="BR16" s="29"/>
+      <c r="BS16" s="29"/>
+      <c r="BT16" s="29"/>
+      <c r="BU16" s="29"/>
+      <c r="BV16" s="29"/>
+      <c r="BW16" s="29"/>
+      <c r="BX16" s="29"/>
+      <c r="BY16" s="29"/>
+      <c r="BZ16" s="29"/>
+      <c r="CA16" s="29"/>
+      <c r="CB16" s="29"/>
+      <c r="CC16" s="29"/>
+      <c r="CD16" s="29"/>
+      <c r="CE16" s="29"/>
+      <c r="CF16" s="29"/>
+      <c r="CG16" s="29"/>
+      <c r="CH16" s="29"/>
+      <c r="CI16" s="30"/>
+      <c r="CJ16" s="28"/>
+      <c r="CK16" s="29"/>
+      <c r="CL16" s="29"/>
+      <c r="CM16" s="29"/>
+      <c r="CN16" s="29"/>
+      <c r="CO16" s="30"/>
+      <c r="CP16" s="28"/>
+      <c r="CQ16" s="29"/>
+      <c r="CR16" s="29"/>
+      <c r="CS16" s="30"/>
     </row>
     <row r="17" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="9"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -3038,89 +3091,89 @@
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="26"/>
-      <c r="BE17" s="27"/>
-      <c r="BF17" s="27"/>
-      <c r="BG17" s="27"/>
-      <c r="BH17" s="27"/>
-      <c r="BI17" s="27"/>
-      <c r="BJ17" s="27"/>
-      <c r="BK17" s="27"/>
-      <c r="BL17" s="27"/>
-      <c r="BM17" s="27"/>
-      <c r="BN17" s="27"/>
-      <c r="BO17" s="27"/>
-      <c r="BP17" s="27"/>
-      <c r="BQ17" s="27"/>
-      <c r="BR17" s="27"/>
-      <c r="BS17" s="27"/>
-      <c r="BT17" s="27"/>
-      <c r="BU17" s="27"/>
-      <c r="BV17" s="27"/>
-      <c r="BW17" s="27"/>
-      <c r="BX17" s="27"/>
-      <c r="BY17" s="27"/>
-      <c r="BZ17" s="27"/>
-      <c r="CA17" s="27"/>
-      <c r="CB17" s="27"/>
-      <c r="CC17" s="27"/>
-      <c r="CD17" s="27"/>
-      <c r="CE17" s="27"/>
-      <c r="CF17" s="27"/>
-      <c r="CG17" s="27"/>
-      <c r="CH17" s="27"/>
-      <c r="CI17" s="28"/>
-      <c r="CJ17" s="26"/>
-      <c r="CK17" s="27"/>
-      <c r="CL17" s="27"/>
-      <c r="CM17" s="27"/>
-      <c r="CN17" s="27"/>
-      <c r="CO17" s="28"/>
-      <c r="CP17" s="26"/>
-      <c r="CQ17" s="27"/>
-      <c r="CR17" s="27"/>
-      <c r="CS17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+      <c r="BB17" s="29"/>
+      <c r="BC17" s="30"/>
+      <c r="BD17" s="28"/>
+      <c r="BE17" s="29"/>
+      <c r="BF17" s="29"/>
+      <c r="BG17" s="29"/>
+      <c r="BH17" s="29"/>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="29"/>
+      <c r="BK17" s="29"/>
+      <c r="BL17" s="29"/>
+      <c r="BM17" s="29"/>
+      <c r="BN17" s="29"/>
+      <c r="BO17" s="29"/>
+      <c r="BP17" s="29"/>
+      <c r="BQ17" s="29"/>
+      <c r="BR17" s="29"/>
+      <c r="BS17" s="29"/>
+      <c r="BT17" s="29"/>
+      <c r="BU17" s="29"/>
+      <c r="BV17" s="29"/>
+      <c r="BW17" s="29"/>
+      <c r="BX17" s="29"/>
+      <c r="BY17" s="29"/>
+      <c r="BZ17" s="29"/>
+      <c r="CA17" s="29"/>
+      <c r="CB17" s="29"/>
+      <c r="CC17" s="29"/>
+      <c r="CD17" s="29"/>
+      <c r="CE17" s="29"/>
+      <c r="CF17" s="29"/>
+      <c r="CG17" s="29"/>
+      <c r="CH17" s="29"/>
+      <c r="CI17" s="30"/>
+      <c r="CJ17" s="28"/>
+      <c r="CK17" s="29"/>
+      <c r="CL17" s="29"/>
+      <c r="CM17" s="29"/>
+      <c r="CN17" s="29"/>
+      <c r="CO17" s="30"/>
+      <c r="CP17" s="28"/>
+      <c r="CQ17" s="29"/>
+      <c r="CR17" s="29"/>
+      <c r="CS17" s="30"/>
     </row>
     <row r="18" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="9"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -3137,89 +3190,89 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
-      <c r="AS18" s="27"/>
-      <c r="AT18" s="27"/>
-      <c r="AU18" s="27"/>
-      <c r="AV18" s="27"/>
-      <c r="AW18" s="27"/>
-      <c r="AX18" s="27"/>
-      <c r="AY18" s="27"/>
-      <c r="AZ18" s="27"/>
-      <c r="BA18" s="27"/>
-      <c r="BB18" s="27"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="26"/>
-      <c r="BE18" s="27"/>
-      <c r="BF18" s="27"/>
-      <c r="BG18" s="27"/>
-      <c r="BH18" s="27"/>
-      <c r="BI18" s="27"/>
-      <c r="BJ18" s="27"/>
-      <c r="BK18" s="27"/>
-      <c r="BL18" s="27"/>
-      <c r="BM18" s="27"/>
-      <c r="BN18" s="27"/>
-      <c r="BO18" s="27"/>
-      <c r="BP18" s="27"/>
-      <c r="BQ18" s="27"/>
-      <c r="BR18" s="27"/>
-      <c r="BS18" s="27"/>
-      <c r="BT18" s="27"/>
-      <c r="BU18" s="27"/>
-      <c r="BV18" s="27"/>
-      <c r="BW18" s="27"/>
-      <c r="BX18" s="27"/>
-      <c r="BY18" s="27"/>
-      <c r="BZ18" s="27"/>
-      <c r="CA18" s="27"/>
-      <c r="CB18" s="27"/>
-      <c r="CC18" s="27"/>
-      <c r="CD18" s="27"/>
-      <c r="CE18" s="27"/>
-      <c r="CF18" s="27"/>
-      <c r="CG18" s="27"/>
-      <c r="CH18" s="27"/>
-      <c r="CI18" s="28"/>
-      <c r="CJ18" s="26"/>
-      <c r="CK18" s="27"/>
-      <c r="CL18" s="27"/>
-      <c r="CM18" s="27"/>
-      <c r="CN18" s="27"/>
-      <c r="CO18" s="28"/>
-      <c r="CP18" s="26"/>
-      <c r="CQ18" s="27"/>
-      <c r="CR18" s="27"/>
-      <c r="CS18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="29"/>
+      <c r="BF18" s="29"/>
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
+      <c r="BK18" s="29"/>
+      <c r="BL18" s="29"/>
+      <c r="BM18" s="29"/>
+      <c r="BN18" s="29"/>
+      <c r="BO18" s="29"/>
+      <c r="BP18" s="29"/>
+      <c r="BQ18" s="29"/>
+      <c r="BR18" s="29"/>
+      <c r="BS18" s="29"/>
+      <c r="BT18" s="29"/>
+      <c r="BU18" s="29"/>
+      <c r="BV18" s="29"/>
+      <c r="BW18" s="29"/>
+      <c r="BX18" s="29"/>
+      <c r="BY18" s="29"/>
+      <c r="BZ18" s="29"/>
+      <c r="CA18" s="29"/>
+      <c r="CB18" s="29"/>
+      <c r="CC18" s="29"/>
+      <c r="CD18" s="29"/>
+      <c r="CE18" s="29"/>
+      <c r="CF18" s="29"/>
+      <c r="CG18" s="29"/>
+      <c r="CH18" s="29"/>
+      <c r="CI18" s="30"/>
+      <c r="CJ18" s="28"/>
+      <c r="CK18" s="29"/>
+      <c r="CL18" s="29"/>
+      <c r="CM18" s="29"/>
+      <c r="CN18" s="29"/>
+      <c r="CO18" s="30"/>
+      <c r="CP18" s="28"/>
+      <c r="CQ18" s="29"/>
+      <c r="CR18" s="29"/>
+      <c r="CS18" s="30"/>
     </row>
     <row r="19" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="9"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -3236,89 +3289,89 @@
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="27"/>
-      <c r="AR19" s="27"/>
-      <c r="AS19" s="27"/>
-      <c r="AT19" s="27"/>
-      <c r="AU19" s="27"/>
-      <c r="AV19" s="27"/>
-      <c r="AW19" s="27"/>
-      <c r="AX19" s="27"/>
-      <c r="AY19" s="27"/>
-      <c r="AZ19" s="27"/>
-      <c r="BA19" s="27"/>
-      <c r="BB19" s="27"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="27"/>
-      <c r="BF19" s="27"/>
-      <c r="BG19" s="27"/>
-      <c r="BH19" s="27"/>
-      <c r="BI19" s="27"/>
-      <c r="BJ19" s="27"/>
-      <c r="BK19" s="27"/>
-      <c r="BL19" s="27"/>
-      <c r="BM19" s="27"/>
-      <c r="BN19" s="27"/>
-      <c r="BO19" s="27"/>
-      <c r="BP19" s="27"/>
-      <c r="BQ19" s="27"/>
-      <c r="BR19" s="27"/>
-      <c r="BS19" s="27"/>
-      <c r="BT19" s="27"/>
-      <c r="BU19" s="27"/>
-      <c r="BV19" s="27"/>
-      <c r="BW19" s="27"/>
-      <c r="BX19" s="27"/>
-      <c r="BY19" s="27"/>
-      <c r="BZ19" s="27"/>
-      <c r="CA19" s="27"/>
-      <c r="CB19" s="27"/>
-      <c r="CC19" s="27"/>
-      <c r="CD19" s="27"/>
-      <c r="CE19" s="27"/>
-      <c r="CF19" s="27"/>
-      <c r="CG19" s="27"/>
-      <c r="CH19" s="27"/>
-      <c r="CI19" s="28"/>
-      <c r="CJ19" s="26"/>
-      <c r="CK19" s="27"/>
-      <c r="CL19" s="27"/>
-      <c r="CM19" s="27"/>
-      <c r="CN19" s="27"/>
-      <c r="CO19" s="28"/>
-      <c r="CP19" s="26"/>
-      <c r="CQ19" s="27"/>
-      <c r="CR19" s="27"/>
-      <c r="CS19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="30"/>
+      <c r="BD19" s="28"/>
+      <c r="BE19" s="29"/>
+      <c r="BF19" s="29"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="29"/>
+      <c r="BK19" s="29"/>
+      <c r="BL19" s="29"/>
+      <c r="BM19" s="29"/>
+      <c r="BN19" s="29"/>
+      <c r="BO19" s="29"/>
+      <c r="BP19" s="29"/>
+      <c r="BQ19" s="29"/>
+      <c r="BR19" s="29"/>
+      <c r="BS19" s="29"/>
+      <c r="BT19" s="29"/>
+      <c r="BU19" s="29"/>
+      <c r="BV19" s="29"/>
+      <c r="BW19" s="29"/>
+      <c r="BX19" s="29"/>
+      <c r="BY19" s="29"/>
+      <c r="BZ19" s="29"/>
+      <c r="CA19" s="29"/>
+      <c r="CB19" s="29"/>
+      <c r="CC19" s="29"/>
+      <c r="CD19" s="29"/>
+      <c r="CE19" s="29"/>
+      <c r="CF19" s="29"/>
+      <c r="CG19" s="29"/>
+      <c r="CH19" s="29"/>
+      <c r="CI19" s="30"/>
+      <c r="CJ19" s="28"/>
+      <c r="CK19" s="29"/>
+      <c r="CL19" s="29"/>
+      <c r="CM19" s="29"/>
+      <c r="CN19" s="29"/>
+      <c r="CO19" s="30"/>
+      <c r="CP19" s="28"/>
+      <c r="CQ19" s="29"/>
+      <c r="CR19" s="29"/>
+      <c r="CS19" s="30"/>
     </row>
     <row r="20" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="9"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -3335,89 +3388,89 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="27"/>
-      <c r="AS20" s="27"/>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="27"/>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="27"/>
-      <c r="AY20" s="27"/>
-      <c r="AZ20" s="27"/>
-      <c r="BA20" s="27"/>
-      <c r="BB20" s="27"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="26"/>
-      <c r="BE20" s="27"/>
-      <c r="BF20" s="27"/>
-      <c r="BG20" s="27"/>
-      <c r="BH20" s="27"/>
-      <c r="BI20" s="27"/>
-      <c r="BJ20" s="27"/>
-      <c r="BK20" s="27"/>
-      <c r="BL20" s="27"/>
-      <c r="BM20" s="27"/>
-      <c r="BN20" s="27"/>
-      <c r="BO20" s="27"/>
-      <c r="BP20" s="27"/>
-      <c r="BQ20" s="27"/>
-      <c r="BR20" s="27"/>
-      <c r="BS20" s="27"/>
-      <c r="BT20" s="27"/>
-      <c r="BU20" s="27"/>
-      <c r="BV20" s="27"/>
-      <c r="BW20" s="27"/>
-      <c r="BX20" s="27"/>
-      <c r="BY20" s="27"/>
-      <c r="BZ20" s="27"/>
-      <c r="CA20" s="27"/>
-      <c r="CB20" s="27"/>
-      <c r="CC20" s="27"/>
-      <c r="CD20" s="27"/>
-      <c r="CE20" s="27"/>
-      <c r="CF20" s="27"/>
-      <c r="CG20" s="27"/>
-      <c r="CH20" s="27"/>
-      <c r="CI20" s="28"/>
-      <c r="CJ20" s="26"/>
-      <c r="CK20" s="27"/>
-      <c r="CL20" s="27"/>
-      <c r="CM20" s="27"/>
-      <c r="CN20" s="27"/>
-      <c r="CO20" s="28"/>
-      <c r="CP20" s="26"/>
-      <c r="CQ20" s="27"/>
-      <c r="CR20" s="27"/>
-      <c r="CS20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="30"/>
+      <c r="BD20" s="28"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="29"/>
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="29"/>
+      <c r="BO20" s="29"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="29"/>
+      <c r="BR20" s="29"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
+      <c r="BU20" s="29"/>
+      <c r="BV20" s="29"/>
+      <c r="BW20" s="29"/>
+      <c r="BX20" s="29"/>
+      <c r="BY20" s="29"/>
+      <c r="BZ20" s="29"/>
+      <c r="CA20" s="29"/>
+      <c r="CB20" s="29"/>
+      <c r="CC20" s="29"/>
+      <c r="CD20" s="29"/>
+      <c r="CE20" s="29"/>
+      <c r="CF20" s="29"/>
+      <c r="CG20" s="29"/>
+      <c r="CH20" s="29"/>
+      <c r="CI20" s="30"/>
+      <c r="CJ20" s="28"/>
+      <c r="CK20" s="29"/>
+      <c r="CL20" s="29"/>
+      <c r="CM20" s="29"/>
+      <c r="CN20" s="29"/>
+      <c r="CO20" s="30"/>
+      <c r="CP20" s="28"/>
+      <c r="CQ20" s="29"/>
+      <c r="CR20" s="29"/>
+      <c r="CS20" s="30"/>
     </row>
     <row r="21" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -3434,89 +3487,89 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="27"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="27"/>
-      <c r="BC21" s="28"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="27"/>
-      <c r="BF21" s="27"/>
-      <c r="BG21" s="27"/>
-      <c r="BH21" s="27"/>
-      <c r="BI21" s="27"/>
-      <c r="BJ21" s="27"/>
-      <c r="BK21" s="27"/>
-      <c r="BL21" s="27"/>
-      <c r="BM21" s="27"/>
-      <c r="BN21" s="27"/>
-      <c r="BO21" s="27"/>
-      <c r="BP21" s="27"/>
-      <c r="BQ21" s="27"/>
-      <c r="BR21" s="27"/>
-      <c r="BS21" s="27"/>
-      <c r="BT21" s="27"/>
-      <c r="BU21" s="27"/>
-      <c r="BV21" s="27"/>
-      <c r="BW21" s="27"/>
-      <c r="BX21" s="27"/>
-      <c r="BY21" s="27"/>
-      <c r="BZ21" s="27"/>
-      <c r="CA21" s="27"/>
-      <c r="CB21" s="27"/>
-      <c r="CC21" s="27"/>
-      <c r="CD21" s="27"/>
-      <c r="CE21" s="27"/>
-      <c r="CF21" s="27"/>
-      <c r="CG21" s="27"/>
-      <c r="CH21" s="27"/>
-      <c r="CI21" s="28"/>
-      <c r="CJ21" s="26"/>
-      <c r="CK21" s="27"/>
-      <c r="CL21" s="27"/>
-      <c r="CM21" s="27"/>
-      <c r="CN21" s="27"/>
-      <c r="CO21" s="28"/>
-      <c r="CP21" s="26"/>
-      <c r="CQ21" s="27"/>
-      <c r="CR21" s="27"/>
-      <c r="CS21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="30"/>
+      <c r="BD21" s="28"/>
+      <c r="BE21" s="29"/>
+      <c r="BF21" s="29"/>
+      <c r="BG21" s="29"/>
+      <c r="BH21" s="29"/>
+      <c r="BI21" s="29"/>
+      <c r="BJ21" s="29"/>
+      <c r="BK21" s="29"/>
+      <c r="BL21" s="29"/>
+      <c r="BM21" s="29"/>
+      <c r="BN21" s="29"/>
+      <c r="BO21" s="29"/>
+      <c r="BP21" s="29"/>
+      <c r="BQ21" s="29"/>
+      <c r="BR21" s="29"/>
+      <c r="BS21" s="29"/>
+      <c r="BT21" s="29"/>
+      <c r="BU21" s="29"/>
+      <c r="BV21" s="29"/>
+      <c r="BW21" s="29"/>
+      <c r="BX21" s="29"/>
+      <c r="BY21" s="29"/>
+      <c r="BZ21" s="29"/>
+      <c r="CA21" s="29"/>
+      <c r="CB21" s="29"/>
+      <c r="CC21" s="29"/>
+      <c r="CD21" s="29"/>
+      <c r="CE21" s="29"/>
+      <c r="CF21" s="29"/>
+      <c r="CG21" s="29"/>
+      <c r="CH21" s="29"/>
+      <c r="CI21" s="30"/>
+      <c r="CJ21" s="28"/>
+      <c r="CK21" s="29"/>
+      <c r="CL21" s="29"/>
+      <c r="CM21" s="29"/>
+      <c r="CN21" s="29"/>
+      <c r="CO21" s="30"/>
+      <c r="CP21" s="28"/>
+      <c r="CQ21" s="29"/>
+      <c r="CR21" s="29"/>
+      <c r="CS21" s="30"/>
     </row>
     <row r="22" spans="1:97" ht="23.25" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -3533,85 +3586,85 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="35"/>
-      <c r="BC22" s="36"/>
-      <c r="BD22" s="34"/>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="35"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="35"/>
-      <c r="BO22" s="35"/>
-      <c r="BP22" s="35"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="35"/>
-      <c r="BU22" s="35"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="BY22" s="35"/>
-      <c r="BZ22" s="35"/>
-      <c r="CA22" s="35"/>
-      <c r="CB22" s="35"/>
-      <c r="CC22" s="35"/>
-      <c r="CD22" s="35"/>
-      <c r="CE22" s="35"/>
-      <c r="CF22" s="35"/>
-      <c r="CG22" s="35"/>
-      <c r="CH22" s="35"/>
-      <c r="CI22" s="36"/>
-      <c r="CJ22" s="34"/>
-      <c r="CK22" s="35"/>
-      <c r="CL22" s="35"/>
-      <c r="CM22" s="35"/>
-      <c r="CN22" s="35"/>
-      <c r="CO22" s="36"/>
-      <c r="CP22" s="34"/>
-      <c r="CQ22" s="35"/>
-      <c r="CR22" s="35"/>
-      <c r="CS22" s="36"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="33"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="32"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="32"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="32"/>
+      <c r="BK22" s="32"/>
+      <c r="BL22" s="32"/>
+      <c r="BM22" s="32"/>
+      <c r="BN22" s="32"/>
+      <c r="BO22" s="32"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="32"/>
+      <c r="BR22" s="32"/>
+      <c r="BS22" s="32"/>
+      <c r="BT22" s="32"/>
+      <c r="BU22" s="32"/>
+      <c r="BV22" s="32"/>
+      <c r="BW22" s="32"/>
+      <c r="BX22" s="32"/>
+      <c r="BY22" s="32"/>
+      <c r="BZ22" s="32"/>
+      <c r="CA22" s="32"/>
+      <c r="CB22" s="32"/>
+      <c r="CC22" s="32"/>
+      <c r="CD22" s="32"/>
+      <c r="CE22" s="32"/>
+      <c r="CF22" s="32"/>
+      <c r="CG22" s="32"/>
+      <c r="CH22" s="32"/>
+      <c r="CI22" s="33"/>
+      <c r="CJ22" s="31"/>
+      <c r="CK22" s="32"/>
+      <c r="CL22" s="32"/>
+      <c r="CM22" s="32"/>
+      <c r="CN22" s="32"/>
+      <c r="CO22" s="33"/>
+      <c r="CP22" s="31"/>
+      <c r="CQ22" s="32"/>
+      <c r="CR22" s="32"/>
+      <c r="CS22" s="33"/>
     </row>
     <row r="23" spans="1:97" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
@@ -10323,6 +10376,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="BD22:CI22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="S11:BC11"/>
+    <mergeCell ref="BD11:CI11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="S12:BC12"/>
+    <mergeCell ref="BD12:CI12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="S15:BC15"/>
+    <mergeCell ref="BD15:CI15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="S16:BC16"/>
+    <mergeCell ref="BD16:CI16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="S13:BC13"/>
+    <mergeCell ref="BD13:CI13"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="S21:BC21"/>
+    <mergeCell ref="BD21:CI21"/>
+    <mergeCell ref="S17:BC17"/>
+    <mergeCell ref="BD17:CI17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y4"/>
+    <mergeCell ref="S6:BC6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="S22:BC22"/>
+    <mergeCell ref="Z1:AI1"/>
+    <mergeCell ref="Z2:AI4"/>
+    <mergeCell ref="CB1:CE1"/>
+    <mergeCell ref="AJ2:AV4"/>
+    <mergeCell ref="AW2:BF4"/>
+    <mergeCell ref="CB2:CE4"/>
+    <mergeCell ref="AJ1:AV1"/>
+    <mergeCell ref="AW1:BF1"/>
+    <mergeCell ref="BT1:CA1"/>
+    <mergeCell ref="BT2:BW4"/>
+    <mergeCell ref="BX2:CA4"/>
+    <mergeCell ref="BG2:BS4"/>
+    <mergeCell ref="BG1:BS1"/>
+    <mergeCell ref="BD6:CI6"/>
+    <mergeCell ref="BD7:CI7"/>
+    <mergeCell ref="BD8:CI8"/>
+    <mergeCell ref="BD9:CI9"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="S20:BC20"/>
+    <mergeCell ref="BD20:CI20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="S18:BC18"/>
+    <mergeCell ref="BD18:CI18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="S19:BC19"/>
+    <mergeCell ref="BD19:CI19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="S14:BC14"/>
+    <mergeCell ref="BD14:CI14"/>
+    <mergeCell ref="BD10:CI10"/>
+    <mergeCell ref="S10:BC10"/>
+    <mergeCell ref="S7:BC7"/>
+    <mergeCell ref="S8:BC8"/>
+    <mergeCell ref="S9:BC9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="CP11:CS11"/>
+    <mergeCell ref="CP12:CS12"/>
+    <mergeCell ref="CP13:CS13"/>
+    <mergeCell ref="CP14:CS14"/>
+    <mergeCell ref="CP15:CS15"/>
+    <mergeCell ref="CP6:CS6"/>
+    <mergeCell ref="CP7:CS7"/>
+    <mergeCell ref="CP8:CS8"/>
+    <mergeCell ref="CP9:CS9"/>
+    <mergeCell ref="CP10:CS10"/>
     <mergeCell ref="CJ20:CO20"/>
     <mergeCell ref="CJ21:CO21"/>
     <mergeCell ref="CJ22:CO22"/>
@@ -10347,85 +10479,6 @@
     <mergeCell ref="CP18:CS18"/>
     <mergeCell ref="CP19:CS19"/>
     <mergeCell ref="CP20:CS20"/>
-    <mergeCell ref="CP11:CS11"/>
-    <mergeCell ref="CP12:CS12"/>
-    <mergeCell ref="CP13:CS13"/>
-    <mergeCell ref="CP14:CS14"/>
-    <mergeCell ref="CP15:CS15"/>
-    <mergeCell ref="CP6:CS6"/>
-    <mergeCell ref="CP7:CS7"/>
-    <mergeCell ref="CP8:CS8"/>
-    <mergeCell ref="CP9:CS9"/>
-    <mergeCell ref="CP10:CS10"/>
-    <mergeCell ref="BD6:CI6"/>
-    <mergeCell ref="BD7:CI7"/>
-    <mergeCell ref="BD8:CI8"/>
-    <mergeCell ref="BD9:CI9"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="S20:BC20"/>
-    <mergeCell ref="BD20:CI20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="S18:BC18"/>
-    <mergeCell ref="BD18:CI18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="S19:BC19"/>
-    <mergeCell ref="BD19:CI19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="S14:BC14"/>
-    <mergeCell ref="BD14:CI14"/>
-    <mergeCell ref="BD10:CI10"/>
-    <mergeCell ref="S10:BC10"/>
-    <mergeCell ref="S7:BC7"/>
-    <mergeCell ref="S8:BC8"/>
-    <mergeCell ref="S9:BC9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="Z1:AI1"/>
-    <mergeCell ref="Z2:AI4"/>
-    <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="AJ2:AV4"/>
-    <mergeCell ref="AW2:BF4"/>
-    <mergeCell ref="CB2:CE4"/>
-    <mergeCell ref="AJ1:AV1"/>
-    <mergeCell ref="AW1:BF1"/>
-    <mergeCell ref="BT1:CA1"/>
-    <mergeCell ref="BT2:BW4"/>
-    <mergeCell ref="BX2:CA4"/>
-    <mergeCell ref="BG2:BS4"/>
-    <mergeCell ref="BG1:BS1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y4"/>
-    <mergeCell ref="S6:BC6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="S22:BC22"/>
-    <mergeCell ref="BD22:CI22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="S11:BC11"/>
-    <mergeCell ref="BD11:CI11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="S12:BC12"/>
-    <mergeCell ref="BD12:CI12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="S15:BC15"/>
-    <mergeCell ref="BD15:CI15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="S16:BC16"/>
-    <mergeCell ref="BD16:CI16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="S13:BC13"/>
-    <mergeCell ref="BD13:CI13"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="S21:BC21"/>
-    <mergeCell ref="BD21:CI21"/>
-    <mergeCell ref="S17:BC17"/>
-    <mergeCell ref="BD17:CI17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
